--- a/api/Notice/Council_API.xlsx
+++ b/api/Notice/Council_API.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Documents\GitHub\AISW_Web_Community\api\Notice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D251D2D1-2223-48C4-A63D-452035F49D0F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFF5D296-A485-48BD-BD0D-1E61F812E807}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{4D31F6B6-070E-4774-AAEF-202F9D53FBBB}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4D31F6B6-070E-4774-AAEF-202F9D53FBBB}"/>
   </bookViews>
   <sheets>
     <sheet name="학생회 공지 전체 조회" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="99">
   <si>
     <t>Title</t>
   </si>
@@ -520,112 +520,6 @@
   </si>
   <si>
     <t>http://localhost:8080/notice/department</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>{
-   "transaction_time" : "2021-01-08T17:12:33.333",
-   "result_code" : "OK",
-   "description" : "OK",
-   "data" : {
-      "id" : 1,
-      "title" : "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>수강신청</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>공지</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>",
-      "content" : "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>수강신청</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>날짜</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>: 12/31",
-      "attachment_file" : "/User/notice.docx",
-      "status": "GENERAL",
-      "views" : 1,
-      "created_at" : "2021-01-01T01:01:11.111",
-      "created_by" : "Hong gil dong",
-      "updated_at" : null,
-      "updated_by" : null,
-      "level" : 0,
-      "notice_id" : 1
-   },
-   "pagination" : {
-      "total_pages" : 10,
-      "total_elements" : 100,
-      "current_page" : 3,
-      "current_elements" : 10
-   }
-}</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1284,6 +1178,140 @@
         <family val="2"/>
       </rPr>
       <t xml:space="preserve"> Index id</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Data </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>부</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 리스트</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>List&lt;Object&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{
+   "transaction_time" : "2021-01-08T17:12:33.333",
+   "result_code" : "OK",
+   "description" : "OK",
+   "data" : [
+     {"id" : 1,
+      "title" : "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수강신청</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>공지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>",
+      "content" : "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수강신청</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>날짜</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>: 12/31",
+      "attachment_file" : "/User/notice.docx",
+      "status": "GENERAL",
+      "views" : 1,
+      "created_at" : "2021-01-01T01:01:11.111",
+      "created_by" : "Hong gil dong",
+      "updated_at" : null,
+      "updated_by" : null,
+      "level" : 0,
+      "notice_id" : 1}],
+   "pagination" : {
+      "total_pages" : 10,
+      "total_elements" : 100,
+      "current_page" : 3,
+      "current_elements" : 10
+   }
+}</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1591,13 +1619,28 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1615,18 +1658,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1696,9 +1727,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -2016,8 +2044,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1B60143-E3B9-4AB4-9B51-6040CE152FCC}">
   <dimension ref="A1:H94"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34:H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.25" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2032,8 +2060,8 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37" t="s">
-        <v>86</v>
+      <c r="B1" s="29" t="s">
+        <v>85</v>
       </c>
       <c r="C1" s="28"/>
       <c r="D1" s="28"/>
@@ -2046,7 +2074,7 @@
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="30" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="28"/>
@@ -2060,8 +2088,8 @@
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="37" t="s">
-        <v>91</v>
+      <c r="B3" s="29" t="s">
+        <v>90</v>
       </c>
       <c r="C3" s="28"/>
       <c r="D3" s="28"/>
@@ -2074,7 +2102,7 @@
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="29" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="28"/>
@@ -2088,7 +2116,7 @@
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="39"/>
+      <c r="B5" s="31"/>
       <c r="C5" s="28"/>
       <c r="D5" s="28"/>
       <c r="E5" s="28"/>
@@ -2097,7 +2125,7 @@
       <c r="H5" s="28"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="27" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="28"/>
@@ -2112,7 +2140,7 @@
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="33" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="28"/>
@@ -2169,7 +2197,7 @@
       <c r="H10" s="5"/>
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="29" t="s">
+      <c r="A11" s="34" t="s">
         <v>23</v>
       </c>
       <c r="B11" s="28"/>
@@ -2181,8 +2209,8 @@
       <c r="H11" s="28"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A12" s="30" t="s">
-        <v>92</v>
+      <c r="A12" s="35" t="s">
+        <v>91</v>
       </c>
       <c r="B12" s="28"/>
       <c r="C12" s="28"/>
@@ -2193,7 +2221,7 @@
       <c r="H12" s="28"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A13" s="31"/>
+      <c r="A13" s="36"/>
       <c r="B13" s="28"/>
       <c r="C13" s="28"/>
       <c r="D13" s="28"/>
@@ -2203,7 +2231,7 @@
       <c r="H13" s="28"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A14" s="32" t="s">
+      <c r="A14" s="37" t="s">
         <v>24</v>
       </c>
       <c r="B14" s="28"/>
@@ -2218,7 +2246,7 @@
       <c r="A15" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="27" t="s">
+      <c r="B15" s="33" t="s">
         <v>25</v>
       </c>
       <c r="C15" s="28"/>
@@ -2308,14 +2336,14 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A20" s="4" t="s">
-        <v>33</v>
+        <v>96</v>
       </c>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
       <c r="F20" s="4" t="s">
-        <v>34</v>
+        <v>97</v>
       </c>
       <c r="G20" s="4" t="s">
         <v>21</v>
@@ -2326,7 +2354,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A21" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B21" s="4"/>
       <c r="C21" s="4" t="s">
@@ -2561,28 +2589,28 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A33" s="33" t="s">
+      <c r="A33" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="B33" s="34"/>
-      <c r="C33" s="34"/>
-      <c r="D33" s="34"/>
-      <c r="E33" s="34"/>
-      <c r="F33" s="34"/>
-      <c r="G33" s="34"/>
-      <c r="H33" s="35"/>
+      <c r="B33" s="39"/>
+      <c r="C33" s="39"/>
+      <c r="D33" s="39"/>
+      <c r="E33" s="39"/>
+      <c r="F33" s="39"/>
+      <c r="G33" s="39"/>
+      <c r="H33" s="40"/>
     </row>
     <row r="34" spans="1:8" ht="343" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="26" t="s">
-        <v>81</v>
-      </c>
-      <c r="B34" s="26"/>
-      <c r="C34" s="26"/>
-      <c r="D34" s="26"/>
-      <c r="E34" s="26"/>
-      <c r="F34" s="26"/>
-      <c r="G34" s="26"/>
-      <c r="H34" s="26"/>
+      <c r="A34" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="B34" s="32"/>
+      <c r="C34" s="32"/>
+      <c r="D34" s="32"/>
+      <c r="E34" s="32"/>
+      <c r="F34" s="32"/>
+      <c r="G34" s="32"/>
+      <c r="H34" s="32"/>
     </row>
     <row r="35" spans="1:8" ht="349.5" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="36" spans="1:8" x14ac:dyDescent="0.45">
@@ -3157,12 +3185,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="B5:H5"/>
     <mergeCell ref="A34:H34"/>
     <mergeCell ref="B7:H7"/>
     <mergeCell ref="A11:H11"/>
@@ -3171,6 +3193,12 @@
     <mergeCell ref="A14:H14"/>
     <mergeCell ref="B15:H15"/>
     <mergeCell ref="A33:H33"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B5:H5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -3201,8 +3229,8 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37" t="s">
-        <v>87</v>
+      <c r="B1" s="29" t="s">
+        <v>86</v>
       </c>
       <c r="C1" s="28"/>
       <c r="D1" s="28"/>
@@ -3215,7 +3243,7 @@
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="30" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="28"/>
@@ -3229,21 +3257,21 @@
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="40" t="s">
-        <v>94</v>
-      </c>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="42"/>
+      <c r="B3" s="41" t="s">
+        <v>93</v>
+      </c>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="43"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="29" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="28"/>
@@ -3257,7 +3285,7 @@
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="39"/>
+      <c r="B5" s="31"/>
       <c r="C5" s="28"/>
       <c r="D5" s="28"/>
       <c r="E5" s="28"/>
@@ -3266,7 +3294,7 @@
       <c r="H5" s="28"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="27" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="28"/>
@@ -3281,7 +3309,7 @@
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="33" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="28"/>
@@ -3348,7 +3376,7 @@
       <c r="H10" s="5"/>
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="29" t="s">
+      <c r="A11" s="34" t="s">
         <v>23</v>
       </c>
       <c r="B11" s="28"/>
@@ -3360,8 +3388,8 @@
       <c r="H11" s="28"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A12" s="30" t="s">
-        <v>95</v>
+      <c r="A12" s="35" t="s">
+        <v>94</v>
       </c>
       <c r="B12" s="28"/>
       <c r="C12" s="28"/>
@@ -3372,7 +3400,7 @@
       <c r="H12" s="28"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A13" s="31"/>
+      <c r="A13" s="36"/>
       <c r="B13" s="28"/>
       <c r="C13" s="28"/>
       <c r="D13" s="28"/>
@@ -3382,7 +3410,7 @@
       <c r="H13" s="28"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A14" s="32" t="s">
+      <c r="A14" s="37" t="s">
         <v>24</v>
       </c>
       <c r="B14" s="28"/>
@@ -3397,7 +3425,7 @@
       <c r="A15" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="27" t="s">
+      <c r="B15" s="33" t="s">
         <v>25</v>
       </c>
       <c r="C15" s="28"/>
@@ -3505,7 +3533,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A21" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B21" s="4"/>
       <c r="C21" s="4" t="s">
@@ -3740,28 +3768,28 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A33" s="33" t="s">
+      <c r="A33" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="B33" s="34"/>
-      <c r="C33" s="34"/>
-      <c r="D33" s="34"/>
-      <c r="E33" s="34"/>
-      <c r="F33" s="34"/>
-      <c r="G33" s="34"/>
-      <c r="H33" s="35"/>
+      <c r="B33" s="39"/>
+      <c r="C33" s="39"/>
+      <c r="D33" s="39"/>
+      <c r="E33" s="39"/>
+      <c r="F33" s="39"/>
+      <c r="G33" s="39"/>
+      <c r="H33" s="40"/>
     </row>
     <row r="34" spans="1:8" ht="255.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="B34" s="26"/>
-      <c r="C34" s="26"/>
-      <c r="D34" s="26"/>
-      <c r="E34" s="26"/>
-      <c r="F34" s="26"/>
-      <c r="G34" s="26"/>
-      <c r="H34" s="26"/>
+      <c r="A34" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="B34" s="32"/>
+      <c r="C34" s="32"/>
+      <c r="D34" s="32"/>
+      <c r="E34" s="32"/>
+      <c r="F34" s="32"/>
+      <c r="G34" s="32"/>
+      <c r="H34" s="32"/>
     </row>
     <row r="35" spans="1:8" ht="269.5" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="36" spans="1:8" x14ac:dyDescent="0.45">
@@ -4336,12 +4364,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="B5:H5"/>
     <mergeCell ref="A34:H34"/>
     <mergeCell ref="B7:H7"/>
     <mergeCell ref="A11:H11"/>
@@ -4350,6 +4372,12 @@
     <mergeCell ref="A14:H14"/>
     <mergeCell ref="B15:H15"/>
     <mergeCell ref="A33:H33"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B5:H5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -4380,8 +4408,8 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37" t="s">
-        <v>88</v>
+      <c r="B1" s="29" t="s">
+        <v>87</v>
       </c>
       <c r="C1" s="28"/>
       <c r="D1" s="28"/>
@@ -4394,7 +4422,7 @@
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="30" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="28"/>
@@ -4408,21 +4436,21 @@
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="40" t="s">
-        <v>91</v>
-      </c>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="42"/>
+      <c r="B3" s="41" t="s">
+        <v>90</v>
+      </c>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="43"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="29" t="s">
         <v>66</v>
       </c>
       <c r="C4" s="28"/>
@@ -4436,7 +4464,7 @@
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="39"/>
+      <c r="B5" s="31"/>
       <c r="C5" s="28"/>
       <c r="D5" s="28"/>
       <c r="E5" s="28"/>
@@ -4445,7 +4473,7 @@
       <c r="H5" s="28"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="27" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="28"/>
@@ -4460,7 +4488,7 @@
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="33" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="28"/>
@@ -4783,52 +4811,52 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A24" s="43" t="s">
+      <c r="A24" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="44"/>
-      <c r="C24" s="44"/>
-      <c r="D24" s="44"/>
-      <c r="E24" s="44"/>
-      <c r="F24" s="44"/>
-      <c r="G24" s="44"/>
-      <c r="H24" s="45"/>
+      <c r="B24" s="45"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="45"/>
+      <c r="E24" s="45"/>
+      <c r="F24" s="45"/>
+      <c r="G24" s="45"/>
+      <c r="H24" s="46"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A25" s="46" t="s">
+      <c r="A25" s="47" t="s">
         <v>80</v>
       </c>
-      <c r="B25" s="47"/>
-      <c r="C25" s="47"/>
-      <c r="D25" s="47"/>
-      <c r="E25" s="47"/>
-      <c r="F25" s="47"/>
-      <c r="G25" s="47"/>
-      <c r="H25" s="48"/>
+      <c r="B25" s="48"/>
+      <c r="C25" s="48"/>
+      <c r="D25" s="48"/>
+      <c r="E25" s="48"/>
+      <c r="F25" s="48"/>
+      <c r="G25" s="48"/>
+      <c r="H25" s="49"/>
     </row>
     <row r="26" spans="1:8" ht="198.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="49" t="s">
-        <v>84</v>
-      </c>
-      <c r="B26" s="50"/>
-      <c r="C26" s="50"/>
-      <c r="D26" s="50"/>
-      <c r="E26" s="50"/>
-      <c r="F26" s="50"/>
-      <c r="G26" s="50"/>
-      <c r="H26" s="51"/>
+      <c r="A26" s="50" t="s">
+        <v>83</v>
+      </c>
+      <c r="B26" s="51"/>
+      <c r="C26" s="51"/>
+      <c r="D26" s="51"/>
+      <c r="E26" s="51"/>
+      <c r="F26" s="51"/>
+      <c r="G26" s="51"/>
+      <c r="H26" s="52"/>
     </row>
     <row r="27" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="33" t="s">
+      <c r="A27" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="B27" s="34"/>
-      <c r="C27" s="34"/>
-      <c r="D27" s="34"/>
-      <c r="E27" s="34"/>
-      <c r="F27" s="34"/>
-      <c r="G27" s="34"/>
-      <c r="H27" s="35"/>
+      <c r="B27" s="39"/>
+      <c r="C27" s="39"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="39"/>
+      <c r="G27" s="39"/>
+      <c r="H27" s="40"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A28" s="21" t="s">
@@ -4942,7 +4970,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A34" s="22" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B34" s="22"/>
       <c r="C34" s="22" t="s">
@@ -5177,28 +5205,28 @@
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A46" s="33" t="s">
+      <c r="A46" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="B46" s="34"/>
-      <c r="C46" s="34"/>
-      <c r="D46" s="34"/>
-      <c r="E46" s="34"/>
-      <c r="F46" s="34"/>
-      <c r="G46" s="34"/>
-      <c r="H46" s="35"/>
+      <c r="B46" s="39"/>
+      <c r="C46" s="39"/>
+      <c r="D46" s="39"/>
+      <c r="E46" s="39"/>
+      <c r="F46" s="39"/>
+      <c r="G46" s="39"/>
+      <c r="H46" s="40"/>
     </row>
     <row r="47" spans="1:8" ht="257" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A47" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="B47" s="26"/>
-      <c r="C47" s="26"/>
-      <c r="D47" s="26"/>
-      <c r="E47" s="26"/>
-      <c r="F47" s="26"/>
-      <c r="G47" s="26"/>
-      <c r="H47" s="26"/>
+      <c r="A47" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="B47" s="32"/>
+      <c r="C47" s="32"/>
+      <c r="D47" s="32"/>
+      <c r="E47" s="32"/>
+      <c r="F47" s="32"/>
+      <c r="G47" s="32"/>
+      <c r="H47" s="32"/>
     </row>
     <row r="49" spans="1:8" ht="271" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="61" spans="1:8" x14ac:dyDescent="0.45">
@@ -5523,6 +5551,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A24:H24"/>
+    <mergeCell ref="A46:H46"/>
+    <mergeCell ref="A47:H47"/>
+    <mergeCell ref="A25:H25"/>
+    <mergeCell ref="A26:H26"/>
+    <mergeCell ref="A27:H27"/>
     <mergeCell ref="B7:H7"/>
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="B2:H2"/>
@@ -5530,12 +5564,6 @@
     <mergeCell ref="B4:H4"/>
     <mergeCell ref="B5:H5"/>
     <mergeCell ref="A6:H6"/>
-    <mergeCell ref="A24:H24"/>
-    <mergeCell ref="A46:H46"/>
-    <mergeCell ref="A47:H47"/>
-    <mergeCell ref="A25:H25"/>
-    <mergeCell ref="A26:H26"/>
-    <mergeCell ref="A27:H27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -5566,8 +5594,8 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37" t="s">
-        <v>89</v>
+      <c r="B1" s="29" t="s">
+        <v>88</v>
       </c>
       <c r="C1" s="28"/>
       <c r="D1" s="28"/>
@@ -5580,7 +5608,7 @@
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="30" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="28"/>
@@ -5594,21 +5622,21 @@
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="40" t="s">
-        <v>91</v>
-      </c>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="42"/>
+      <c r="B3" s="41" t="s">
+        <v>90</v>
+      </c>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="43"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="29" t="s">
         <v>67</v>
       </c>
       <c r="C4" s="28"/>
@@ -5622,7 +5650,7 @@
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="39"/>
+      <c r="B5" s="31"/>
       <c r="C5" s="28"/>
       <c r="D5" s="28"/>
       <c r="E5" s="28"/>
@@ -5631,7 +5659,7 @@
       <c r="H5" s="28"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="27" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="28"/>
@@ -5646,7 +5674,7 @@
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="33" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="28"/>
@@ -5754,7 +5782,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A13" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="4" t="s">
@@ -5969,66 +5997,66 @@
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A24" s="43" t="s">
+      <c r="A24" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="44"/>
-      <c r="C24" s="44"/>
-      <c r="D24" s="44"/>
-      <c r="E24" s="44"/>
-      <c r="F24" s="44"/>
-      <c r="G24" s="44"/>
-      <c r="H24" s="45"/>
+      <c r="B24" s="45"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="45"/>
+      <c r="E24" s="45"/>
+      <c r="F24" s="45"/>
+      <c r="G24" s="45"/>
+      <c r="H24" s="46"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A25" s="46" t="s">
+      <c r="A25" s="47" t="s">
         <v>80</v>
       </c>
-      <c r="B25" s="47"/>
-      <c r="C25" s="47"/>
-      <c r="D25" s="47"/>
-      <c r="E25" s="47"/>
-      <c r="F25" s="47"/>
-      <c r="G25" s="47"/>
-      <c r="H25" s="48"/>
+      <c r="B25" s="48"/>
+      <c r="C25" s="48"/>
+      <c r="D25" s="48"/>
+      <c r="E25" s="48"/>
+      <c r="F25" s="48"/>
+      <c r="G25" s="48"/>
+      <c r="H25" s="49"/>
     </row>
     <row r="26" spans="1:13" ht="260" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="49" t="s">
-        <v>85</v>
-      </c>
-      <c r="B26" s="50"/>
-      <c r="C26" s="50"/>
-      <c r="D26" s="50"/>
-      <c r="E26" s="50"/>
-      <c r="F26" s="50"/>
-      <c r="G26" s="50"/>
-      <c r="H26" s="51"/>
+      <c r="A26" s="50" t="s">
+        <v>84</v>
+      </c>
+      <c r="B26" s="51"/>
+      <c r="C26" s="51"/>
+      <c r="D26" s="51"/>
+      <c r="E26" s="51"/>
+      <c r="F26" s="51"/>
+      <c r="G26" s="51"/>
+      <c r="H26" s="52"/>
     </row>
     <row r="27" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="33" t="s">
+      <c r="A27" s="38" t="s">
         <v>79</v>
       </c>
-      <c r="B27" s="34"/>
-      <c r="C27" s="34"/>
-      <c r="D27" s="34"/>
-      <c r="E27" s="34"/>
-      <c r="F27" s="34"/>
-      <c r="G27" s="34"/>
-      <c r="H27" s="35"/>
+      <c r="B27" s="39"/>
+      <c r="C27" s="39"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="39"/>
+      <c r="G27" s="39"/>
+      <c r="H27" s="40"/>
     </row>
     <row r="28" spans="1:13" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B28" s="54" t="s">
+      <c r="B28" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="55"/>
-      <c r="D28" s="55"/>
-      <c r="E28" s="55"/>
-      <c r="F28" s="55"/>
-      <c r="G28" s="55"/>
-      <c r="H28" s="56"/>
+      <c r="C28" s="56"/>
+      <c r="D28" s="56"/>
+      <c r="E28" s="56"/>
+      <c r="F28" s="56"/>
+      <c r="G28" s="56"/>
+      <c r="H28" s="57"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A29" s="21" t="s">
@@ -6107,11 +6135,11 @@
         <v>32</v>
       </c>
       <c r="H32" s="22"/>
-      <c r="I32" s="52"/>
-      <c r="J32" s="53"/>
-      <c r="K32" s="53"/>
-      <c r="L32" s="53"/>
-      <c r="M32" s="53"/>
+      <c r="I32" s="53"/>
+      <c r="J32" s="54"/>
+      <c r="K32" s="54"/>
+      <c r="L32" s="54"/>
+      <c r="M32" s="54"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A33" s="22" t="s">
@@ -6133,7 +6161,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A34" s="22" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B34" s="22"/>
       <c r="C34" s="22" t="s">
@@ -6368,28 +6396,28 @@
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A46" s="33" t="s">
+      <c r="A46" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="B46" s="34"/>
-      <c r="C46" s="34"/>
-      <c r="D46" s="34"/>
-      <c r="E46" s="34"/>
-      <c r="F46" s="34"/>
-      <c r="G46" s="34"/>
-      <c r="H46" s="35"/>
+      <c r="B46" s="39"/>
+      <c r="C46" s="39"/>
+      <c r="D46" s="39"/>
+      <c r="E46" s="39"/>
+      <c r="F46" s="39"/>
+      <c r="G46" s="39"/>
+      <c r="H46" s="40"/>
     </row>
     <row r="47" spans="1:8" ht="267.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A47" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="B47" s="26"/>
-      <c r="C47" s="26"/>
-      <c r="D47" s="26"/>
-      <c r="E47" s="26"/>
-      <c r="F47" s="26"/>
-      <c r="G47" s="26"/>
-      <c r="H47" s="26"/>
+      <c r="A47" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="B47" s="32"/>
+      <c r="C47" s="32"/>
+      <c r="D47" s="32"/>
+      <c r="E47" s="32"/>
+      <c r="F47" s="32"/>
+      <c r="G47" s="32"/>
+      <c r="H47" s="32"/>
     </row>
     <row r="49" spans="1:8" ht="277" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="50" spans="1:8" ht="271" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -6715,13 +6743,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B7:H7"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="A6:H6"/>
     <mergeCell ref="A47:H47"/>
     <mergeCell ref="I32:M32"/>
     <mergeCell ref="A24:H24"/>
@@ -6730,6 +6751,13 @@
     <mergeCell ref="A25:H25"/>
     <mergeCell ref="A26:H26"/>
     <mergeCell ref="A27:H27"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="A6:H6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -6744,7 +6772,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BE8F0A6-CE1B-4868-9054-B38C338BA073}">
   <dimension ref="A1:H94"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
@@ -6760,8 +6788,8 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37" t="s">
-        <v>90</v>
+      <c r="B1" s="29" t="s">
+        <v>89</v>
       </c>
       <c r="C1" s="28"/>
       <c r="D1" s="28"/>
@@ -6774,7 +6802,7 @@
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="30" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="28"/>
@@ -6788,21 +6816,21 @@
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="40" t="s">
-        <v>94</v>
-      </c>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="42"/>
+      <c r="B3" s="41" t="s">
+        <v>93</v>
+      </c>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="43"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="29" t="s">
         <v>68</v>
       </c>
       <c r="C4" s="28"/>
@@ -6816,7 +6844,7 @@
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="39"/>
+      <c r="B5" s="31"/>
       <c r="C5" s="28"/>
       <c r="D5" s="28"/>
       <c r="E5" s="28"/>
@@ -6825,7 +6853,7 @@
       <c r="H5" s="28"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="27" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="28"/>
@@ -6840,7 +6868,7 @@
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="33" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="28"/>
@@ -6892,69 +6920,69 @@
       <c r="G9" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H9" s="63" t="s">
-        <v>96</v>
+      <c r="H9" s="26" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="43" t="s">
+      <c r="A10" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="44"/>
-      <c r="C10" s="44"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="44"/>
-      <c r="H10" s="45"/>
+      <c r="B10" s="45"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="46"/>
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="46" t="s">
-        <v>82</v>
-      </c>
-      <c r="B11" s="47"/>
-      <c r="C11" s="47"/>
-      <c r="D11" s="47"/>
-      <c r="E11" s="47"/>
-      <c r="F11" s="47"/>
-      <c r="G11" s="47"/>
-      <c r="H11" s="48"/>
+      <c r="A11" s="47" t="s">
+        <v>81</v>
+      </c>
+      <c r="B11" s="48"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="48"/>
+      <c r="G11" s="48"/>
+      <c r="H11" s="49"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A12" s="59"/>
-      <c r="B12" s="60"/>
-      <c r="C12" s="60"/>
-      <c r="D12" s="60"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="60"/>
-      <c r="G12" s="60"/>
-      <c r="H12" s="61"/>
+      <c r="A12" s="60"/>
+      <c r="B12" s="61"/>
+      <c r="C12" s="61"/>
+      <c r="D12" s="61"/>
+      <c r="E12" s="61"/>
+      <c r="F12" s="61"/>
+      <c r="G12" s="61"/>
+      <c r="H12" s="62"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A13" s="33" t="s">
+      <c r="A13" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="34"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="35"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="40"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A14" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="54" t="s">
+      <c r="B14" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="55"/>
-      <c r="D14" s="55"/>
-      <c r="E14" s="55"/>
-      <c r="F14" s="55"/>
-      <c r="G14" s="55"/>
-      <c r="H14" s="56"/>
+      <c r="C14" s="56"/>
+      <c r="D14" s="56"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="57"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15" s="6" t="s">
@@ -7037,28 +7065,28 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A19" s="32" t="s">
+      <c r="A19" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="B19" s="62"/>
-      <c r="C19" s="62"/>
-      <c r="D19" s="62"/>
-      <c r="E19" s="62"/>
-      <c r="F19" s="62"/>
-      <c r="G19" s="62"/>
-      <c r="H19" s="62"/>
+      <c r="B19" s="63"/>
+      <c r="C19" s="63"/>
+      <c r="D19" s="63"/>
+      <c r="E19" s="63"/>
+      <c r="F19" s="63"/>
+      <c r="G19" s="63"/>
+      <c r="H19" s="63"/>
     </row>
     <row r="20" spans="1:8" ht="74" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="49" t="s">
+      <c r="A20" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="B20" s="50"/>
-      <c r="C20" s="50"/>
-      <c r="D20" s="50"/>
-      <c r="E20" s="50"/>
-      <c r="F20" s="50"/>
-      <c r="G20" s="50"/>
-      <c r="H20" s="51"/>
+      <c r="B20" s="51"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="51"/>
+      <c r="E20" s="51"/>
+      <c r="F20" s="51"/>
+      <c r="G20" s="51"/>
+      <c r="H20" s="52"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A21" s="13"/>
@@ -7181,24 +7209,24 @@
       <c r="H32" s="13"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A33" s="57"/>
-      <c r="B33" s="57"/>
-      <c r="C33" s="57"/>
-      <c r="D33" s="57"/>
-      <c r="E33" s="57"/>
-      <c r="F33" s="57"/>
-      <c r="G33" s="57"/>
-      <c r="H33" s="57"/>
+      <c r="A33" s="58"/>
+      <c r="B33" s="58"/>
+      <c r="C33" s="58"/>
+      <c r="D33" s="58"/>
+      <c r="E33" s="58"/>
+      <c r="F33" s="58"/>
+      <c r="G33" s="58"/>
+      <c r="H33" s="58"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A34" s="58"/>
-      <c r="B34" s="58"/>
-      <c r="C34" s="58"/>
-      <c r="D34" s="58"/>
-      <c r="E34" s="58"/>
-      <c r="F34" s="58"/>
-      <c r="G34" s="58"/>
-      <c r="H34" s="58"/>
+      <c r="A34" s="59"/>
+      <c r="B34" s="59"/>
+      <c r="C34" s="59"/>
+      <c r="D34" s="59"/>
+      <c r="E34" s="59"/>
+      <c r="F34" s="59"/>
+      <c r="G34" s="59"/>
+      <c r="H34" s="59"/>
     </row>
     <row r="35" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A35" s="17"/>
@@ -7802,6 +7830,13 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A33:H33"/>
+    <mergeCell ref="A34:H34"/>
+    <mergeCell ref="A12:H12"/>
+    <mergeCell ref="A19:H19"/>
+    <mergeCell ref="A20:H20"/>
+    <mergeCell ref="A13:H13"/>
+    <mergeCell ref="B14:H14"/>
     <mergeCell ref="B7:H7"/>
     <mergeCell ref="A10:H10"/>
     <mergeCell ref="A11:H11"/>
@@ -7811,13 +7846,6 @@
     <mergeCell ref="B4:H4"/>
     <mergeCell ref="B5:H5"/>
     <mergeCell ref="A6:H6"/>
-    <mergeCell ref="A33:H33"/>
-    <mergeCell ref="A34:H34"/>
-    <mergeCell ref="A12:H12"/>
-    <mergeCell ref="A19:H19"/>
-    <mergeCell ref="A20:H20"/>
-    <mergeCell ref="A13:H13"/>
-    <mergeCell ref="B14:H14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/api/Notice/Council_API.xlsx
+++ b/api/Notice/Council_API.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Documents\GitHub\AISW_Web_Community\api\Notice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFF5D296-A485-48BD-BD0D-1E61F812E807}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA09F2E2-2879-4B07-96D3-62D0B2944197}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4D31F6B6-070E-4774-AAEF-202F9D53FBBB}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="99">
   <si>
     <t>Title</t>
   </si>
@@ -1554,7 +1554,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1622,16 +1622,6 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1641,6 +1631,7 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1658,6 +1649,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2044,8 +2047,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1B60143-E3B9-4AB4-9B51-6040CE152FCC}">
   <dimension ref="A1:H94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34:H34"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34:XFD34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.25" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2060,95 +2063,95 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="39" t="s">
         <v>85</v>
       </c>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="39" t="s">
         <v>90</v>
       </c>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="31"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="28"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="33" t="s">
+      <c r="B7" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
@@ -2197,64 +2200,64 @@
       <c r="H10" s="5"/>
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="34" t="s">
+      <c r="A11" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="28"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A12" s="35" t="s">
+      <c r="A12" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="B12" s="28"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A13" s="36"/>
-      <c r="B13" s="28"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
+      <c r="A13" s="33"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A14" s="37" t="s">
+      <c r="A14" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="28"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="33" t="s">
+      <c r="B15" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="30"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A16" s="6" t="s">
@@ -2569,69 +2572,68 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A32" s="22" t="s">
+      <c r="A32" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="B32" s="27"/>
+      <c r="C32" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="D32" s="27"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="G32" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="H32" s="27" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A33" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="B32" s="22"/>
-      <c r="C32" s="22" t="s">
+      <c r="B33" s="22"/>
+      <c r="C33" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="D32" s="22"/>
-      <c r="E32" s="22"/>
-      <c r="F32" s="22" t="s">
+      <c r="D33" s="22"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="G32" s="22" t="s">
+      <c r="G33" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="H32" s="22" t="s">
+      <c r="H33" s="22" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A33" s="38" t="s">
+    <row r="34" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A34" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="B33" s="39"/>
-      <c r="C33" s="39"/>
-      <c r="D33" s="39"/>
-      <c r="E33" s="39"/>
-      <c r="F33" s="39"/>
-      <c r="G33" s="39"/>
-      <c r="H33" s="40"/>
-    </row>
-    <row r="34" spans="1:8" ht="343" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="32" t="s">
+      <c r="B34" s="36"/>
+      <c r="C34" s="36"/>
+      <c r="D34" s="36"/>
+      <c r="E34" s="36"/>
+      <c r="F34" s="36"/>
+      <c r="G34" s="36"/>
+      <c r="H34" s="37"/>
+    </row>
+    <row r="35" spans="1:8" ht="349.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A35" s="28" t="s">
         <v>98</v>
       </c>
-      <c r="B34" s="32"/>
-      <c r="C34" s="32"/>
-      <c r="D34" s="32"/>
-      <c r="E34" s="32"/>
-      <c r="F34" s="32"/>
-      <c r="G34" s="32"/>
-      <c r="H34" s="32"/>
-    </row>
-    <row r="35" spans="1:8" ht="349.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A36" s="11"/>
-      <c r="B36" s="11"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="11"/>
-      <c r="H36" s="11"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A37" s="11"/>
-      <c r="B37" s="11"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="11"/>
-      <c r="H37" s="11"/>
+      <c r="B35" s="28"/>
+      <c r="C35" s="28"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="28"/>
+      <c r="G35" s="28"/>
+      <c r="H35" s="28"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A38" s="13"/>
@@ -3185,20 +3187,20 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A34:H34"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="A35:H35"/>
     <mergeCell ref="B7:H7"/>
     <mergeCell ref="A11:H11"/>
     <mergeCell ref="A12:H12"/>
     <mergeCell ref="A13:H13"/>
     <mergeCell ref="A14:H14"/>
     <mergeCell ref="B15:H15"/>
-    <mergeCell ref="A33:H33"/>
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="A34:H34"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -3213,8 +3215,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA89CF2D-BC52-4BF4-868E-5B8B099A5517}">
   <dimension ref="A1:H94"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34:XFD34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.25" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -3229,95 +3231,95 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="39" t="s">
         <v>86</v>
       </c>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="42" t="s">
         <v>93</v>
       </c>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="44"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="31"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="28"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="33" t="s">
+      <c r="B7" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
@@ -3376,64 +3378,64 @@
       <c r="H10" s="5"/>
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="34" t="s">
+      <c r="A11" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="28"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A12" s="35" t="s">
+      <c r="A12" s="32" t="s">
         <v>94</v>
       </c>
-      <c r="B12" s="28"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A13" s="36"/>
-      <c r="B13" s="28"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
+      <c r="A13" s="33"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A14" s="37" t="s">
+      <c r="A14" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="28"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="33" t="s">
+      <c r="B15" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="30"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A16" s="6" t="s">
@@ -3748,69 +3750,68 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A32" s="22" t="s">
+      <c r="A32" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="B32" s="27"/>
+      <c r="C32" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="D32" s="27"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="G32" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="H32" s="27" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A33" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="B32" s="22"/>
-      <c r="C32" s="22" t="s">
+      <c r="B33" s="22"/>
+      <c r="C33" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="D32" s="22"/>
-      <c r="E32" s="22"/>
-      <c r="F32" s="22" t="s">
+      <c r="D33" s="22"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="G32" s="22" t="s">
+      <c r="G33" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="H32" s="22" t="s">
+      <c r="H33" s="22" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A33" s="38" t="s">
+    <row r="34" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A34" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="B33" s="39"/>
-      <c r="C33" s="39"/>
-      <c r="D33" s="39"/>
-      <c r="E33" s="39"/>
-      <c r="F33" s="39"/>
-      <c r="G33" s="39"/>
-      <c r="H33" s="40"/>
-    </row>
-    <row r="34" spans="1:8" ht="255.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="32" t="s">
+      <c r="B34" s="36"/>
+      <c r="C34" s="36"/>
+      <c r="D34" s="36"/>
+      <c r="E34" s="36"/>
+      <c r="F34" s="36"/>
+      <c r="G34" s="36"/>
+      <c r="H34" s="37"/>
+    </row>
+    <row r="35" spans="1:8" ht="269.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A35" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="B34" s="32"/>
-      <c r="C34" s="32"/>
-      <c r="D34" s="32"/>
-      <c r="E34" s="32"/>
-      <c r="F34" s="32"/>
-      <c r="G34" s="32"/>
-      <c r="H34" s="32"/>
-    </row>
-    <row r="35" spans="1:8" ht="269.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A36" s="11"/>
-      <c r="B36" s="11"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="11"/>
-      <c r="H36" s="11"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A37" s="11"/>
-      <c r="B37" s="11"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="11"/>
-      <c r="H37" s="11"/>
+      <c r="B35" s="28"/>
+      <c r="C35" s="28"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="28"/>
+      <c r="G35" s="28"/>
+      <c r="H35" s="28"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A38" s="13"/>
@@ -4364,20 +4365,20 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A34:H34"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="A35:H35"/>
     <mergeCell ref="B7:H7"/>
     <mergeCell ref="A11:H11"/>
     <mergeCell ref="A12:H12"/>
     <mergeCell ref="A13:H13"/>
     <mergeCell ref="A14:H14"/>
     <mergeCell ref="B15:H15"/>
-    <mergeCell ref="A33:H33"/>
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="A34:H34"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -4392,8 +4393,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B31E2576-20FD-4E47-B846-39903FF9702A}">
   <dimension ref="A1:H94"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47:XFD47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.25" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -4408,95 +4409,95 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="42" t="s">
         <v>90</v>
       </c>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="44"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="31"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="28"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="33" t="s">
+      <c r="B7" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
@@ -4811,52 +4812,52 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A24" s="44" t="s">
+      <c r="A24" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="45"/>
-      <c r="C24" s="45"/>
-      <c r="D24" s="45"/>
-      <c r="E24" s="45"/>
-      <c r="F24" s="45"/>
-      <c r="G24" s="45"/>
-      <c r="H24" s="46"/>
+      <c r="B24" s="46"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="46"/>
+      <c r="F24" s="46"/>
+      <c r="G24" s="46"/>
+      <c r="H24" s="47"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A25" s="47" t="s">
+      <c r="A25" s="48" t="s">
         <v>80</v>
       </c>
-      <c r="B25" s="48"/>
-      <c r="C25" s="48"/>
-      <c r="D25" s="48"/>
-      <c r="E25" s="48"/>
-      <c r="F25" s="48"/>
-      <c r="G25" s="48"/>
-      <c r="H25" s="49"/>
+      <c r="B25" s="49"/>
+      <c r="C25" s="49"/>
+      <c r="D25" s="49"/>
+      <c r="E25" s="49"/>
+      <c r="F25" s="49"/>
+      <c r="G25" s="49"/>
+      <c r="H25" s="50"/>
     </row>
     <row r="26" spans="1:8" ht="198.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="50" t="s">
+      <c r="A26" s="51" t="s">
         <v>83</v>
       </c>
-      <c r="B26" s="51"/>
-      <c r="C26" s="51"/>
-      <c r="D26" s="51"/>
-      <c r="E26" s="51"/>
-      <c r="F26" s="51"/>
-      <c r="G26" s="51"/>
-      <c r="H26" s="52"/>
+      <c r="B26" s="52"/>
+      <c r="C26" s="52"/>
+      <c r="D26" s="52"/>
+      <c r="E26" s="52"/>
+      <c r="F26" s="52"/>
+      <c r="G26" s="52"/>
+      <c r="H26" s="53"/>
     </row>
     <row r="27" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="38" t="s">
+      <c r="A27" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="B27" s="39"/>
-      <c r="C27" s="39"/>
-      <c r="D27" s="39"/>
-      <c r="E27" s="39"/>
-      <c r="F27" s="39"/>
-      <c r="G27" s="39"/>
-      <c r="H27" s="40"/>
+      <c r="B27" s="36"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="37"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A28" s="21" t="s">
@@ -5185,48 +5186,68 @@
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A45" s="22" t="s">
+      <c r="A45" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="B45" s="27"/>
+      <c r="C45" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="D45" s="27"/>
+      <c r="E45" s="27"/>
+      <c r="F45" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="G45" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="H45" s="27" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A46" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="B45" s="22"/>
-      <c r="C45" s="22" t="s">
+      <c r="B46" s="22"/>
+      <c r="C46" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="D45" s="22"/>
-      <c r="E45" s="22"/>
-      <c r="F45" s="22" t="s">
+      <c r="D46" s="22"/>
+      <c r="E46" s="22"/>
+      <c r="F46" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="G45" s="22" t="s">
+      <c r="G46" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="H45" s="22" t="s">
+      <c r="H46" s="22" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A46" s="38" t="s">
+    <row r="47" spans="1:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A47" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="B46" s="39"/>
-      <c r="C46" s="39"/>
-      <c r="D46" s="39"/>
-      <c r="E46" s="39"/>
-      <c r="F46" s="39"/>
-      <c r="G46" s="39"/>
-      <c r="H46" s="40"/>
-    </row>
-    <row r="47" spans="1:8" ht="257" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A47" s="32" t="s">
+      <c r="B47" s="36"/>
+      <c r="C47" s="36"/>
+      <c r="D47" s="36"/>
+      <c r="E47" s="36"/>
+      <c r="F47" s="36"/>
+      <c r="G47" s="36"/>
+      <c r="H47" s="37"/>
+    </row>
+    <row r="48" spans="1:8" ht="308" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A48" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="B47" s="32"/>
-      <c r="C47" s="32"/>
-      <c r="D47" s="32"/>
-      <c r="E47" s="32"/>
-      <c r="F47" s="32"/>
-      <c r="G47" s="32"/>
-      <c r="H47" s="32"/>
+      <c r="B48" s="28"/>
+      <c r="C48" s="28"/>
+      <c r="D48" s="28"/>
+      <c r="E48" s="28"/>
+      <c r="F48" s="28"/>
+      <c r="G48" s="28"/>
+      <c r="H48" s="28"/>
     </row>
     <row r="49" spans="1:8" ht="271" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="61" spans="1:8" x14ac:dyDescent="0.45">
@@ -5551,12 +5572,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A24:H24"/>
-    <mergeCell ref="A46:H46"/>
-    <mergeCell ref="A47:H47"/>
-    <mergeCell ref="A25:H25"/>
-    <mergeCell ref="A26:H26"/>
-    <mergeCell ref="A27:H27"/>
     <mergeCell ref="B7:H7"/>
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="B2:H2"/>
@@ -5564,6 +5579,12 @@
     <mergeCell ref="B4:H4"/>
     <mergeCell ref="B5:H5"/>
     <mergeCell ref="A6:H6"/>
+    <mergeCell ref="A24:H24"/>
+    <mergeCell ref="A47:H47"/>
+    <mergeCell ref="A48:H48"/>
+    <mergeCell ref="A25:H25"/>
+    <mergeCell ref="A26:H26"/>
+    <mergeCell ref="A27:H27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -5578,8 +5599,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAE31BB7-A599-4ABB-A50D-5795B880F93B}">
   <dimension ref="A1:M94"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47:XFD47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.25" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -5594,95 +5615,95 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="39" t="s">
         <v>88</v>
       </c>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="42" t="s">
         <v>90</v>
       </c>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="44"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="31"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="28"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="33" t="s">
+      <c r="B7" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
@@ -5997,66 +6018,66 @@
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A24" s="44" t="s">
+      <c r="A24" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="45"/>
-      <c r="C24" s="45"/>
-      <c r="D24" s="45"/>
-      <c r="E24" s="45"/>
-      <c r="F24" s="45"/>
-      <c r="G24" s="45"/>
-      <c r="H24" s="46"/>
+      <c r="B24" s="46"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="46"/>
+      <c r="F24" s="46"/>
+      <c r="G24" s="46"/>
+      <c r="H24" s="47"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A25" s="47" t="s">
+      <c r="A25" s="48" t="s">
         <v>80</v>
       </c>
-      <c r="B25" s="48"/>
-      <c r="C25" s="48"/>
-      <c r="D25" s="48"/>
-      <c r="E25" s="48"/>
-      <c r="F25" s="48"/>
-      <c r="G25" s="48"/>
-      <c r="H25" s="49"/>
+      <c r="B25" s="49"/>
+      <c r="C25" s="49"/>
+      <c r="D25" s="49"/>
+      <c r="E25" s="49"/>
+      <c r="F25" s="49"/>
+      <c r="G25" s="49"/>
+      <c r="H25" s="50"/>
     </row>
     <row r="26" spans="1:13" ht="260" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="50" t="s">
+      <c r="A26" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="B26" s="51"/>
-      <c r="C26" s="51"/>
-      <c r="D26" s="51"/>
-      <c r="E26" s="51"/>
-      <c r="F26" s="51"/>
-      <c r="G26" s="51"/>
-      <c r="H26" s="52"/>
+      <c r="B26" s="52"/>
+      <c r="C26" s="52"/>
+      <c r="D26" s="52"/>
+      <c r="E26" s="52"/>
+      <c r="F26" s="52"/>
+      <c r="G26" s="52"/>
+      <c r="H26" s="53"/>
     </row>
     <row r="27" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="38" t="s">
+      <c r="A27" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="B27" s="39"/>
-      <c r="C27" s="39"/>
-      <c r="D27" s="39"/>
-      <c r="E27" s="39"/>
-      <c r="F27" s="39"/>
-      <c r="G27" s="39"/>
-      <c r="H27" s="40"/>
+      <c r="B27" s="36"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="37"/>
     </row>
     <row r="28" spans="1:13" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B28" s="55" t="s">
+      <c r="B28" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="56"/>
-      <c r="D28" s="56"/>
-      <c r="E28" s="56"/>
-      <c r="F28" s="56"/>
-      <c r="G28" s="56"/>
-      <c r="H28" s="57"/>
+      <c r="C28" s="57"/>
+      <c r="D28" s="57"/>
+      <c r="E28" s="57"/>
+      <c r="F28" s="57"/>
+      <c r="G28" s="57"/>
+      <c r="H28" s="58"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A29" s="21" t="s">
@@ -6135,11 +6156,11 @@
         <v>32</v>
       </c>
       <c r="H32" s="22"/>
-      <c r="I32" s="53"/>
-      <c r="J32" s="54"/>
-      <c r="K32" s="54"/>
-      <c r="L32" s="54"/>
-      <c r="M32" s="54"/>
+      <c r="I32" s="54"/>
+      <c r="J32" s="55"/>
+      <c r="K32" s="55"/>
+      <c r="L32" s="55"/>
+      <c r="M32" s="55"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A33" s="22" t="s">
@@ -6376,48 +6397,68 @@
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A45" s="22" t="s">
+      <c r="A45" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="B45" s="27"/>
+      <c r="C45" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="D45" s="27"/>
+      <c r="E45" s="27"/>
+      <c r="F45" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="G45" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="H45" s="27" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A46" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="B45" s="22"/>
-      <c r="C45" s="22" t="s">
+      <c r="B46" s="22"/>
+      <c r="C46" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="D45" s="22"/>
-      <c r="E45" s="22"/>
-      <c r="F45" s="22" t="s">
+      <c r="D46" s="22"/>
+      <c r="E46" s="22"/>
+      <c r="F46" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="G45" s="22" t="s">
+      <c r="G46" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="H45" s="22" t="s">
+      <c r="H46" s="22" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A46" s="38" t="s">
+    <row r="47" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A47" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="B46" s="39"/>
-      <c r="C46" s="39"/>
-      <c r="D46" s="39"/>
-      <c r="E46" s="39"/>
-      <c r="F46" s="39"/>
-      <c r="G46" s="39"/>
-      <c r="H46" s="40"/>
-    </row>
-    <row r="47" spans="1:8" ht="267.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A47" s="32" t="s">
+      <c r="B47" s="36"/>
+      <c r="C47" s="36"/>
+      <c r="D47" s="36"/>
+      <c r="E47" s="36"/>
+      <c r="F47" s="36"/>
+      <c r="G47" s="36"/>
+      <c r="H47" s="37"/>
+    </row>
+    <row r="48" spans="1:8" ht="324" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A48" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="B47" s="32"/>
-      <c r="C47" s="32"/>
-      <c r="D47" s="32"/>
-      <c r="E47" s="32"/>
-      <c r="F47" s="32"/>
-      <c r="G47" s="32"/>
-      <c r="H47" s="32"/>
+      <c r="B48" s="28"/>
+      <c r="C48" s="28"/>
+      <c r="D48" s="28"/>
+      <c r="E48" s="28"/>
+      <c r="F48" s="28"/>
+      <c r="G48" s="28"/>
+      <c r="H48" s="28"/>
     </row>
     <row r="49" spans="1:8" ht="277" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="50" spans="1:8" ht="271" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -6743,14 +6784,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A47:H47"/>
-    <mergeCell ref="I32:M32"/>
-    <mergeCell ref="A24:H24"/>
-    <mergeCell ref="B28:H28"/>
-    <mergeCell ref="A46:H46"/>
-    <mergeCell ref="A25:H25"/>
-    <mergeCell ref="A26:H26"/>
-    <mergeCell ref="A27:H27"/>
     <mergeCell ref="B7:H7"/>
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="B2:H2"/>
@@ -6758,6 +6791,14 @@
     <mergeCell ref="B4:H4"/>
     <mergeCell ref="B5:H5"/>
     <mergeCell ref="A6:H6"/>
+    <mergeCell ref="A48:H48"/>
+    <mergeCell ref="I32:M32"/>
+    <mergeCell ref="A24:H24"/>
+    <mergeCell ref="B28:H28"/>
+    <mergeCell ref="A47:H47"/>
+    <mergeCell ref="A25:H25"/>
+    <mergeCell ref="A26:H26"/>
+    <mergeCell ref="A27:H27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -6788,95 +6829,95 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="39" t="s">
         <v>89</v>
       </c>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="42" t="s">
         <v>93</v>
       </c>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="44"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="31"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="28"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="33" t="s">
+      <c r="B7" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
@@ -6925,64 +6966,64 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="44" t="s">
+      <c r="A10" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="45"/>
-      <c r="C10" s="45"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="45"/>
-      <c r="F10" s="45"/>
-      <c r="G10" s="45"/>
-      <c r="H10" s="46"/>
+      <c r="B10" s="46"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="46"/>
+      <c r="H10" s="47"/>
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="47" t="s">
+      <c r="A11" s="48" t="s">
         <v>81</v>
       </c>
-      <c r="B11" s="48"/>
-      <c r="C11" s="48"/>
-      <c r="D11" s="48"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="49"/>
+      <c r="B11" s="49"/>
+      <c r="C11" s="49"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="49"/>
+      <c r="H11" s="50"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A12" s="60"/>
-      <c r="B12" s="61"/>
-      <c r="C12" s="61"/>
-      <c r="D12" s="61"/>
-      <c r="E12" s="61"/>
-      <c r="F12" s="61"/>
-      <c r="G12" s="61"/>
-      <c r="H12" s="62"/>
+      <c r="A12" s="61"/>
+      <c r="B12" s="62"/>
+      <c r="C12" s="62"/>
+      <c r="D12" s="62"/>
+      <c r="E12" s="62"/>
+      <c r="F12" s="62"/>
+      <c r="G12" s="62"/>
+      <c r="H12" s="63"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A13" s="38" t="s">
+      <c r="A13" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="39"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="40"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="37"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A14" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="55" t="s">
+      <c r="B14" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="56"/>
-      <c r="D14" s="56"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="56"/>
-      <c r="G14" s="56"/>
-      <c r="H14" s="57"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="57"/>
+      <c r="G14" s="57"/>
+      <c r="H14" s="58"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15" s="6" t="s">
@@ -7065,28 +7106,28 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A19" s="37" t="s">
+      <c r="A19" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="B19" s="63"/>
-      <c r="C19" s="63"/>
-      <c r="D19" s="63"/>
-      <c r="E19" s="63"/>
-      <c r="F19" s="63"/>
-      <c r="G19" s="63"/>
-      <c r="H19" s="63"/>
+      <c r="B19" s="64"/>
+      <c r="C19" s="64"/>
+      <c r="D19" s="64"/>
+      <c r="E19" s="64"/>
+      <c r="F19" s="64"/>
+      <c r="G19" s="64"/>
+      <c r="H19" s="64"/>
     </row>
     <row r="20" spans="1:8" ht="74" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="50" t="s">
+      <c r="A20" s="51" t="s">
         <v>72</v>
       </c>
-      <c r="B20" s="51"/>
-      <c r="C20" s="51"/>
-      <c r="D20" s="51"/>
-      <c r="E20" s="51"/>
-      <c r="F20" s="51"/>
-      <c r="G20" s="51"/>
-      <c r="H20" s="52"/>
+      <c r="B20" s="52"/>
+      <c r="C20" s="52"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="52"/>
+      <c r="F20" s="52"/>
+      <c r="G20" s="52"/>
+      <c r="H20" s="53"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A21" s="13"/>
@@ -7209,24 +7250,24 @@
       <c r="H32" s="13"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A33" s="58"/>
-      <c r="B33" s="58"/>
-      <c r="C33" s="58"/>
-      <c r="D33" s="58"/>
-      <c r="E33" s="58"/>
-      <c r="F33" s="58"/>
-      <c r="G33" s="58"/>
-      <c r="H33" s="58"/>
+      <c r="A33" s="59"/>
+      <c r="B33" s="59"/>
+      <c r="C33" s="59"/>
+      <c r="D33" s="59"/>
+      <c r="E33" s="59"/>
+      <c r="F33" s="59"/>
+      <c r="G33" s="59"/>
+      <c r="H33" s="59"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A34" s="59"/>
-      <c r="B34" s="59"/>
-      <c r="C34" s="59"/>
-      <c r="D34" s="59"/>
-      <c r="E34" s="59"/>
-      <c r="F34" s="59"/>
-      <c r="G34" s="59"/>
-      <c r="H34" s="59"/>
+      <c r="A34" s="60"/>
+      <c r="B34" s="60"/>
+      <c r="C34" s="60"/>
+      <c r="D34" s="60"/>
+      <c r="E34" s="60"/>
+      <c r="F34" s="60"/>
+      <c r="G34" s="60"/>
+      <c r="H34" s="60"/>
     </row>
     <row r="35" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A35" s="17"/>
@@ -7830,13 +7871,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A33:H33"/>
-    <mergeCell ref="A34:H34"/>
-    <mergeCell ref="A12:H12"/>
-    <mergeCell ref="A19:H19"/>
-    <mergeCell ref="A20:H20"/>
-    <mergeCell ref="A13:H13"/>
-    <mergeCell ref="B14:H14"/>
     <mergeCell ref="B7:H7"/>
     <mergeCell ref="A10:H10"/>
     <mergeCell ref="A11:H11"/>
@@ -7846,6 +7880,13 @@
     <mergeCell ref="B4:H4"/>
     <mergeCell ref="B5:H5"/>
     <mergeCell ref="A6:H6"/>
+    <mergeCell ref="A33:H33"/>
+    <mergeCell ref="A34:H34"/>
+    <mergeCell ref="A12:H12"/>
+    <mergeCell ref="A19:H19"/>
+    <mergeCell ref="A20:H20"/>
+    <mergeCell ref="A13:H13"/>
+    <mergeCell ref="B14:H14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/api/Notice/Council_API.xlsx
+++ b/api/Notice/Council_API.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Documents\GitHub\AISW_Web_Community\api\Notice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA09F2E2-2879-4B07-96D3-62D0B2944197}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3FCBC04-8D54-4F03-9C02-6CF5876DB259}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4D31F6B6-070E-4774-AAEF-202F9D53FBBB}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="109">
   <si>
     <t>Title</t>
   </si>
@@ -1315,12 +1315,248 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Pagination </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>부</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>전체</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>페이지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>total_pages</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>전체</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>아이템</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>total_elements</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>현재</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>페이지</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>current_page</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>현재</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>페이지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>아이템</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>current_elements</t>
+  </si>
+  <si>
+    <t>default 10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1430,6 +1666,22 @@
       <name val="Arial"/>
       <family val="3"/>
       <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="8">
@@ -1554,7 +1806,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1625,13 +1877,29 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1649,18 +1917,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1730,6 +1986,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -2047,8 +2309,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1B60143-E3B9-4AB4-9B51-6040CE152FCC}">
   <dimension ref="A1:H94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34:XFD34"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40:XFD40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.25" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2063,95 +2325,95 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="32" t="s">
         <v>90</v>
       </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="39" t="s">
+      <c r="B4" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="41"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A6" s="38" t="s">
+      <c r="A6" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="30"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="31"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
@@ -2200,64 +2462,64 @@
       <c r="H10" s="5"/>
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="31" t="s">
+      <c r="A11" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="30"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A12" s="32" t="s">
+      <c r="A12" s="38" t="s">
         <v>91</v>
       </c>
-      <c r="B12" s="30"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A13" s="33"/>
-      <c r="B13" s="30"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="30"/>
+      <c r="A13" s="39"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A14" s="34" t="s">
+      <c r="A14" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="30"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="30"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="29" t="s">
+      <c r="B15" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="30"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="31"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A16" s="6" t="s">
@@ -2612,78 +2874,114 @@
       </c>
     </row>
     <row r="34" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="35" t="s">
-        <v>63</v>
-      </c>
-      <c r="B34" s="36"/>
-      <c r="C34" s="36"/>
-      <c r="D34" s="36"/>
-      <c r="E34" s="36"/>
-      <c r="F34" s="36"/>
-      <c r="G34" s="36"/>
-      <c r="H34" s="37"/>
-    </row>
-    <row r="35" spans="1:8" ht="349.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="28" t="s">
-        <v>98</v>
+      <c r="A34" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="B34" s="28"/>
+      <c r="C34" s="28"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="28"/>
+      <c r="G34" s="28"/>
+      <c r="H34" s="28"/>
+    </row>
+    <row r="35" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A35" s="29" t="s">
+        <v>100</v>
       </c>
       <c r="B35" s="28"/>
-      <c r="C35" s="28"/>
+      <c r="C35" s="67" t="s">
+        <v>101</v>
+      </c>
       <c r="D35" s="28"/>
       <c r="E35" s="28"/>
-      <c r="F35" s="28"/>
-      <c r="G35" s="28"/>
-      <c r="H35" s="28"/>
+      <c r="F35" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="G35" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="H35" s="67"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A36" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="B36" s="28"/>
+      <c r="C36" s="68" t="s">
+        <v>103</v>
+      </c>
+      <c r="D36" s="28"/>
+      <c r="E36" s="28"/>
+      <c r="F36" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="G36" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="H36" s="67"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A37" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="B37" s="28"/>
+      <c r="C37" s="68" t="s">
+        <v>105</v>
+      </c>
+      <c r="D37" s="28"/>
+      <c r="E37" s="28"/>
+      <c r="F37" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="G37" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="H37" s="67"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A38" s="13"/>
-      <c r="B38" s="13"/>
-      <c r="C38" s="13"/>
-      <c r="D38" s="13"/>
-      <c r="E38" s="13"/>
-      <c r="F38" s="13"/>
-      <c r="G38" s="13"/>
-      <c r="H38" s="13"/>
+      <c r="A38" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="B38" s="28"/>
+      <c r="C38" s="68" t="s">
+        <v>107</v>
+      </c>
+      <c r="D38" s="28"/>
+      <c r="E38" s="28"/>
+      <c r="F38" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="G38" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="H38" s="67" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A39" s="17"/>
-      <c r="B39" s="17"/>
-      <c r="C39" s="17"/>
-      <c r="D39" s="17"/>
-      <c r="E39" s="17"/>
-      <c r="F39" s="17"/>
-      <c r="G39" s="17"/>
-      <c r="H39" s="17"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A40" s="17"/>
-      <c r="B40" s="17"/>
-      <c r="C40" s="17"/>
-      <c r="D40" s="17"/>
-      <c r="E40" s="17"/>
-      <c r="F40" s="17"/>
-      <c r="G40" s="17"/>
-      <c r="H40" s="17"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A41" s="11"/>
-      <c r="B41" s="11"/>
-      <c r="C41" s="11"/>
-      <c r="D41" s="11"/>
-      <c r="E41" s="11"/>
-      <c r="F41" s="11"/>
-      <c r="G41" s="11"/>
-      <c r="H41" s="11"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A42" s="11"/>
-      <c r="B42" s="11"/>
-      <c r="C42" s="11"/>
-      <c r="D42" s="11"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="11"/>
-      <c r="G42" s="11"/>
-      <c r="H42" s="11"/>
+      <c r="A39" s="41" t="s">
+        <v>63</v>
+      </c>
+      <c r="B39" s="42"/>
+      <c r="C39" s="42"/>
+      <c r="D39" s="42"/>
+      <c r="E39" s="42"/>
+      <c r="F39" s="42"/>
+      <c r="G39" s="42"/>
+      <c r="H39" s="43"/>
+    </row>
+    <row r="40" spans="1:8" ht="371" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A40" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="B40" s="35"/>
+      <c r="C40" s="35"/>
+      <c r="D40" s="35"/>
+      <c r="E40" s="35"/>
+      <c r="F40" s="35"/>
+      <c r="G40" s="35"/>
+      <c r="H40" s="35"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A43" s="11"/>
@@ -3187,20 +3485,20 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A40:H40"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="A11:H11"/>
+    <mergeCell ref="A12:H12"/>
+    <mergeCell ref="A13:H13"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="A39:H39"/>
     <mergeCell ref="A6:H6"/>
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="B3:H3"/>
     <mergeCell ref="B4:H4"/>
     <mergeCell ref="B5:H5"/>
-    <mergeCell ref="A35:H35"/>
-    <mergeCell ref="B7:H7"/>
-    <mergeCell ref="A11:H11"/>
-    <mergeCell ref="A12:H12"/>
-    <mergeCell ref="A13:H13"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="B15:H15"/>
-    <mergeCell ref="A34:H34"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -3231,95 +3529,95 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="32" t="s">
         <v>86</v>
       </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="44" t="s">
         <v>93</v>
       </c>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="44"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="46"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="39" t="s">
+      <c r="B4" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="41"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A6" s="38" t="s">
+      <c r="A6" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="30"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="31"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
@@ -3378,64 +3676,64 @@
       <c r="H10" s="5"/>
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="31" t="s">
+      <c r="A11" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="30"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A12" s="32" t="s">
+      <c r="A12" s="38" t="s">
         <v>94</v>
       </c>
-      <c r="B12" s="30"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A13" s="33"/>
-      <c r="B13" s="30"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="30"/>
+      <c r="A13" s="39"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A14" s="34" t="s">
+      <c r="A14" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="30"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="30"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="29" t="s">
+      <c r="B15" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="30"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="31"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A16" s="6" t="s">
@@ -3790,28 +4088,28 @@
       </c>
     </row>
     <row r="34" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="35" t="s">
+      <c r="A34" s="41" t="s">
         <v>63</v>
       </c>
-      <c r="B34" s="36"/>
-      <c r="C34" s="36"/>
-      <c r="D34" s="36"/>
-      <c r="E34" s="36"/>
-      <c r="F34" s="36"/>
-      <c r="G34" s="36"/>
-      <c r="H34" s="37"/>
+      <c r="B34" s="42"/>
+      <c r="C34" s="42"/>
+      <c r="D34" s="42"/>
+      <c r="E34" s="42"/>
+      <c r="F34" s="42"/>
+      <c r="G34" s="42"/>
+      <c r="H34" s="43"/>
     </row>
     <row r="35" spans="1:8" ht="269.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="28" t="s">
+      <c r="A35" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="B35" s="28"/>
-      <c r="C35" s="28"/>
-      <c r="D35" s="28"/>
-      <c r="E35" s="28"/>
-      <c r="F35" s="28"/>
-      <c r="G35" s="28"/>
-      <c r="H35" s="28"/>
+      <c r="B35" s="35"/>
+      <c r="C35" s="35"/>
+      <c r="D35" s="35"/>
+      <c r="E35" s="35"/>
+      <c r="F35" s="35"/>
+      <c r="G35" s="35"/>
+      <c r="H35" s="35"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A38" s="13"/>
@@ -4365,12 +4663,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="B5:H5"/>
     <mergeCell ref="A35:H35"/>
     <mergeCell ref="B7:H7"/>
     <mergeCell ref="A11:H11"/>
@@ -4379,6 +4671,12 @@
     <mergeCell ref="A14:H14"/>
     <mergeCell ref="B15:H15"/>
     <mergeCell ref="A34:H34"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B5:H5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -4409,95 +4707,95 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="32" t="s">
         <v>87</v>
       </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="44" t="s">
         <v>90</v>
       </c>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="44"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="46"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="39" t="s">
+      <c r="B4" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="41"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A6" s="38" t="s">
+      <c r="A6" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="30"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="31"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
@@ -4812,52 +5110,52 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A24" s="45" t="s">
+      <c r="A24" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="46"/>
-      <c r="C24" s="46"/>
-      <c r="D24" s="46"/>
-      <c r="E24" s="46"/>
-      <c r="F24" s="46"/>
-      <c r="G24" s="46"/>
-      <c r="H24" s="47"/>
+      <c r="B24" s="48"/>
+      <c r="C24" s="48"/>
+      <c r="D24" s="48"/>
+      <c r="E24" s="48"/>
+      <c r="F24" s="48"/>
+      <c r="G24" s="48"/>
+      <c r="H24" s="49"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A25" s="48" t="s">
+      <c r="A25" s="50" t="s">
         <v>80</v>
       </c>
-      <c r="B25" s="49"/>
-      <c r="C25" s="49"/>
-      <c r="D25" s="49"/>
-      <c r="E25" s="49"/>
-      <c r="F25" s="49"/>
-      <c r="G25" s="49"/>
-      <c r="H25" s="50"/>
+      <c r="B25" s="51"/>
+      <c r="C25" s="51"/>
+      <c r="D25" s="51"/>
+      <c r="E25" s="51"/>
+      <c r="F25" s="51"/>
+      <c r="G25" s="51"/>
+      <c r="H25" s="52"/>
     </row>
     <row r="26" spans="1:8" ht="198.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="51" t="s">
+      <c r="A26" s="53" t="s">
         <v>83</v>
       </c>
-      <c r="B26" s="52"/>
-      <c r="C26" s="52"/>
-      <c r="D26" s="52"/>
-      <c r="E26" s="52"/>
-      <c r="F26" s="52"/>
-      <c r="G26" s="52"/>
-      <c r="H26" s="53"/>
+      <c r="B26" s="54"/>
+      <c r="C26" s="54"/>
+      <c r="D26" s="54"/>
+      <c r="E26" s="54"/>
+      <c r="F26" s="54"/>
+      <c r="G26" s="54"/>
+      <c r="H26" s="55"/>
     </row>
     <row r="27" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="35" t="s">
+      <c r="A27" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="B27" s="36"/>
-      <c r="C27" s="36"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="36"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="36"/>
-      <c r="H27" s="37"/>
+      <c r="B27" s="42"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="42"/>
+      <c r="H27" s="43"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A28" s="21" t="s">
@@ -5226,28 +5524,28 @@
       </c>
     </row>
     <row r="47" spans="1:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A47" s="35" t="s">
+      <c r="A47" s="41" t="s">
         <v>63</v>
       </c>
-      <c r="B47" s="36"/>
-      <c r="C47" s="36"/>
-      <c r="D47" s="36"/>
-      <c r="E47" s="36"/>
-      <c r="F47" s="36"/>
-      <c r="G47" s="36"/>
-      <c r="H47" s="37"/>
+      <c r="B47" s="42"/>
+      <c r="C47" s="42"/>
+      <c r="D47" s="42"/>
+      <c r="E47" s="42"/>
+      <c r="F47" s="42"/>
+      <c r="G47" s="42"/>
+      <c r="H47" s="43"/>
     </row>
     <row r="48" spans="1:8" ht="308" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A48" s="28" t="s">
+      <c r="A48" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="B48" s="28"/>
-      <c r="C48" s="28"/>
-      <c r="D48" s="28"/>
-      <c r="E48" s="28"/>
-      <c r="F48" s="28"/>
-      <c r="G48" s="28"/>
-      <c r="H48" s="28"/>
+      <c r="B48" s="35"/>
+      <c r="C48" s="35"/>
+      <c r="D48" s="35"/>
+      <c r="E48" s="35"/>
+      <c r="F48" s="35"/>
+      <c r="G48" s="35"/>
+      <c r="H48" s="35"/>
     </row>
     <row r="49" spans="1:8" ht="271" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="61" spans="1:8" x14ac:dyDescent="0.45">
@@ -5572,6 +5870,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A24:H24"/>
+    <mergeCell ref="A47:H47"/>
+    <mergeCell ref="A48:H48"/>
+    <mergeCell ref="A25:H25"/>
+    <mergeCell ref="A26:H26"/>
+    <mergeCell ref="A27:H27"/>
     <mergeCell ref="B7:H7"/>
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="B2:H2"/>
@@ -5579,12 +5883,6 @@
     <mergeCell ref="B4:H4"/>
     <mergeCell ref="B5:H5"/>
     <mergeCell ref="A6:H6"/>
-    <mergeCell ref="A24:H24"/>
-    <mergeCell ref="A47:H47"/>
-    <mergeCell ref="A48:H48"/>
-    <mergeCell ref="A25:H25"/>
-    <mergeCell ref="A26:H26"/>
-    <mergeCell ref="A27:H27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -5615,95 +5913,95 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="44" t="s">
         <v>90</v>
       </c>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="44"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="46"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="39" t="s">
+      <c r="B4" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="41"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A6" s="38" t="s">
+      <c r="A6" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="30"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="31"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
@@ -6018,66 +6316,66 @@
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A24" s="45" t="s">
+      <c r="A24" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="46"/>
-      <c r="C24" s="46"/>
-      <c r="D24" s="46"/>
-      <c r="E24" s="46"/>
-      <c r="F24" s="46"/>
-      <c r="G24" s="46"/>
-      <c r="H24" s="47"/>
+      <c r="B24" s="48"/>
+      <c r="C24" s="48"/>
+      <c r="D24" s="48"/>
+      <c r="E24" s="48"/>
+      <c r="F24" s="48"/>
+      <c r="G24" s="48"/>
+      <c r="H24" s="49"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A25" s="48" t="s">
+      <c r="A25" s="50" t="s">
         <v>80</v>
       </c>
-      <c r="B25" s="49"/>
-      <c r="C25" s="49"/>
-      <c r="D25" s="49"/>
-      <c r="E25" s="49"/>
-      <c r="F25" s="49"/>
-      <c r="G25" s="49"/>
-      <c r="H25" s="50"/>
+      <c r="B25" s="51"/>
+      <c r="C25" s="51"/>
+      <c r="D25" s="51"/>
+      <c r="E25" s="51"/>
+      <c r="F25" s="51"/>
+      <c r="G25" s="51"/>
+      <c r="H25" s="52"/>
     </row>
     <row r="26" spans="1:13" ht="260" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="51" t="s">
+      <c r="A26" s="53" t="s">
         <v>84</v>
       </c>
-      <c r="B26" s="52"/>
-      <c r="C26" s="52"/>
-      <c r="D26" s="52"/>
-      <c r="E26" s="52"/>
-      <c r="F26" s="52"/>
-      <c r="G26" s="52"/>
-      <c r="H26" s="53"/>
+      <c r="B26" s="54"/>
+      <c r="C26" s="54"/>
+      <c r="D26" s="54"/>
+      <c r="E26" s="54"/>
+      <c r="F26" s="54"/>
+      <c r="G26" s="54"/>
+      <c r="H26" s="55"/>
     </row>
     <row r="27" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="35" t="s">
+      <c r="A27" s="41" t="s">
         <v>79</v>
       </c>
-      <c r="B27" s="36"/>
-      <c r="C27" s="36"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="36"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="36"/>
-      <c r="H27" s="37"/>
+      <c r="B27" s="42"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="42"/>
+      <c r="H27" s="43"/>
     </row>
     <row r="28" spans="1:13" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B28" s="56" t="s">
+      <c r="B28" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="57"/>
-      <c r="D28" s="57"/>
-      <c r="E28" s="57"/>
-      <c r="F28" s="57"/>
-      <c r="G28" s="57"/>
-      <c r="H28" s="58"/>
+      <c r="C28" s="59"/>
+      <c r="D28" s="59"/>
+      <c r="E28" s="59"/>
+      <c r="F28" s="59"/>
+      <c r="G28" s="59"/>
+      <c r="H28" s="60"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A29" s="21" t="s">
@@ -6156,11 +6454,11 @@
         <v>32</v>
       </c>
       <c r="H32" s="22"/>
-      <c r="I32" s="54"/>
-      <c r="J32" s="55"/>
-      <c r="K32" s="55"/>
-      <c r="L32" s="55"/>
-      <c r="M32" s="55"/>
+      <c r="I32" s="56"/>
+      <c r="J32" s="57"/>
+      <c r="K32" s="57"/>
+      <c r="L32" s="57"/>
+      <c r="M32" s="57"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A33" s="22" t="s">
@@ -6437,28 +6735,28 @@
       </c>
     </row>
     <row r="47" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A47" s="35" t="s">
+      <c r="A47" s="41" t="s">
         <v>63</v>
       </c>
-      <c r="B47" s="36"/>
-      <c r="C47" s="36"/>
-      <c r="D47" s="36"/>
-      <c r="E47" s="36"/>
-      <c r="F47" s="36"/>
-      <c r="G47" s="36"/>
-      <c r="H47" s="37"/>
+      <c r="B47" s="42"/>
+      <c r="C47" s="42"/>
+      <c r="D47" s="42"/>
+      <c r="E47" s="42"/>
+      <c r="F47" s="42"/>
+      <c r="G47" s="42"/>
+      <c r="H47" s="43"/>
     </row>
     <row r="48" spans="1:8" ht="324" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A48" s="28" t="s">
+      <c r="A48" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="B48" s="28"/>
-      <c r="C48" s="28"/>
-      <c r="D48" s="28"/>
-      <c r="E48" s="28"/>
-      <c r="F48" s="28"/>
-      <c r="G48" s="28"/>
-      <c r="H48" s="28"/>
+      <c r="B48" s="35"/>
+      <c r="C48" s="35"/>
+      <c r="D48" s="35"/>
+      <c r="E48" s="35"/>
+      <c r="F48" s="35"/>
+      <c r="G48" s="35"/>
+      <c r="H48" s="35"/>
     </row>
     <row r="49" spans="1:8" ht="277" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="50" spans="1:8" ht="271" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -6784,13 +7082,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B7:H7"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="A6:H6"/>
     <mergeCell ref="A48:H48"/>
     <mergeCell ref="I32:M32"/>
     <mergeCell ref="A24:H24"/>
@@ -6799,6 +7090,13 @@
     <mergeCell ref="A25:H25"/>
     <mergeCell ref="A26:H26"/>
     <mergeCell ref="A27:H27"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="A6:H6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -6829,95 +7127,95 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="32" t="s">
         <v>89</v>
       </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="44" t="s">
         <v>93</v>
       </c>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="44"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="46"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="39" t="s">
+      <c r="B4" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="41"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A6" s="38" t="s">
+      <c r="A6" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="30"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="31"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
@@ -6966,64 +7264,64 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="45" t="s">
+      <c r="A10" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="46"/>
-      <c r="C10" s="46"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="46"/>
-      <c r="F10" s="46"/>
-      <c r="G10" s="46"/>
-      <c r="H10" s="47"/>
+      <c r="B10" s="48"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="48"/>
+      <c r="G10" s="48"/>
+      <c r="H10" s="49"/>
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="48" t="s">
+      <c r="A11" s="50" t="s">
         <v>81</v>
       </c>
-      <c r="B11" s="49"/>
-      <c r="C11" s="49"/>
-      <c r="D11" s="49"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="49"/>
-      <c r="G11" s="49"/>
-      <c r="H11" s="50"/>
+      <c r="B11" s="51"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="51"/>
+      <c r="H11" s="52"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A12" s="61"/>
-      <c r="B12" s="62"/>
-      <c r="C12" s="62"/>
-      <c r="D12" s="62"/>
-      <c r="E12" s="62"/>
-      <c r="F12" s="62"/>
-      <c r="G12" s="62"/>
-      <c r="H12" s="63"/>
+      <c r="A12" s="63"/>
+      <c r="B12" s="64"/>
+      <c r="C12" s="64"/>
+      <c r="D12" s="64"/>
+      <c r="E12" s="64"/>
+      <c r="F12" s="64"/>
+      <c r="G12" s="64"/>
+      <c r="H12" s="65"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A13" s="35" t="s">
+      <c r="A13" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="36"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="37"/>
+      <c r="B13" s="42"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="43"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A14" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="56" t="s">
+      <c r="B14" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="57"/>
-      <c r="D14" s="57"/>
-      <c r="E14" s="57"/>
-      <c r="F14" s="57"/>
-      <c r="G14" s="57"/>
-      <c r="H14" s="58"/>
+      <c r="C14" s="59"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="59"/>
+      <c r="F14" s="59"/>
+      <c r="G14" s="59"/>
+      <c r="H14" s="60"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15" s="6" t="s">
@@ -7106,28 +7404,28 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A19" s="34" t="s">
+      <c r="A19" s="40" t="s">
         <v>63</v>
       </c>
-      <c r="B19" s="64"/>
-      <c r="C19" s="64"/>
-      <c r="D19" s="64"/>
-      <c r="E19" s="64"/>
-      <c r="F19" s="64"/>
-      <c r="G19" s="64"/>
-      <c r="H19" s="64"/>
+      <c r="B19" s="66"/>
+      <c r="C19" s="66"/>
+      <c r="D19" s="66"/>
+      <c r="E19" s="66"/>
+      <c r="F19" s="66"/>
+      <c r="G19" s="66"/>
+      <c r="H19" s="66"/>
     </row>
     <row r="20" spans="1:8" ht="74" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="51" t="s">
+      <c r="A20" s="53" t="s">
         <v>72</v>
       </c>
-      <c r="B20" s="52"/>
-      <c r="C20" s="52"/>
-      <c r="D20" s="52"/>
-      <c r="E20" s="52"/>
-      <c r="F20" s="52"/>
-      <c r="G20" s="52"/>
-      <c r="H20" s="53"/>
+      <c r="B20" s="54"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="54"/>
+      <c r="F20" s="54"/>
+      <c r="G20" s="54"/>
+      <c r="H20" s="55"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A21" s="13"/>
@@ -7250,24 +7548,24 @@
       <c r="H32" s="13"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A33" s="59"/>
-      <c r="B33" s="59"/>
-      <c r="C33" s="59"/>
-      <c r="D33" s="59"/>
-      <c r="E33" s="59"/>
-      <c r="F33" s="59"/>
-      <c r="G33" s="59"/>
-      <c r="H33" s="59"/>
+      <c r="A33" s="61"/>
+      <c r="B33" s="61"/>
+      <c r="C33" s="61"/>
+      <c r="D33" s="61"/>
+      <c r="E33" s="61"/>
+      <c r="F33" s="61"/>
+      <c r="G33" s="61"/>
+      <c r="H33" s="61"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A34" s="60"/>
-      <c r="B34" s="60"/>
-      <c r="C34" s="60"/>
-      <c r="D34" s="60"/>
-      <c r="E34" s="60"/>
-      <c r="F34" s="60"/>
-      <c r="G34" s="60"/>
-      <c r="H34" s="60"/>
+      <c r="A34" s="62"/>
+      <c r="B34" s="62"/>
+      <c r="C34" s="62"/>
+      <c r="D34" s="62"/>
+      <c r="E34" s="62"/>
+      <c r="F34" s="62"/>
+      <c r="G34" s="62"/>
+      <c r="H34" s="62"/>
     </row>
     <row r="35" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A35" s="17"/>
@@ -7871,6 +8169,13 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A33:H33"/>
+    <mergeCell ref="A34:H34"/>
+    <mergeCell ref="A12:H12"/>
+    <mergeCell ref="A19:H19"/>
+    <mergeCell ref="A20:H20"/>
+    <mergeCell ref="A13:H13"/>
+    <mergeCell ref="B14:H14"/>
     <mergeCell ref="B7:H7"/>
     <mergeCell ref="A10:H10"/>
     <mergeCell ref="A11:H11"/>
@@ -7880,13 +8185,6 @@
     <mergeCell ref="B4:H4"/>
     <mergeCell ref="B5:H5"/>
     <mergeCell ref="A6:H6"/>
-    <mergeCell ref="A33:H33"/>
-    <mergeCell ref="A34:H34"/>
-    <mergeCell ref="A12:H12"/>
-    <mergeCell ref="A19:H19"/>
-    <mergeCell ref="A20:H20"/>
-    <mergeCell ref="A13:H13"/>
-    <mergeCell ref="B14:H14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/api/Notice/Council_API.xlsx
+++ b/api/Notice/Council_API.xlsx
@@ -8,16 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Documents\GitHub\AISW_Web_Community\api\Notice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3FCBC04-8D54-4F03-9C02-6CF5876DB259}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48C09E78-23E4-46D4-BAB6-DD1073DEC8D7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4D31F6B6-070E-4774-AAEF-202F9D53FBBB}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{4D31F6B6-070E-4774-AAEF-202F9D53FBBB}"/>
   </bookViews>
   <sheets>
     <sheet name="학생회 공지 전체 조회" sheetId="1" r:id="rId1"/>
-    <sheet name="학생회 공지 상세 조회" sheetId="2" r:id="rId2"/>
-    <sheet name="학생회 공지 작성" sheetId="3" r:id="rId3"/>
-    <sheet name="학생회 공지 수정" sheetId="4" r:id="rId4"/>
-    <sheet name="학생회 공지 삭제" sheetId="5" r:id="rId5"/>
+    <sheet name="학생회 공지 검색(제목)" sheetId="6" r:id="rId2"/>
+    <sheet name="학생회 공지 검색(제목+내용)" sheetId="7" r:id="rId3"/>
+    <sheet name="학생회 공지 검색(작성자)" sheetId="8" r:id="rId4"/>
+    <sheet name="학생회 공지 상세 조회" sheetId="2" r:id="rId5"/>
+    <sheet name="학생회 공지 작성" sheetId="3" r:id="rId6"/>
+    <sheet name="학생회 공지 수정" sheetId="4" r:id="rId7"/>
+    <sheet name="학생회 공지 삭제" sheetId="5" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1058" uniqueCount="118">
   <si>
     <t>Title</t>
   </si>
@@ -1551,12 +1554,309 @@
     <t>default 10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t>Council (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>학생회</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>공지사항</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>검색</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>제목</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/notice/council/search/writer?writer=name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://localhost:8080/notice/council/search/writer?writer=name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Council (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>학생회</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>공지사항</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>검색</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>제목+내용</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Council (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>학생회</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>공지사항</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>검색</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>작성자</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/notice/council/search/title?title=name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://localhost:8080/notice/council/search/title?title=name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/notice/council/search/title&amp;content?title=name&amp;content=name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://localhost:8080/notice/council/search/title&amp;content?title=name&amp;content=name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1683,6 +1983,19 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Malgun Gothic"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -1806,7 +2119,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1881,17 +2194,20 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1900,6 +2216,7 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1917,6 +2234,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1986,12 +2315,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -2309,11 +2632,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1B60143-E3B9-4AB4-9B51-6040CE152FCC}">
   <dimension ref="A1:H94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+    <sheetView topLeftCell="A29" workbookViewId="0">
       <selection activeCell="A40" sqref="A40:XFD40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.25" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="13.25" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="19.33203125" style="1" customWidth="1"/>
     <col min="2" max="7" width="13.25" style="1"/>
@@ -2321,101 +2644,101 @@
     <col min="9" max="16384" width="13.25" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="47" t="s">
         <v>85</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="47" t="s">
         <v>90</v>
       </c>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="34"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A6" s="30" t="s">
+      <c r="B5" s="49"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="31"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="31"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
@@ -2441,7 +2764,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" ht="15.75" customHeight="1">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -2451,7 +2774,7 @@
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
     </row>
-    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" ht="15.75" customHeight="1">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -2461,67 +2784,67 @@
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
     </row>
-    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="37" t="s">
+    <row r="11" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A11" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="31"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A12" s="38" t="s">
+      <c r="B11" s="38"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="38"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="40" t="s">
         <v>91</v>
       </c>
-      <c r="B12" s="31"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A13" s="39"/>
-      <c r="B13" s="31"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="31"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A14" s="40" t="s">
+      <c r="B12" s="38"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="38"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="41"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="38"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="31"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B14" s="38"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="38"/>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="36" t="s">
+      <c r="B15" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="31"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C15" s="38"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="38"/>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="6" t="s">
         <v>10</v>
       </c>
@@ -2547,7 +2870,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:8">
       <c r="A17" s="4" t="s">
         <v>26</v>
       </c>
@@ -2565,7 +2888,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:8">
       <c r="A18" s="4" t="s">
         <v>29</v>
       </c>
@@ -2583,7 +2906,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:8">
       <c r="A19" s="4" t="s">
         <v>31</v>
       </c>
@@ -2599,7 +2922,7 @@
       </c>
       <c r="H19" s="4"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:8">
       <c r="A20" s="4" t="s">
         <v>96</v>
       </c>
@@ -2617,7 +2940,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:8">
       <c r="A21" s="4" t="s">
         <v>92</v>
       </c>
@@ -2637,7 +2960,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:8">
       <c r="A22" s="8" t="s">
         <v>42</v>
       </c>
@@ -2657,7 +2980,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:8">
       <c r="A23" s="8" t="s">
         <v>44</v>
       </c>
@@ -2677,7 +3000,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:8">
       <c r="A24" s="9" t="s">
         <v>46</v>
       </c>
@@ -2697,7 +3020,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:8">
       <c r="A25" s="8" t="s">
         <v>49</v>
       </c>
@@ -2717,7 +3040,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:8">
       <c r="A26" s="9" t="s">
         <v>51</v>
       </c>
@@ -2737,7 +3060,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:8">
       <c r="A27" s="8" t="s">
         <v>53</v>
       </c>
@@ -2757,7 +3080,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:8">
       <c r="A28" s="8" t="s">
         <v>57</v>
       </c>
@@ -2777,7 +3100,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:8">
       <c r="A29" s="8" t="s">
         <v>59</v>
       </c>
@@ -2795,7 +3118,7 @@
       </c>
       <c r="H29" s="8"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:8">
       <c r="A30" s="8" t="s">
         <v>61</v>
       </c>
@@ -2813,7 +3136,7 @@
       </c>
       <c r="H30" s="8"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:8">
       <c r="A31" s="4" t="s">
         <v>38</v>
       </c>
@@ -2833,7 +3156,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:8">
       <c r="A32" s="27" t="s">
         <v>76</v>
       </c>
@@ -2853,7 +3176,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:8">
       <c r="A33" s="22" t="s">
         <v>73</v>
       </c>
@@ -2873,7 +3196,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:8" ht="16" customHeight="1">
       <c r="A34" s="29" t="s">
         <v>99</v>
       </c>
@@ -2885,12 +3208,12 @@
       <c r="G34" s="28"/>
       <c r="H34" s="28"/>
     </row>
-    <row r="35" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:8" ht="18" customHeight="1">
       <c r="A35" s="29" t="s">
         <v>100</v>
       </c>
       <c r="B35" s="28"/>
-      <c r="C35" s="67" t="s">
+      <c r="C35" s="34" t="s">
         <v>101</v>
       </c>
       <c r="D35" s="28"/>
@@ -2901,14 +3224,14 @@
       <c r="G35" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="H35" s="67"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="H35" s="34"/>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="29" t="s">
         <v>102</v>
       </c>
       <c r="B36" s="28"/>
-      <c r="C36" s="68" t="s">
+      <c r="C36" s="35" t="s">
         <v>103</v>
       </c>
       <c r="D36" s="28"/>
@@ -2919,14 +3242,14 @@
       <c r="G36" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="H36" s="67"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="H36" s="34"/>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="29" t="s">
         <v>104</v>
       </c>
       <c r="B37" s="28"/>
-      <c r="C37" s="68" t="s">
+      <c r="C37" s="35" t="s">
         <v>105</v>
       </c>
       <c r="D37" s="28"/>
@@ -2937,14 +3260,14 @@
       <c r="G37" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="H37" s="67"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="H37" s="34"/>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="29" t="s">
         <v>106</v>
       </c>
       <c r="B38" s="28"/>
-      <c r="C38" s="68" t="s">
+      <c r="C38" s="35" t="s">
         <v>107</v>
       </c>
       <c r="D38" s="28"/>
@@ -2955,35 +3278,35 @@
       <c r="G38" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="H38" s="67" t="s">
+      <c r="H38" s="34" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A39" s="41" t="s">
+    <row r="39" spans="1:8">
+      <c r="A39" s="43" t="s">
         <v>63</v>
       </c>
-      <c r="B39" s="42"/>
-      <c r="C39" s="42"/>
-      <c r="D39" s="42"/>
-      <c r="E39" s="42"/>
-      <c r="F39" s="42"/>
-      <c r="G39" s="42"/>
-      <c r="H39" s="43"/>
-    </row>
-    <row r="40" spans="1:8" ht="371" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A40" s="35" t="s">
+      <c r="B39" s="44"/>
+      <c r="C39" s="44"/>
+      <c r="D39" s="44"/>
+      <c r="E39" s="44"/>
+      <c r="F39" s="44"/>
+      <c r="G39" s="44"/>
+      <c r="H39" s="45"/>
+    </row>
+    <row r="40" spans="1:8" ht="371" customHeight="1">
+      <c r="A40" s="59" t="s">
         <v>98</v>
       </c>
-      <c r="B40" s="35"/>
-      <c r="C40" s="35"/>
-      <c r="D40" s="35"/>
-      <c r="E40" s="35"/>
-      <c r="F40" s="35"/>
-      <c r="G40" s="35"/>
-      <c r="H40" s="35"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B40" s="60"/>
+      <c r="C40" s="60"/>
+      <c r="D40" s="60"/>
+      <c r="E40" s="60"/>
+      <c r="F40" s="60"/>
+      <c r="G40" s="60"/>
+      <c r="H40" s="61"/>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="11"/>
       <c r="B43" s="11"/>
       <c r="C43" s="11"/>
@@ -2993,7 +3316,7 @@
       <c r="G43" s="11"/>
       <c r="H43" s="11"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:8">
       <c r="A44" s="11"/>
       <c r="B44" s="11"/>
       <c r="C44" s="11"/>
@@ -3003,7 +3326,7 @@
       <c r="G44" s="11"/>
       <c r="H44" s="11"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:8">
       <c r="A45" s="11"/>
       <c r="B45" s="11"/>
       <c r="C45" s="11"/>
@@ -3013,7 +3336,7 @@
       <c r="G45" s="11"/>
       <c r="H45" s="11"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:8">
       <c r="A46" s="11"/>
       <c r="B46" s="11"/>
       <c r="C46" s="11"/>
@@ -3023,7 +3346,7 @@
       <c r="G46" s="11"/>
       <c r="H46" s="11"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:8">
       <c r="A47" s="11"/>
       <c r="B47" s="11"/>
       <c r="C47" s="11"/>
@@ -3033,7 +3356,7 @@
       <c r="G47" s="11"/>
       <c r="H47" s="11"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:8">
       <c r="A48" s="12"/>
       <c r="B48" s="12"/>
       <c r="C48" s="12"/>
@@ -3043,7 +3366,7 @@
       <c r="G48" s="12"/>
       <c r="H48" s="12"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:8">
       <c r="A49" s="13"/>
       <c r="B49" s="13"/>
       <c r="C49" s="13"/>
@@ -3053,7 +3376,7 @@
       <c r="G49" s="13"/>
       <c r="H49" s="13"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:8">
       <c r="A50" s="13"/>
       <c r="B50" s="13"/>
       <c r="C50" s="14"/>
@@ -3063,7 +3386,7 @@
       <c r="G50" s="13"/>
       <c r="H50" s="13"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:8">
       <c r="A51" s="13"/>
       <c r="B51" s="13"/>
       <c r="C51" s="14"/>
@@ -3073,7 +3396,7 @@
       <c r="G51" s="13"/>
       <c r="H51" s="13"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:8">
       <c r="A52" s="13"/>
       <c r="B52" s="13"/>
       <c r="C52" s="14"/>
@@ -3083,7 +3406,7 @@
       <c r="G52" s="13"/>
       <c r="H52" s="13"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:8">
       <c r="A53" s="13"/>
       <c r="B53" s="13"/>
       <c r="C53" s="14"/>
@@ -3093,7 +3416,7 @@
       <c r="G53" s="13"/>
       <c r="H53" s="13"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:8">
       <c r="A54" s="13"/>
       <c r="B54" s="13"/>
       <c r="C54" s="14"/>
@@ -3103,7 +3426,7 @@
       <c r="G54" s="13"/>
       <c r="H54" s="13"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:8">
       <c r="A55" s="13"/>
       <c r="B55" s="13"/>
       <c r="C55" s="14"/>
@@ -3113,7 +3436,7 @@
       <c r="G55" s="13"/>
       <c r="H55" s="13"/>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:8">
       <c r="A56" s="13"/>
       <c r="B56" s="13"/>
       <c r="C56" s="14"/>
@@ -3123,7 +3446,7 @@
       <c r="G56" s="13"/>
       <c r="H56" s="13"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:8">
       <c r="A57" s="15"/>
       <c r="B57" s="15"/>
       <c r="C57" s="16"/>
@@ -3133,7 +3456,7 @@
       <c r="G57" s="15"/>
       <c r="H57" s="15"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:8">
       <c r="A58" s="15"/>
       <c r="B58" s="15"/>
       <c r="C58" s="16"/>
@@ -3143,7 +3466,7 @@
       <c r="G58" s="15"/>
       <c r="H58" s="15"/>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:8">
       <c r="A59" s="15"/>
       <c r="B59" s="15"/>
       <c r="C59" s="16"/>
@@ -3153,7 +3476,7 @@
       <c r="G59" s="15"/>
       <c r="H59" s="15"/>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:8">
       <c r="A60" s="13"/>
       <c r="B60" s="13"/>
       <c r="C60" s="14"/>
@@ -3163,7 +3486,7 @@
       <c r="G60" s="13"/>
       <c r="H60" s="13"/>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:8">
       <c r="A61" s="13"/>
       <c r="B61" s="13"/>
       <c r="C61" s="14"/>
@@ -3173,7 +3496,7 @@
       <c r="G61" s="13"/>
       <c r="H61" s="13"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:8">
       <c r="A62" s="13"/>
       <c r="B62" s="13"/>
       <c r="C62" s="14"/>
@@ -3183,7 +3506,7 @@
       <c r="G62" s="13"/>
       <c r="H62" s="13"/>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:8">
       <c r="A63" s="13"/>
       <c r="B63" s="13"/>
       <c r="C63" s="14"/>
@@ -3193,7 +3516,7 @@
       <c r="G63" s="13"/>
       <c r="H63" s="13"/>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:8">
       <c r="A64" s="13"/>
       <c r="B64" s="13"/>
       <c r="C64" s="14"/>
@@ -3203,7 +3526,7 @@
       <c r="G64" s="13"/>
       <c r="H64" s="13"/>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:8">
       <c r="A67" s="7"/>
       <c r="B67" s="7"/>
       <c r="C67" s="7"/>
@@ -3213,7 +3536,7 @@
       <c r="G67" s="7"/>
       <c r="H67" s="7"/>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:8">
       <c r="A68" s="7"/>
       <c r="B68" s="7"/>
       <c r="C68" s="7"/>
@@ -3223,7 +3546,7 @@
       <c r="G68" s="7"/>
       <c r="H68" s="7"/>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:8">
       <c r="A69" s="7"/>
       <c r="B69" s="7"/>
       <c r="C69" s="7"/>
@@ -3233,7 +3556,7 @@
       <c r="G69" s="7"/>
       <c r="H69" s="7"/>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:8">
       <c r="A70" s="7"/>
       <c r="B70" s="7"/>
       <c r="C70" s="7"/>
@@ -3243,7 +3566,7 @@
       <c r="G70" s="7"/>
       <c r="H70" s="7"/>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:8">
       <c r="A71" s="7"/>
       <c r="B71" s="7"/>
       <c r="C71" s="7"/>
@@ -3253,7 +3576,7 @@
       <c r="G71" s="7"/>
       <c r="H71" s="7"/>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:8">
       <c r="A72" s="7"/>
       <c r="B72" s="7"/>
       <c r="C72" s="7"/>
@@ -3263,7 +3586,7 @@
       <c r="G72" s="7"/>
       <c r="H72" s="7"/>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:8">
       <c r="A73" s="7"/>
       <c r="B73" s="7"/>
       <c r="C73" s="7"/>
@@ -3273,7 +3596,7 @@
       <c r="G73" s="7"/>
       <c r="H73" s="7"/>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:8">
       <c r="A74" s="7"/>
       <c r="B74" s="7"/>
       <c r="C74" s="7"/>
@@ -3283,7 +3606,7 @@
       <c r="G74" s="7"/>
       <c r="H74" s="7"/>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:8">
       <c r="A75" s="7"/>
       <c r="B75" s="7"/>
       <c r="C75" s="7"/>
@@ -3293,7 +3616,7 @@
       <c r="G75" s="7"/>
       <c r="H75" s="7"/>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:8">
       <c r="A76" s="7"/>
       <c r="B76" s="7"/>
       <c r="C76" s="7"/>
@@ -3303,7 +3626,7 @@
       <c r="G76" s="7"/>
       <c r="H76" s="7"/>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:8">
       <c r="A77" s="7"/>
       <c r="B77" s="7"/>
       <c r="C77" s="7"/>
@@ -3313,7 +3636,7 @@
       <c r="G77" s="7"/>
       <c r="H77" s="7"/>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:8">
       <c r="A78" s="7"/>
       <c r="B78" s="7"/>
       <c r="C78" s="7"/>
@@ -3323,7 +3646,7 @@
       <c r="G78" s="7"/>
       <c r="H78" s="7"/>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:8">
       <c r="A79" s="7"/>
       <c r="B79" s="7"/>
       <c r="C79" s="7"/>
@@ -3333,7 +3656,7 @@
       <c r="G79" s="7"/>
       <c r="H79" s="7"/>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:8">
       <c r="A80" s="7"/>
       <c r="B80" s="7"/>
       <c r="C80" s="7"/>
@@ -3343,7 +3666,7 @@
       <c r="G80" s="7"/>
       <c r="H80" s="7"/>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:8">
       <c r="A81" s="7"/>
       <c r="B81" s="7"/>
       <c r="C81" s="7"/>
@@ -3353,7 +3676,7 @@
       <c r="G81" s="7"/>
       <c r="H81" s="7"/>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:8">
       <c r="A82" s="7"/>
       <c r="B82" s="7"/>
       <c r="C82" s="7"/>
@@ -3363,7 +3686,7 @@
       <c r="G82" s="7"/>
       <c r="H82" s="7"/>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:8">
       <c r="A83" s="7"/>
       <c r="B83" s="7"/>
       <c r="C83" s="7"/>
@@ -3373,7 +3696,7 @@
       <c r="G83" s="7"/>
       <c r="H83" s="7"/>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:8">
       <c r="A84" s="7"/>
       <c r="B84" s="7"/>
       <c r="C84" s="7"/>
@@ -3383,7 +3706,7 @@
       <c r="G84" s="7"/>
       <c r="H84" s="7"/>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:8">
       <c r="A85" s="7"/>
       <c r="B85" s="7"/>
       <c r="C85" s="7"/>
@@ -3393,7 +3716,7 @@
       <c r="G85" s="7"/>
       <c r="H85" s="7"/>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:8">
       <c r="A86" s="7"/>
       <c r="B86" s="7"/>
       <c r="C86" s="7"/>
@@ -3403,7 +3726,7 @@
       <c r="G86" s="7"/>
       <c r="H86" s="7"/>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:8">
       <c r="A87" s="7"/>
       <c r="B87" s="7"/>
       <c r="C87" s="7"/>
@@ -3413,7 +3736,7 @@
       <c r="G87" s="7"/>
       <c r="H87" s="7"/>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:8">
       <c r="A88" s="7"/>
       <c r="B88" s="7"/>
       <c r="C88" s="7"/>
@@ -3423,7 +3746,7 @@
       <c r="G88" s="7"/>
       <c r="H88" s="7"/>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:8">
       <c r="A89" s="7"/>
       <c r="B89" s="7"/>
       <c r="C89" s="7"/>
@@ -3433,7 +3756,7 @@
       <c r="G89" s="7"/>
       <c r="H89" s="7"/>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:8">
       <c r="A90" s="7"/>
       <c r="B90" s="7"/>
       <c r="C90" s="7"/>
@@ -3443,7 +3766,7 @@
       <c r="G90" s="7"/>
       <c r="H90" s="7"/>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:8">
       <c r="A91" s="7"/>
       <c r="B91" s="7"/>
       <c r="C91" s="7"/>
@@ -3453,7 +3776,7 @@
       <c r="G91" s="7"/>
       <c r="H91" s="7"/>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:8">
       <c r="A92" s="7"/>
       <c r="B92" s="7"/>
       <c r="C92" s="7"/>
@@ -3463,7 +3786,7 @@
       <c r="G92" s="7"/>
       <c r="H92" s="7"/>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:8">
       <c r="A93" s="7"/>
       <c r="B93" s="7"/>
       <c r="C93" s="7"/>
@@ -3473,7 +3796,7 @@
       <c r="G93" s="7"/>
       <c r="H93" s="7"/>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:8">
       <c r="A94" s="7"/>
       <c r="B94" s="7"/>
       <c r="C94" s="7"/>
@@ -3485,6 +3808,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B5:H5"/>
     <mergeCell ref="A40:H40"/>
     <mergeCell ref="B7:H7"/>
     <mergeCell ref="A11:H11"/>
@@ -3493,12 +3822,6 @@
     <mergeCell ref="A14:H14"/>
     <mergeCell ref="B15:H15"/>
     <mergeCell ref="A39:H39"/>
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="B5:H5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -3510,6 +3833,3618 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1250DE6-862A-4951-9E0A-A64459353432}">
+  <dimension ref="A1:H94"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:H12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="13.25" defaultRowHeight="17"/>
+  <cols>
+    <col min="1" max="1" width="19.33203125" style="1" customWidth="1"/>
+    <col min="2" max="7" width="13.25" style="1"/>
+    <col min="8" max="8" width="54.08203125" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="13.25" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="47" t="s">
+        <v>109</v>
+      </c>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="48" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="47" t="s">
+        <v>114</v>
+      </c>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="49"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A9" s="31"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A10" s="30"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A11" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="38"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="38"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="40" t="s">
+        <v>115</v>
+      </c>
+      <c r="B12" s="38"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="38"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="41"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="38"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="38"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="38"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="38"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="38"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="H16" s="32" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="31"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="G17" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="H17" s="31" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="31"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="G18" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="H18" s="31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="31"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="G19" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="H19" s="31"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="B20" s="31"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="G20" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="H20" s="31" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="B21" s="31"/>
+      <c r="C21" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="31"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="G21" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="H21" s="31" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" s="10"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D23" s="10"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" s="10"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D25" s="10"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" s="8"/>
+      <c r="C26" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D26" s="10"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D27" s="10"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H27" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D28" s="10"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H28" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D29" s="10"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H29" s="8"/>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D30" s="10"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H30" s="8"/>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31" s="31"/>
+      <c r="C31" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="D31" s="31"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="G31" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="H31" s="31" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="B32" s="31"/>
+      <c r="C32" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="D32" s="31"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="G32" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="H32" s="31" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="B33" s="31"/>
+      <c r="C33" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="D33" s="31"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="G33" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="H33" s="31" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="16" customHeight="1">
+      <c r="A34" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="B34" s="30"/>
+      <c r="C34" s="30"/>
+      <c r="D34" s="30"/>
+      <c r="E34" s="30"/>
+      <c r="F34" s="30"/>
+      <c r="G34" s="30"/>
+      <c r="H34" s="30"/>
+    </row>
+    <row r="35" spans="1:8" ht="18" customHeight="1">
+      <c r="A35" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="B35" s="30"/>
+      <c r="C35" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="D35" s="30"/>
+      <c r="E35" s="30"/>
+      <c r="F35" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="G35" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="H35" s="34"/>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="B36" s="30"/>
+      <c r="C36" s="35" t="s">
+        <v>103</v>
+      </c>
+      <c r="D36" s="30"/>
+      <c r="E36" s="30"/>
+      <c r="F36" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="G36" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="H36" s="34"/>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="31" t="s">
+        <v>104</v>
+      </c>
+      <c r="B37" s="30"/>
+      <c r="C37" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="D37" s="30"/>
+      <c r="E37" s="30"/>
+      <c r="F37" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="G37" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="H37" s="34"/>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="31" t="s">
+        <v>106</v>
+      </c>
+      <c r="B38" s="30"/>
+      <c r="C38" s="35" t="s">
+        <v>107</v>
+      </c>
+      <c r="D38" s="30"/>
+      <c r="E38" s="30"/>
+      <c r="F38" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="G38" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="H38" s="34" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="B39" s="44"/>
+      <c r="C39" s="44"/>
+      <c r="D39" s="44"/>
+      <c r="E39" s="44"/>
+      <c r="F39" s="44"/>
+      <c r="G39" s="44"/>
+      <c r="H39" s="45"/>
+    </row>
+    <row r="40" spans="1:8" ht="371" customHeight="1">
+      <c r="A40" s="59" t="s">
+        <v>98</v>
+      </c>
+      <c r="B40" s="60"/>
+      <c r="C40" s="60"/>
+      <c r="D40" s="60"/>
+      <c r="E40" s="60"/>
+      <c r="F40" s="60"/>
+      <c r="G40" s="60"/>
+      <c r="H40" s="61"/>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="11"/>
+      <c r="B43" s="11"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="11"/>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="11"/>
+      <c r="B44" s="11"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="11"/>
+      <c r="H44" s="11"/>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="11"/>
+      <c r="B45" s="11"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="11"/>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="11"/>
+      <c r="B46" s="11"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="11"/>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="11"/>
+      <c r="B47" s="11"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="11"/>
+      <c r="H47" s="11"/>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="12"/>
+      <c r="B48" s="12"/>
+      <c r="C48" s="12"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="12"/>
+      <c r="G48" s="12"/>
+      <c r="H48" s="12"/>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="33"/>
+      <c r="B49" s="33"/>
+      <c r="C49" s="33"/>
+      <c r="D49" s="33"/>
+      <c r="E49" s="33"/>
+      <c r="F49" s="33"/>
+      <c r="G49" s="33"/>
+      <c r="H49" s="33"/>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="33"/>
+      <c r="B50" s="33"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="33"/>
+      <c r="E50" s="33"/>
+      <c r="F50" s="33"/>
+      <c r="G50" s="33"/>
+      <c r="H50" s="33"/>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="33"/>
+      <c r="B51" s="33"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="33"/>
+      <c r="E51" s="33"/>
+      <c r="F51" s="33"/>
+      <c r="G51" s="33"/>
+      <c r="H51" s="33"/>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="33"/>
+      <c r="B52" s="33"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="33"/>
+      <c r="E52" s="33"/>
+      <c r="F52" s="33"/>
+      <c r="G52" s="33"/>
+      <c r="H52" s="33"/>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="33"/>
+      <c r="B53" s="33"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="33"/>
+      <c r="E53" s="33"/>
+      <c r="F53" s="33"/>
+      <c r="G53" s="33"/>
+      <c r="H53" s="33"/>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="33"/>
+      <c r="B54" s="33"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="33"/>
+      <c r="E54" s="33"/>
+      <c r="F54" s="33"/>
+      <c r="G54" s="33"/>
+      <c r="H54" s="33"/>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="33"/>
+      <c r="B55" s="33"/>
+      <c r="C55" s="14"/>
+      <c r="D55" s="33"/>
+      <c r="E55" s="33"/>
+      <c r="F55" s="33"/>
+      <c r="G55" s="33"/>
+      <c r="H55" s="33"/>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="33"/>
+      <c r="B56" s="33"/>
+      <c r="C56" s="14"/>
+      <c r="D56" s="33"/>
+      <c r="E56" s="33"/>
+      <c r="F56" s="33"/>
+      <c r="G56" s="33"/>
+      <c r="H56" s="33"/>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="15"/>
+      <c r="B57" s="15"/>
+      <c r="C57" s="16"/>
+      <c r="D57" s="15"/>
+      <c r="E57" s="15"/>
+      <c r="F57" s="15"/>
+      <c r="G57" s="15"/>
+      <c r="H57" s="15"/>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" s="15"/>
+      <c r="B58" s="15"/>
+      <c r="C58" s="16"/>
+      <c r="D58" s="15"/>
+      <c r="E58" s="15"/>
+      <c r="F58" s="15"/>
+      <c r="G58" s="15"/>
+      <c r="H58" s="15"/>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" s="15"/>
+      <c r="B59" s="15"/>
+      <c r="C59" s="16"/>
+      <c r="D59" s="15"/>
+      <c r="E59" s="15"/>
+      <c r="F59" s="15"/>
+      <c r="G59" s="15"/>
+      <c r="H59" s="15"/>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" s="33"/>
+      <c r="B60" s="33"/>
+      <c r="C60" s="14"/>
+      <c r="D60" s="33"/>
+      <c r="E60" s="33"/>
+      <c r="F60" s="33"/>
+      <c r="G60" s="33"/>
+      <c r="H60" s="33"/>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" s="33"/>
+      <c r="B61" s="33"/>
+      <c r="C61" s="14"/>
+      <c r="D61" s="33"/>
+      <c r="E61" s="33"/>
+      <c r="F61" s="33"/>
+      <c r="G61" s="33"/>
+      <c r="H61" s="33"/>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" s="33"/>
+      <c r="B62" s="33"/>
+      <c r="C62" s="14"/>
+      <c r="D62" s="33"/>
+      <c r="E62" s="33"/>
+      <c r="F62" s="33"/>
+      <c r="G62" s="33"/>
+      <c r="H62" s="33"/>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" s="33"/>
+      <c r="B63" s="33"/>
+      <c r="C63" s="14"/>
+      <c r="D63" s="33"/>
+      <c r="E63" s="33"/>
+      <c r="F63" s="33"/>
+      <c r="G63" s="33"/>
+      <c r="H63" s="33"/>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" s="33"/>
+      <c r="B64" s="33"/>
+      <c r="C64" s="14"/>
+      <c r="D64" s="33"/>
+      <c r="E64" s="33"/>
+      <c r="F64" s="33"/>
+      <c r="G64" s="33"/>
+      <c r="H64" s="33"/>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" s="7"/>
+      <c r="B67" s="7"/>
+      <c r="C67" s="7"/>
+      <c r="D67" s="7"/>
+      <c r="E67" s="7"/>
+      <c r="F67" s="7"/>
+      <c r="G67" s="7"/>
+      <c r="H67" s="7"/>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68" s="7"/>
+      <c r="B68" s="7"/>
+      <c r="C68" s="7"/>
+      <c r="D68" s="7"/>
+      <c r="E68" s="7"/>
+      <c r="F68" s="7"/>
+      <c r="G68" s="7"/>
+      <c r="H68" s="7"/>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69" s="7"/>
+      <c r="B69" s="7"/>
+      <c r="C69" s="7"/>
+      <c r="D69" s="7"/>
+      <c r="E69" s="7"/>
+      <c r="F69" s="7"/>
+      <c r="G69" s="7"/>
+      <c r="H69" s="7"/>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70" s="7"/>
+      <c r="B70" s="7"/>
+      <c r="C70" s="7"/>
+      <c r="D70" s="7"/>
+      <c r="E70" s="7"/>
+      <c r="F70" s="7"/>
+      <c r="G70" s="7"/>
+      <c r="H70" s="7"/>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71" s="7"/>
+      <c r="B71" s="7"/>
+      <c r="C71" s="7"/>
+      <c r="D71" s="7"/>
+      <c r="E71" s="7"/>
+      <c r="F71" s="7"/>
+      <c r="G71" s="7"/>
+      <c r="H71" s="7"/>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72" s="7"/>
+      <c r="B72" s="7"/>
+      <c r="C72" s="7"/>
+      <c r="D72" s="7"/>
+      <c r="E72" s="7"/>
+      <c r="F72" s="7"/>
+      <c r="G72" s="7"/>
+      <c r="H72" s="7"/>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73" s="7"/>
+      <c r="B73" s="7"/>
+      <c r="C73" s="7"/>
+      <c r="D73" s="7"/>
+      <c r="E73" s="7"/>
+      <c r="F73" s="7"/>
+      <c r="G73" s="7"/>
+      <c r="H73" s="7"/>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74" s="7"/>
+      <c r="B74" s="7"/>
+      <c r="C74" s="7"/>
+      <c r="D74" s="7"/>
+      <c r="E74" s="7"/>
+      <c r="F74" s="7"/>
+      <c r="G74" s="7"/>
+      <c r="H74" s="7"/>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="A75" s="7"/>
+      <c r="B75" s="7"/>
+      <c r="C75" s="7"/>
+      <c r="D75" s="7"/>
+      <c r="E75" s="7"/>
+      <c r="F75" s="7"/>
+      <c r="G75" s="7"/>
+      <c r="H75" s="7"/>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="A76" s="7"/>
+      <c r="B76" s="7"/>
+      <c r="C76" s="7"/>
+      <c r="D76" s="7"/>
+      <c r="E76" s="7"/>
+      <c r="F76" s="7"/>
+      <c r="G76" s="7"/>
+      <c r="H76" s="7"/>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77" s="7"/>
+      <c r="B77" s="7"/>
+      <c r="C77" s="7"/>
+      <c r="D77" s="7"/>
+      <c r="E77" s="7"/>
+      <c r="F77" s="7"/>
+      <c r="G77" s="7"/>
+      <c r="H77" s="7"/>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="A78" s="7"/>
+      <c r="B78" s="7"/>
+      <c r="C78" s="7"/>
+      <c r="D78" s="7"/>
+      <c r="E78" s="7"/>
+      <c r="F78" s="7"/>
+      <c r="G78" s="7"/>
+      <c r="H78" s="7"/>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="A79" s="7"/>
+      <c r="B79" s="7"/>
+      <c r="C79" s="7"/>
+      <c r="D79" s="7"/>
+      <c r="E79" s="7"/>
+      <c r="F79" s="7"/>
+      <c r="G79" s="7"/>
+      <c r="H79" s="7"/>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80" s="7"/>
+      <c r="B80" s="7"/>
+      <c r="C80" s="7"/>
+      <c r="D80" s="7"/>
+      <c r="E80" s="7"/>
+      <c r="F80" s="7"/>
+      <c r="G80" s="7"/>
+      <c r="H80" s="7"/>
+    </row>
+    <row r="81" spans="1:8">
+      <c r="A81" s="7"/>
+      <c r="B81" s="7"/>
+      <c r="C81" s="7"/>
+      <c r="D81" s="7"/>
+      <c r="E81" s="7"/>
+      <c r="F81" s="7"/>
+      <c r="G81" s="7"/>
+      <c r="H81" s="7"/>
+    </row>
+    <row r="82" spans="1:8">
+      <c r="A82" s="7"/>
+      <c r="B82" s="7"/>
+      <c r="C82" s="7"/>
+      <c r="D82" s="7"/>
+      <c r="E82" s="7"/>
+      <c r="F82" s="7"/>
+      <c r="G82" s="7"/>
+      <c r="H82" s="7"/>
+    </row>
+    <row r="83" spans="1:8">
+      <c r="A83" s="7"/>
+      <c r="B83" s="7"/>
+      <c r="C83" s="7"/>
+      <c r="D83" s="7"/>
+      <c r="E83" s="7"/>
+      <c r="F83" s="7"/>
+      <c r="G83" s="7"/>
+      <c r="H83" s="7"/>
+    </row>
+    <row r="84" spans="1:8">
+      <c r="A84" s="7"/>
+      <c r="B84" s="7"/>
+      <c r="C84" s="7"/>
+      <c r="D84" s="7"/>
+      <c r="E84" s="7"/>
+      <c r="F84" s="7"/>
+      <c r="G84" s="7"/>
+      <c r="H84" s="7"/>
+    </row>
+    <row r="85" spans="1:8">
+      <c r="A85" s="7"/>
+      <c r="B85" s="7"/>
+      <c r="C85" s="7"/>
+      <c r="D85" s="7"/>
+      <c r="E85" s="7"/>
+      <c r="F85" s="7"/>
+      <c r="G85" s="7"/>
+      <c r="H85" s="7"/>
+    </row>
+    <row r="86" spans="1:8">
+      <c r="A86" s="7"/>
+      <c r="B86" s="7"/>
+      <c r="C86" s="7"/>
+      <c r="D86" s="7"/>
+      <c r="E86" s="7"/>
+      <c r="F86" s="7"/>
+      <c r="G86" s="7"/>
+      <c r="H86" s="7"/>
+    </row>
+    <row r="87" spans="1:8">
+      <c r="A87" s="7"/>
+      <c r="B87" s="7"/>
+      <c r="C87" s="7"/>
+      <c r="D87" s="7"/>
+      <c r="E87" s="7"/>
+      <c r="F87" s="7"/>
+      <c r="G87" s="7"/>
+      <c r="H87" s="7"/>
+    </row>
+    <row r="88" spans="1:8">
+      <c r="A88" s="7"/>
+      <c r="B88" s="7"/>
+      <c r="C88" s="7"/>
+      <c r="D88" s="7"/>
+      <c r="E88" s="7"/>
+      <c r="F88" s="7"/>
+      <c r="G88" s="7"/>
+      <c r="H88" s="7"/>
+    </row>
+    <row r="89" spans="1:8">
+      <c r="A89" s="7"/>
+      <c r="B89" s="7"/>
+      <c r="C89" s="7"/>
+      <c r="D89" s="7"/>
+      <c r="E89" s="7"/>
+      <c r="F89" s="7"/>
+      <c r="G89" s="7"/>
+      <c r="H89" s="7"/>
+    </row>
+    <row r="90" spans="1:8">
+      <c r="A90" s="7"/>
+      <c r="B90" s="7"/>
+      <c r="C90" s="7"/>
+      <c r="D90" s="7"/>
+      <c r="E90" s="7"/>
+      <c r="F90" s="7"/>
+      <c r="G90" s="7"/>
+      <c r="H90" s="7"/>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="A91" s="7"/>
+      <c r="B91" s="7"/>
+      <c r="C91" s="7"/>
+      <c r="D91" s="7"/>
+      <c r="E91" s="7"/>
+      <c r="F91" s="7"/>
+      <c r="G91" s="7"/>
+      <c r="H91" s="7"/>
+    </row>
+    <row r="92" spans="1:8">
+      <c r="A92" s="7"/>
+      <c r="B92" s="7"/>
+      <c r="C92" s="7"/>
+      <c r="D92" s="7"/>
+      <c r="E92" s="7"/>
+      <c r="F92" s="7"/>
+      <c r="G92" s="7"/>
+      <c r="H92" s="7"/>
+    </row>
+    <row r="93" spans="1:8">
+      <c r="A93" s="7"/>
+      <c r="B93" s="7"/>
+      <c r="C93" s="7"/>
+      <c r="D93" s="7"/>
+      <c r="E93" s="7"/>
+      <c r="F93" s="7"/>
+      <c r="G93" s="7"/>
+      <c r="H93" s="7"/>
+    </row>
+    <row r="94" spans="1:8">
+      <c r="A94" s="7"/>
+      <c r="B94" s="7"/>
+      <c r="C94" s="7"/>
+      <c r="D94" s="7"/>
+      <c r="E94" s="7"/>
+      <c r="F94" s="7"/>
+      <c r="G94" s="7"/>
+      <c r="H94" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="A39:H39"/>
+    <mergeCell ref="A40:H40"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="A11:H11"/>
+    <mergeCell ref="A12:H12"/>
+    <mergeCell ref="A13:H13"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="A6:H6"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{181CD239-12EE-41E6-8AA6-5AD93E49301B}"/>
+    <hyperlink ref="A12" r:id="rId2" xr:uid="{F74FCD5B-5B52-4927-9347-AE7CA6AE2332}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02209166-9C0F-4DAD-B1A8-B563510C3937}">
+  <dimension ref="A1:H94"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:H12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="13.25" defaultRowHeight="17"/>
+  <cols>
+    <col min="1" max="1" width="19.33203125" style="1" customWidth="1"/>
+    <col min="2" max="7" width="13.25" style="1"/>
+    <col min="8" max="8" width="54.08203125" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="13.25" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="47" t="s">
+        <v>112</v>
+      </c>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="48" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="47" t="s">
+        <v>116</v>
+      </c>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="49"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A9" s="31"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A10" s="30"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A11" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="38"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="38"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="40" t="s">
+        <v>117</v>
+      </c>
+      <c r="B12" s="38"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="38"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="41"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="38"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="38"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="38"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="38"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="38"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="H16" s="32" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="31"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="G17" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="H17" s="31" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="31"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="G18" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="H18" s="31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="31"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="G19" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="H19" s="31"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="B20" s="31"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="G20" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="H20" s="31" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="B21" s="31"/>
+      <c r="C21" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="31"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="G21" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="H21" s="31" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" s="10"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D23" s="10"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" s="10"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D25" s="10"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" s="8"/>
+      <c r="C26" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D26" s="10"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D27" s="10"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H27" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D28" s="10"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H28" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D29" s="10"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H29" s="8"/>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D30" s="10"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H30" s="8"/>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31" s="31"/>
+      <c r="C31" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="D31" s="31"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="G31" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="H31" s="31" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="B32" s="31"/>
+      <c r="C32" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="D32" s="31"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="G32" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="H32" s="31" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="B33" s="31"/>
+      <c r="C33" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="D33" s="31"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="G33" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="H33" s="31" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="16" customHeight="1">
+      <c r="A34" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="B34" s="30"/>
+      <c r="C34" s="30"/>
+      <c r="D34" s="30"/>
+      <c r="E34" s="30"/>
+      <c r="F34" s="30"/>
+      <c r="G34" s="30"/>
+      <c r="H34" s="30"/>
+    </row>
+    <row r="35" spans="1:8" ht="18" customHeight="1">
+      <c r="A35" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="B35" s="30"/>
+      <c r="C35" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="D35" s="30"/>
+      <c r="E35" s="30"/>
+      <c r="F35" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="G35" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="H35" s="34"/>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="B36" s="30"/>
+      <c r="C36" s="35" t="s">
+        <v>103</v>
+      </c>
+      <c r="D36" s="30"/>
+      <c r="E36" s="30"/>
+      <c r="F36" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="G36" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="H36" s="34"/>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="31" t="s">
+        <v>104</v>
+      </c>
+      <c r="B37" s="30"/>
+      <c r="C37" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="D37" s="30"/>
+      <c r="E37" s="30"/>
+      <c r="F37" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="G37" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="H37" s="34"/>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="31" t="s">
+        <v>106</v>
+      </c>
+      <c r="B38" s="30"/>
+      <c r="C38" s="35" t="s">
+        <v>107</v>
+      </c>
+      <c r="D38" s="30"/>
+      <c r="E38" s="30"/>
+      <c r="F38" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="G38" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="H38" s="34" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="B39" s="44"/>
+      <c r="C39" s="44"/>
+      <c r="D39" s="44"/>
+      <c r="E39" s="44"/>
+      <c r="F39" s="44"/>
+      <c r="G39" s="44"/>
+      <c r="H39" s="45"/>
+    </row>
+    <row r="40" spans="1:8" ht="371" customHeight="1">
+      <c r="A40" s="59" t="s">
+        <v>98</v>
+      </c>
+      <c r="B40" s="60"/>
+      <c r="C40" s="60"/>
+      <c r="D40" s="60"/>
+      <c r="E40" s="60"/>
+      <c r="F40" s="60"/>
+      <c r="G40" s="60"/>
+      <c r="H40" s="61"/>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="11"/>
+      <c r="B43" s="11"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="11"/>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="11"/>
+      <c r="B44" s="11"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="11"/>
+      <c r="H44" s="11"/>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="11"/>
+      <c r="B45" s="11"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="11"/>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="11"/>
+      <c r="B46" s="11"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="11"/>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="11"/>
+      <c r="B47" s="11"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="11"/>
+      <c r="H47" s="11"/>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="12"/>
+      <c r="B48" s="12"/>
+      <c r="C48" s="12"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="12"/>
+      <c r="G48" s="12"/>
+      <c r="H48" s="12"/>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="33"/>
+      <c r="B49" s="33"/>
+      <c r="C49" s="33"/>
+      <c r="D49" s="33"/>
+      <c r="E49" s="33"/>
+      <c r="F49" s="33"/>
+      <c r="G49" s="33"/>
+      <c r="H49" s="33"/>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="33"/>
+      <c r="B50" s="33"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="33"/>
+      <c r="E50" s="33"/>
+      <c r="F50" s="33"/>
+      <c r="G50" s="33"/>
+      <c r="H50" s="33"/>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="33"/>
+      <c r="B51" s="33"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="33"/>
+      <c r="E51" s="33"/>
+      <c r="F51" s="33"/>
+      <c r="G51" s="33"/>
+      <c r="H51" s="33"/>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="33"/>
+      <c r="B52" s="33"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="33"/>
+      <c r="E52" s="33"/>
+      <c r="F52" s="33"/>
+      <c r="G52" s="33"/>
+      <c r="H52" s="33"/>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="33"/>
+      <c r="B53" s="33"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="33"/>
+      <c r="E53" s="33"/>
+      <c r="F53" s="33"/>
+      <c r="G53" s="33"/>
+      <c r="H53" s="33"/>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="33"/>
+      <c r="B54" s="33"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="33"/>
+      <c r="E54" s="33"/>
+      <c r="F54" s="33"/>
+      <c r="G54" s="33"/>
+      <c r="H54" s="33"/>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="33"/>
+      <c r="B55" s="33"/>
+      <c r="C55" s="14"/>
+      <c r="D55" s="33"/>
+      <c r="E55" s="33"/>
+      <c r="F55" s="33"/>
+      <c r="G55" s="33"/>
+      <c r="H55" s="33"/>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="33"/>
+      <c r="B56" s="33"/>
+      <c r="C56" s="14"/>
+      <c r="D56" s="33"/>
+      <c r="E56" s="33"/>
+      <c r="F56" s="33"/>
+      <c r="G56" s="33"/>
+      <c r="H56" s="33"/>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="15"/>
+      <c r="B57" s="15"/>
+      <c r="C57" s="16"/>
+      <c r="D57" s="15"/>
+      <c r="E57" s="15"/>
+      <c r="F57" s="15"/>
+      <c r="G57" s="15"/>
+      <c r="H57" s="15"/>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" s="15"/>
+      <c r="B58" s="15"/>
+      <c r="C58" s="16"/>
+      <c r="D58" s="15"/>
+      <c r="E58" s="15"/>
+      <c r="F58" s="15"/>
+      <c r="G58" s="15"/>
+      <c r="H58" s="15"/>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" s="15"/>
+      <c r="B59" s="15"/>
+      <c r="C59" s="16"/>
+      <c r="D59" s="15"/>
+      <c r="E59" s="15"/>
+      <c r="F59" s="15"/>
+      <c r="G59" s="15"/>
+      <c r="H59" s="15"/>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" s="33"/>
+      <c r="B60" s="33"/>
+      <c r="C60" s="14"/>
+      <c r="D60" s="33"/>
+      <c r="E60" s="33"/>
+      <c r="F60" s="33"/>
+      <c r="G60" s="33"/>
+      <c r="H60" s="33"/>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" s="33"/>
+      <c r="B61" s="33"/>
+      <c r="C61" s="14"/>
+      <c r="D61" s="33"/>
+      <c r="E61" s="33"/>
+      <c r="F61" s="33"/>
+      <c r="G61" s="33"/>
+      <c r="H61" s="33"/>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" s="33"/>
+      <c r="B62" s="33"/>
+      <c r="C62" s="14"/>
+      <c r="D62" s="33"/>
+      <c r="E62" s="33"/>
+      <c r="F62" s="33"/>
+      <c r="G62" s="33"/>
+      <c r="H62" s="33"/>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" s="33"/>
+      <c r="B63" s="33"/>
+      <c r="C63" s="14"/>
+      <c r="D63" s="33"/>
+      <c r="E63" s="33"/>
+      <c r="F63" s="33"/>
+      <c r="G63" s="33"/>
+      <c r="H63" s="33"/>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" s="33"/>
+      <c r="B64" s="33"/>
+      <c r="C64" s="14"/>
+      <c r="D64" s="33"/>
+      <c r="E64" s="33"/>
+      <c r="F64" s="33"/>
+      <c r="G64" s="33"/>
+      <c r="H64" s="33"/>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" s="7"/>
+      <c r="B67" s="7"/>
+      <c r="C67" s="7"/>
+      <c r="D67" s="7"/>
+      <c r="E67" s="7"/>
+      <c r="F67" s="7"/>
+      <c r="G67" s="7"/>
+      <c r="H67" s="7"/>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68" s="7"/>
+      <c r="B68" s="7"/>
+      <c r="C68" s="7"/>
+      <c r="D68" s="7"/>
+      <c r="E68" s="7"/>
+      <c r="F68" s="7"/>
+      <c r="G68" s="7"/>
+      <c r="H68" s="7"/>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69" s="7"/>
+      <c r="B69" s="7"/>
+      <c r="C69" s="7"/>
+      <c r="D69" s="7"/>
+      <c r="E69" s="7"/>
+      <c r="F69" s="7"/>
+      <c r="G69" s="7"/>
+      <c r="H69" s="7"/>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70" s="7"/>
+      <c r="B70" s="7"/>
+      <c r="C70" s="7"/>
+      <c r="D70" s="7"/>
+      <c r="E70" s="7"/>
+      <c r="F70" s="7"/>
+      <c r="G70" s="7"/>
+      <c r="H70" s="7"/>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71" s="7"/>
+      <c r="B71" s="7"/>
+      <c r="C71" s="7"/>
+      <c r="D71" s="7"/>
+      <c r="E71" s="7"/>
+      <c r="F71" s="7"/>
+      <c r="G71" s="7"/>
+      <c r="H71" s="7"/>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72" s="7"/>
+      <c r="B72" s="7"/>
+      <c r="C72" s="7"/>
+      <c r="D72" s="7"/>
+      <c r="E72" s="7"/>
+      <c r="F72" s="7"/>
+      <c r="G72" s="7"/>
+      <c r="H72" s="7"/>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73" s="7"/>
+      <c r="B73" s="7"/>
+      <c r="C73" s="7"/>
+      <c r="D73" s="7"/>
+      <c r="E73" s="7"/>
+      <c r="F73" s="7"/>
+      <c r="G73" s="7"/>
+      <c r="H73" s="7"/>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74" s="7"/>
+      <c r="B74" s="7"/>
+      <c r="C74" s="7"/>
+      <c r="D74" s="7"/>
+      <c r="E74" s="7"/>
+      <c r="F74" s="7"/>
+      <c r="G74" s="7"/>
+      <c r="H74" s="7"/>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="A75" s="7"/>
+      <c r="B75" s="7"/>
+      <c r="C75" s="7"/>
+      <c r="D75" s="7"/>
+      <c r="E75" s="7"/>
+      <c r="F75" s="7"/>
+      <c r="G75" s="7"/>
+      <c r="H75" s="7"/>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="A76" s="7"/>
+      <c r="B76" s="7"/>
+      <c r="C76" s="7"/>
+      <c r="D76" s="7"/>
+      <c r="E76" s="7"/>
+      <c r="F76" s="7"/>
+      <c r="G76" s="7"/>
+      <c r="H76" s="7"/>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77" s="7"/>
+      <c r="B77" s="7"/>
+      <c r="C77" s="7"/>
+      <c r="D77" s="7"/>
+      <c r="E77" s="7"/>
+      <c r="F77" s="7"/>
+      <c r="G77" s="7"/>
+      <c r="H77" s="7"/>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="A78" s="7"/>
+      <c r="B78" s="7"/>
+      <c r="C78" s="7"/>
+      <c r="D78" s="7"/>
+      <c r="E78" s="7"/>
+      <c r="F78" s="7"/>
+      <c r="G78" s="7"/>
+      <c r="H78" s="7"/>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="A79" s="7"/>
+      <c r="B79" s="7"/>
+      <c r="C79" s="7"/>
+      <c r="D79" s="7"/>
+      <c r="E79" s="7"/>
+      <c r="F79" s="7"/>
+      <c r="G79" s="7"/>
+      <c r="H79" s="7"/>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80" s="7"/>
+      <c r="B80" s="7"/>
+      <c r="C80" s="7"/>
+      <c r="D80" s="7"/>
+      <c r="E80" s="7"/>
+      <c r="F80" s="7"/>
+      <c r="G80" s="7"/>
+      <c r="H80" s="7"/>
+    </row>
+    <row r="81" spans="1:8">
+      <c r="A81" s="7"/>
+      <c r="B81" s="7"/>
+      <c r="C81" s="7"/>
+      <c r="D81" s="7"/>
+      <c r="E81" s="7"/>
+      <c r="F81" s="7"/>
+      <c r="G81" s="7"/>
+      <c r="H81" s="7"/>
+    </row>
+    <row r="82" spans="1:8">
+      <c r="A82" s="7"/>
+      <c r="B82" s="7"/>
+      <c r="C82" s="7"/>
+      <c r="D82" s="7"/>
+      <c r="E82" s="7"/>
+      <c r="F82" s="7"/>
+      <c r="G82" s="7"/>
+      <c r="H82" s="7"/>
+    </row>
+    <row r="83" spans="1:8">
+      <c r="A83" s="7"/>
+      <c r="B83" s="7"/>
+      <c r="C83" s="7"/>
+      <c r="D83" s="7"/>
+      <c r="E83" s="7"/>
+      <c r="F83" s="7"/>
+      <c r="G83" s="7"/>
+      <c r="H83" s="7"/>
+    </row>
+    <row r="84" spans="1:8">
+      <c r="A84" s="7"/>
+      <c r="B84" s="7"/>
+      <c r="C84" s="7"/>
+      <c r="D84" s="7"/>
+      <c r="E84" s="7"/>
+      <c r="F84" s="7"/>
+      <c r="G84" s="7"/>
+      <c r="H84" s="7"/>
+    </row>
+    <row r="85" spans="1:8">
+      <c r="A85" s="7"/>
+      <c r="B85" s="7"/>
+      <c r="C85" s="7"/>
+      <c r="D85" s="7"/>
+      <c r="E85" s="7"/>
+      <c r="F85" s="7"/>
+      <c r="G85" s="7"/>
+      <c r="H85" s="7"/>
+    </row>
+    <row r="86" spans="1:8">
+      <c r="A86" s="7"/>
+      <c r="B86" s="7"/>
+      <c r="C86" s="7"/>
+      <c r="D86" s="7"/>
+      <c r="E86" s="7"/>
+      <c r="F86" s="7"/>
+      <c r="G86" s="7"/>
+      <c r="H86" s="7"/>
+    </row>
+    <row r="87" spans="1:8">
+      <c r="A87" s="7"/>
+      <c r="B87" s="7"/>
+      <c r="C87" s="7"/>
+      <c r="D87" s="7"/>
+      <c r="E87" s="7"/>
+      <c r="F87" s="7"/>
+      <c r="G87" s="7"/>
+      <c r="H87" s="7"/>
+    </row>
+    <row r="88" spans="1:8">
+      <c r="A88" s="7"/>
+      <c r="B88" s="7"/>
+      <c r="C88" s="7"/>
+      <c r="D88" s="7"/>
+      <c r="E88" s="7"/>
+      <c r="F88" s="7"/>
+      <c r="G88" s="7"/>
+      <c r="H88" s="7"/>
+    </row>
+    <row r="89" spans="1:8">
+      <c r="A89" s="7"/>
+      <c r="B89" s="7"/>
+      <c r="C89" s="7"/>
+      <c r="D89" s="7"/>
+      <c r="E89" s="7"/>
+      <c r="F89" s="7"/>
+      <c r="G89" s="7"/>
+      <c r="H89" s="7"/>
+    </row>
+    <row r="90" spans="1:8">
+      <c r="A90" s="7"/>
+      <c r="B90" s="7"/>
+      <c r="C90" s="7"/>
+      <c r="D90" s="7"/>
+      <c r="E90" s="7"/>
+      <c r="F90" s="7"/>
+      <c r="G90" s="7"/>
+      <c r="H90" s="7"/>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="A91" s="7"/>
+      <c r="B91" s="7"/>
+      <c r="C91" s="7"/>
+      <c r="D91" s="7"/>
+      <c r="E91" s="7"/>
+      <c r="F91" s="7"/>
+      <c r="G91" s="7"/>
+      <c r="H91" s="7"/>
+    </row>
+    <row r="92" spans="1:8">
+      <c r="A92" s="7"/>
+      <c r="B92" s="7"/>
+      <c r="C92" s="7"/>
+      <c r="D92" s="7"/>
+      <c r="E92" s="7"/>
+      <c r="F92" s="7"/>
+      <c r="G92" s="7"/>
+      <c r="H92" s="7"/>
+    </row>
+    <row r="93" spans="1:8">
+      <c r="A93" s="7"/>
+      <c r="B93" s="7"/>
+      <c r="C93" s="7"/>
+      <c r="D93" s="7"/>
+      <c r="E93" s="7"/>
+      <c r="F93" s="7"/>
+      <c r="G93" s="7"/>
+      <c r="H93" s="7"/>
+    </row>
+    <row r="94" spans="1:8">
+      <c r="A94" s="7"/>
+      <c r="B94" s="7"/>
+      <c r="C94" s="7"/>
+      <c r="D94" s="7"/>
+      <c r="E94" s="7"/>
+      <c r="F94" s="7"/>
+      <c r="G94" s="7"/>
+      <c r="H94" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="A39:H39"/>
+    <mergeCell ref="A40:H40"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="A11:H11"/>
+    <mergeCell ref="A12:H12"/>
+    <mergeCell ref="A13:H13"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="A6:H6"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{D9B3AAB2-BBCB-488D-8623-DAA8ED0E97E1}"/>
+    <hyperlink ref="A12" r:id="rId2" xr:uid="{ECF3EE78-26AE-4790-AB30-A9CCD6395C8A}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E82CB342-CDAF-4540-938F-0D56493F6113}">
+  <dimension ref="A1:H94"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:H12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="13.25" defaultRowHeight="17"/>
+  <cols>
+    <col min="1" max="1" width="19.33203125" style="1" customWidth="1"/>
+    <col min="2" max="7" width="13.25" style="1"/>
+    <col min="8" max="8" width="54.08203125" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="13.25" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="47" t="s">
+        <v>113</v>
+      </c>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="48" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="47" t="s">
+        <v>110</v>
+      </c>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="49"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A9" s="31"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A10" s="30"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A11" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="38"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="38"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="40" t="s">
+        <v>111</v>
+      </c>
+      <c r="B12" s="38"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="38"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="41"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="38"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="38"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="38"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="38"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="38"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="H16" s="32" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="31"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="G17" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="H17" s="31" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="31"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="G18" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="H18" s="31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="31"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="G19" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="H19" s="31"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="B20" s="31"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="G20" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="H20" s="31" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="B21" s="31"/>
+      <c r="C21" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="31"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="G21" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="H21" s="31" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" s="10"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D23" s="10"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" s="10"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D25" s="10"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" s="8"/>
+      <c r="C26" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D26" s="10"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D27" s="10"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H27" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D28" s="10"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H28" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D29" s="10"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H29" s="8"/>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D30" s="10"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H30" s="8"/>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31" s="31"/>
+      <c r="C31" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="D31" s="31"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="G31" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="H31" s="31" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="B32" s="31"/>
+      <c r="C32" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="D32" s="31"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="G32" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="H32" s="31" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="B33" s="31"/>
+      <c r="C33" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="D33" s="31"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="G33" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="H33" s="31" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="16" customHeight="1">
+      <c r="A34" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="B34" s="30"/>
+      <c r="C34" s="30"/>
+      <c r="D34" s="30"/>
+      <c r="E34" s="30"/>
+      <c r="F34" s="30"/>
+      <c r="G34" s="30"/>
+      <c r="H34" s="30"/>
+    </row>
+    <row r="35" spans="1:8" ht="18" customHeight="1">
+      <c r="A35" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="B35" s="30"/>
+      <c r="C35" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="D35" s="30"/>
+      <c r="E35" s="30"/>
+      <c r="F35" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="G35" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="H35" s="34"/>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="B36" s="30"/>
+      <c r="C36" s="35" t="s">
+        <v>103</v>
+      </c>
+      <c r="D36" s="30"/>
+      <c r="E36" s="30"/>
+      <c r="F36" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="G36" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="H36" s="34"/>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="31" t="s">
+        <v>104</v>
+      </c>
+      <c r="B37" s="30"/>
+      <c r="C37" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="D37" s="30"/>
+      <c r="E37" s="30"/>
+      <c r="F37" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="G37" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="H37" s="34"/>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="31" t="s">
+        <v>106</v>
+      </c>
+      <c r="B38" s="30"/>
+      <c r="C38" s="35" t="s">
+        <v>107</v>
+      </c>
+      <c r="D38" s="30"/>
+      <c r="E38" s="30"/>
+      <c r="F38" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="G38" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="H38" s="34" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="B39" s="44"/>
+      <c r="C39" s="44"/>
+      <c r="D39" s="44"/>
+      <c r="E39" s="44"/>
+      <c r="F39" s="44"/>
+      <c r="G39" s="44"/>
+      <c r="H39" s="45"/>
+    </row>
+    <row r="40" spans="1:8" ht="371" customHeight="1">
+      <c r="A40" s="59" t="s">
+        <v>98</v>
+      </c>
+      <c r="B40" s="60"/>
+      <c r="C40" s="60"/>
+      <c r="D40" s="60"/>
+      <c r="E40" s="60"/>
+      <c r="F40" s="60"/>
+      <c r="G40" s="60"/>
+      <c r="H40" s="61"/>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="11"/>
+      <c r="B43" s="11"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="11"/>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="11"/>
+      <c r="B44" s="11"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="11"/>
+      <c r="H44" s="11"/>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="11"/>
+      <c r="B45" s="11"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="11"/>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="11"/>
+      <c r="B46" s="11"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="11"/>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="11"/>
+      <c r="B47" s="11"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="11"/>
+      <c r="H47" s="11"/>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="12"/>
+      <c r="B48" s="12"/>
+      <c r="C48" s="12"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="12"/>
+      <c r="G48" s="12"/>
+      <c r="H48" s="12"/>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="33"/>
+      <c r="B49" s="33"/>
+      <c r="C49" s="33"/>
+      <c r="D49" s="33"/>
+      <c r="E49" s="33"/>
+      <c r="F49" s="33"/>
+      <c r="G49" s="33"/>
+      <c r="H49" s="33"/>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="33"/>
+      <c r="B50" s="33"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="33"/>
+      <c r="E50" s="33"/>
+      <c r="F50" s="33"/>
+      <c r="G50" s="33"/>
+      <c r="H50" s="33"/>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="33"/>
+      <c r="B51" s="33"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="33"/>
+      <c r="E51" s="33"/>
+      <c r="F51" s="33"/>
+      <c r="G51" s="33"/>
+      <c r="H51" s="33"/>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="33"/>
+      <c r="B52" s="33"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="33"/>
+      <c r="E52" s="33"/>
+      <c r="F52" s="33"/>
+      <c r="G52" s="33"/>
+      <c r="H52" s="33"/>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="33"/>
+      <c r="B53" s="33"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="33"/>
+      <c r="E53" s="33"/>
+      <c r="F53" s="33"/>
+      <c r="G53" s="33"/>
+      <c r="H53" s="33"/>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="33"/>
+      <c r="B54" s="33"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="33"/>
+      <c r="E54" s="33"/>
+      <c r="F54" s="33"/>
+      <c r="G54" s="33"/>
+      <c r="H54" s="33"/>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="33"/>
+      <c r="B55" s="33"/>
+      <c r="C55" s="14"/>
+      <c r="D55" s="33"/>
+      <c r="E55" s="33"/>
+      <c r="F55" s="33"/>
+      <c r="G55" s="33"/>
+      <c r="H55" s="33"/>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="33"/>
+      <c r="B56" s="33"/>
+      <c r="C56" s="14"/>
+      <c r="D56" s="33"/>
+      <c r="E56" s="33"/>
+      <c r="F56" s="33"/>
+      <c r="G56" s="33"/>
+      <c r="H56" s="33"/>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="15"/>
+      <c r="B57" s="15"/>
+      <c r="C57" s="16"/>
+      <c r="D57" s="15"/>
+      <c r="E57" s="15"/>
+      <c r="F57" s="15"/>
+      <c r="G57" s="15"/>
+      <c r="H57" s="15"/>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" s="15"/>
+      <c r="B58" s="15"/>
+      <c r="C58" s="16"/>
+      <c r="D58" s="15"/>
+      <c r="E58" s="15"/>
+      <c r="F58" s="15"/>
+      <c r="G58" s="15"/>
+      <c r="H58" s="15"/>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" s="15"/>
+      <c r="B59" s="15"/>
+      <c r="C59" s="16"/>
+      <c r="D59" s="15"/>
+      <c r="E59" s="15"/>
+      <c r="F59" s="15"/>
+      <c r="G59" s="15"/>
+      <c r="H59" s="15"/>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" s="33"/>
+      <c r="B60" s="33"/>
+      <c r="C60" s="14"/>
+      <c r="D60" s="33"/>
+      <c r="E60" s="33"/>
+      <c r="F60" s="33"/>
+      <c r="G60" s="33"/>
+      <c r="H60" s="33"/>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" s="33"/>
+      <c r="B61" s="33"/>
+      <c r="C61" s="14"/>
+      <c r="D61" s="33"/>
+      <c r="E61" s="33"/>
+      <c r="F61" s="33"/>
+      <c r="G61" s="33"/>
+      <c r="H61" s="33"/>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" s="33"/>
+      <c r="B62" s="33"/>
+      <c r="C62" s="14"/>
+      <c r="D62" s="33"/>
+      <c r="E62" s="33"/>
+      <c r="F62" s="33"/>
+      <c r="G62" s="33"/>
+      <c r="H62" s="33"/>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" s="33"/>
+      <c r="B63" s="33"/>
+      <c r="C63" s="14"/>
+      <c r="D63" s="33"/>
+      <c r="E63" s="33"/>
+      <c r="F63" s="33"/>
+      <c r="G63" s="33"/>
+      <c r="H63" s="33"/>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" s="33"/>
+      <c r="B64" s="33"/>
+      <c r="C64" s="14"/>
+      <c r="D64" s="33"/>
+      <c r="E64" s="33"/>
+      <c r="F64" s="33"/>
+      <c r="G64" s="33"/>
+      <c r="H64" s="33"/>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" s="7"/>
+      <c r="B67" s="7"/>
+      <c r="C67" s="7"/>
+      <c r="D67" s="7"/>
+      <c r="E67" s="7"/>
+      <c r="F67" s="7"/>
+      <c r="G67" s="7"/>
+      <c r="H67" s="7"/>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68" s="7"/>
+      <c r="B68" s="7"/>
+      <c r="C68" s="7"/>
+      <c r="D68" s="7"/>
+      <c r="E68" s="7"/>
+      <c r="F68" s="7"/>
+      <c r="G68" s="7"/>
+      <c r="H68" s="7"/>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69" s="7"/>
+      <c r="B69" s="7"/>
+      <c r="C69" s="7"/>
+      <c r="D69" s="7"/>
+      <c r="E69" s="7"/>
+      <c r="F69" s="7"/>
+      <c r="G69" s="7"/>
+      <c r="H69" s="7"/>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70" s="7"/>
+      <c r="B70" s="7"/>
+      <c r="C70" s="7"/>
+      <c r="D70" s="7"/>
+      <c r="E70" s="7"/>
+      <c r="F70" s="7"/>
+      <c r="G70" s="7"/>
+      <c r="H70" s="7"/>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71" s="7"/>
+      <c r="B71" s="7"/>
+      <c r="C71" s="7"/>
+      <c r="D71" s="7"/>
+      <c r="E71" s="7"/>
+      <c r="F71" s="7"/>
+      <c r="G71" s="7"/>
+      <c r="H71" s="7"/>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72" s="7"/>
+      <c r="B72" s="7"/>
+      <c r="C72" s="7"/>
+      <c r="D72" s="7"/>
+      <c r="E72" s="7"/>
+      <c r="F72" s="7"/>
+      <c r="G72" s="7"/>
+      <c r="H72" s="7"/>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73" s="7"/>
+      <c r="B73" s="7"/>
+      <c r="C73" s="7"/>
+      <c r="D73" s="7"/>
+      <c r="E73" s="7"/>
+      <c r="F73" s="7"/>
+      <c r="G73" s="7"/>
+      <c r="H73" s="7"/>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74" s="7"/>
+      <c r="B74" s="7"/>
+      <c r="C74" s="7"/>
+      <c r="D74" s="7"/>
+      <c r="E74" s="7"/>
+      <c r="F74" s="7"/>
+      <c r="G74" s="7"/>
+      <c r="H74" s="7"/>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="A75" s="7"/>
+      <c r="B75" s="7"/>
+      <c r="C75" s="7"/>
+      <c r="D75" s="7"/>
+      <c r="E75" s="7"/>
+      <c r="F75" s="7"/>
+      <c r="G75" s="7"/>
+      <c r="H75" s="7"/>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="A76" s="7"/>
+      <c r="B76" s="7"/>
+      <c r="C76" s="7"/>
+      <c r="D76" s="7"/>
+      <c r="E76" s="7"/>
+      <c r="F76" s="7"/>
+      <c r="G76" s="7"/>
+      <c r="H76" s="7"/>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77" s="7"/>
+      <c r="B77" s="7"/>
+      <c r="C77" s="7"/>
+      <c r="D77" s="7"/>
+      <c r="E77" s="7"/>
+      <c r="F77" s="7"/>
+      <c r="G77" s="7"/>
+      <c r="H77" s="7"/>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="A78" s="7"/>
+      <c r="B78" s="7"/>
+      <c r="C78" s="7"/>
+      <c r="D78" s="7"/>
+      <c r="E78" s="7"/>
+      <c r="F78" s="7"/>
+      <c r="G78" s="7"/>
+      <c r="H78" s="7"/>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="A79" s="7"/>
+      <c r="B79" s="7"/>
+      <c r="C79" s="7"/>
+      <c r="D79" s="7"/>
+      <c r="E79" s="7"/>
+      <c r="F79" s="7"/>
+      <c r="G79" s="7"/>
+      <c r="H79" s="7"/>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80" s="7"/>
+      <c r="B80" s="7"/>
+      <c r="C80" s="7"/>
+      <c r="D80" s="7"/>
+      <c r="E80" s="7"/>
+      <c r="F80" s="7"/>
+      <c r="G80" s="7"/>
+      <c r="H80" s="7"/>
+    </row>
+    <row r="81" spans="1:8">
+      <c r="A81" s="7"/>
+      <c r="B81" s="7"/>
+      <c r="C81" s="7"/>
+      <c r="D81" s="7"/>
+      <c r="E81" s="7"/>
+      <c r="F81" s="7"/>
+      <c r="G81" s="7"/>
+      <c r="H81" s="7"/>
+    </row>
+    <row r="82" spans="1:8">
+      <c r="A82" s="7"/>
+      <c r="B82" s="7"/>
+      <c r="C82" s="7"/>
+      <c r="D82" s="7"/>
+      <c r="E82" s="7"/>
+      <c r="F82" s="7"/>
+      <c r="G82" s="7"/>
+      <c r="H82" s="7"/>
+    </row>
+    <row r="83" spans="1:8">
+      <c r="A83" s="7"/>
+      <c r="B83" s="7"/>
+      <c r="C83" s="7"/>
+      <c r="D83" s="7"/>
+      <c r="E83" s="7"/>
+      <c r="F83" s="7"/>
+      <c r="G83" s="7"/>
+      <c r="H83" s="7"/>
+    </row>
+    <row r="84" spans="1:8">
+      <c r="A84" s="7"/>
+      <c r="B84" s="7"/>
+      <c r="C84" s="7"/>
+      <c r="D84" s="7"/>
+      <c r="E84" s="7"/>
+      <c r="F84" s="7"/>
+      <c r="G84" s="7"/>
+      <c r="H84" s="7"/>
+    </row>
+    <row r="85" spans="1:8">
+      <c r="A85" s="7"/>
+      <c r="B85" s="7"/>
+      <c r="C85" s="7"/>
+      <c r="D85" s="7"/>
+      <c r="E85" s="7"/>
+      <c r="F85" s="7"/>
+      <c r="G85" s="7"/>
+      <c r="H85" s="7"/>
+    </row>
+    <row r="86" spans="1:8">
+      <c r="A86" s="7"/>
+      <c r="B86" s="7"/>
+      <c r="C86" s="7"/>
+      <c r="D86" s="7"/>
+      <c r="E86" s="7"/>
+      <c r="F86" s="7"/>
+      <c r="G86" s="7"/>
+      <c r="H86" s="7"/>
+    </row>
+    <row r="87" spans="1:8">
+      <c r="A87" s="7"/>
+      <c r="B87" s="7"/>
+      <c r="C87" s="7"/>
+      <c r="D87" s="7"/>
+      <c r="E87" s="7"/>
+      <c r="F87" s="7"/>
+      <c r="G87" s="7"/>
+      <c r="H87" s="7"/>
+    </row>
+    <row r="88" spans="1:8">
+      <c r="A88" s="7"/>
+      <c r="B88" s="7"/>
+      <c r="C88" s="7"/>
+      <c r="D88" s="7"/>
+      <c r="E88" s="7"/>
+      <c r="F88" s="7"/>
+      <c r="G88" s="7"/>
+      <c r="H88" s="7"/>
+    </row>
+    <row r="89" spans="1:8">
+      <c r="A89" s="7"/>
+      <c r="B89" s="7"/>
+      <c r="C89" s="7"/>
+      <c r="D89" s="7"/>
+      <c r="E89" s="7"/>
+      <c r="F89" s="7"/>
+      <c r="G89" s="7"/>
+      <c r="H89" s="7"/>
+    </row>
+    <row r="90" spans="1:8">
+      <c r="A90" s="7"/>
+      <c r="B90" s="7"/>
+      <c r="C90" s="7"/>
+      <c r="D90" s="7"/>
+      <c r="E90" s="7"/>
+      <c r="F90" s="7"/>
+      <c r="G90" s="7"/>
+      <c r="H90" s="7"/>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="A91" s="7"/>
+      <c r="B91" s="7"/>
+      <c r="C91" s="7"/>
+      <c r="D91" s="7"/>
+      <c r="E91" s="7"/>
+      <c r="F91" s="7"/>
+      <c r="G91" s="7"/>
+      <c r="H91" s="7"/>
+    </row>
+    <row r="92" spans="1:8">
+      <c r="A92" s="7"/>
+      <c r="B92" s="7"/>
+      <c r="C92" s="7"/>
+      <c r="D92" s="7"/>
+      <c r="E92" s="7"/>
+      <c r="F92" s="7"/>
+      <c r="G92" s="7"/>
+      <c r="H92" s="7"/>
+    </row>
+    <row r="93" spans="1:8">
+      <c r="A93" s="7"/>
+      <c r="B93" s="7"/>
+      <c r="C93" s="7"/>
+      <c r="D93" s="7"/>
+      <c r="E93" s="7"/>
+      <c r="F93" s="7"/>
+      <c r="G93" s="7"/>
+      <c r="H93" s="7"/>
+    </row>
+    <row r="94" spans="1:8">
+      <c r="A94" s="7"/>
+      <c r="B94" s="7"/>
+      <c r="C94" s="7"/>
+      <c r="D94" s="7"/>
+      <c r="E94" s="7"/>
+      <c r="F94" s="7"/>
+      <c r="G94" s="7"/>
+      <c r="H94" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="A39:H39"/>
+    <mergeCell ref="A40:H40"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="A11:H11"/>
+    <mergeCell ref="A12:H12"/>
+    <mergeCell ref="A13:H13"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="A6:H6"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{C0FBED54-D037-4B77-BFEE-1C7880C42C20}"/>
+    <hyperlink ref="A12" r:id="rId2" xr:uid="{334B3F0E-08B4-473B-ADF2-B5F0A6E6CAAB}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA89CF2D-BC52-4BF4-868E-5B8B099A5517}">
   <dimension ref="A1:H94"/>
   <sheetViews>
@@ -3517,7 +7452,7 @@
       <selection activeCell="A34" sqref="A34:XFD34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.25" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="13.25" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="19.33203125" style="1" customWidth="1"/>
     <col min="2" max="7" width="13.25" style="1"/>
@@ -3525,101 +7460,101 @@
     <col min="9" max="16384" width="13.25" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="47" t="s">
         <v>86</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="50" t="s">
         <v>93</v>
       </c>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="46"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="52"/>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="34"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A6" s="30" t="s">
+      <c r="B5" s="49"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="31"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="31"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
@@ -3645,7 +7580,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" ht="15.75" customHeight="1">
       <c r="A9" s="4" t="s">
         <v>18</v>
       </c>
@@ -3665,7 +7600,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" ht="15.75" customHeight="1">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -3675,67 +7610,67 @@
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
     </row>
-    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="37" t="s">
+    <row r="11" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A11" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="31"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A12" s="38" t="s">
+      <c r="B11" s="38"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="38"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="B12" s="31"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A13" s="39"/>
-      <c r="B13" s="31"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="31"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A14" s="40" t="s">
+      <c r="B12" s="38"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="38"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="41"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="38"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="31"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B14" s="38"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="38"/>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="36" t="s">
+      <c r="B15" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="31"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C15" s="38"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="38"/>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="6" t="s">
         <v>10</v>
       </c>
@@ -3761,7 +7696,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:8">
       <c r="A17" s="4" t="s">
         <v>26</v>
       </c>
@@ -3779,7 +7714,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:8">
       <c r="A18" s="4" t="s">
         <v>29</v>
       </c>
@@ -3797,7 +7732,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:8">
       <c r="A19" s="4" t="s">
         <v>31</v>
       </c>
@@ -3813,7 +7748,7 @@
       </c>
       <c r="H19" s="4"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:8">
       <c r="A20" s="4" t="s">
         <v>33</v>
       </c>
@@ -3831,7 +7766,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:8">
       <c r="A21" s="4" t="s">
         <v>92</v>
       </c>
@@ -3851,7 +7786,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:8">
       <c r="A22" s="8" t="s">
         <v>42</v>
       </c>
@@ -3871,7 +7806,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:8">
       <c r="A23" s="8" t="s">
         <v>44</v>
       </c>
@@ -3891,7 +7826,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:8">
       <c r="A24" s="9" t="s">
         <v>46</v>
       </c>
@@ -3911,7 +7846,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:8">
       <c r="A25" s="8" t="s">
         <v>49</v>
       </c>
@@ -3931,7 +7866,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:8">
       <c r="A26" s="9" t="s">
         <v>51</v>
       </c>
@@ -3951,7 +7886,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:8">
       <c r="A27" s="8" t="s">
         <v>53</v>
       </c>
@@ -3971,7 +7906,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:8">
       <c r="A28" s="8" t="s">
         <v>57</v>
       </c>
@@ -3991,7 +7926,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:8">
       <c r="A29" s="8" t="s">
         <v>59</v>
       </c>
@@ -4009,7 +7944,7 @@
       </c>
       <c r="H29" s="8"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:8">
       <c r="A30" s="8" t="s">
         <v>61</v>
       </c>
@@ -4027,7 +7962,7 @@
       </c>
       <c r="H30" s="8"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:8">
       <c r="A31" s="4" t="s">
         <v>38</v>
       </c>
@@ -4047,7 +7982,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:8">
       <c r="A32" s="27" t="s">
         <v>76</v>
       </c>
@@ -4067,7 +8002,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:8">
       <c r="A33" s="22" t="s">
         <v>73</v>
       </c>
@@ -4087,31 +8022,31 @@
         <v>75</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="41" t="s">
+    <row r="34" spans="1:8" ht="14.5" customHeight="1">
+      <c r="A34" s="43" t="s">
         <v>63</v>
       </c>
-      <c r="B34" s="42"/>
-      <c r="C34" s="42"/>
-      <c r="D34" s="42"/>
-      <c r="E34" s="42"/>
-      <c r="F34" s="42"/>
-      <c r="G34" s="42"/>
-      <c r="H34" s="43"/>
-    </row>
-    <row r="35" spans="1:8" ht="269.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="35" t="s">
+      <c r="B34" s="44"/>
+      <c r="C34" s="44"/>
+      <c r="D34" s="44"/>
+      <c r="E34" s="44"/>
+      <c r="F34" s="44"/>
+      <c r="G34" s="44"/>
+      <c r="H34" s="45"/>
+    </row>
+    <row r="35" spans="1:8" ht="269.5" customHeight="1">
+      <c r="A35" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="B35" s="35"/>
-      <c r="C35" s="35"/>
-      <c r="D35" s="35"/>
-      <c r="E35" s="35"/>
-      <c r="F35" s="35"/>
-      <c r="G35" s="35"/>
-      <c r="H35" s="35"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B35" s="36"/>
+      <c r="C35" s="36"/>
+      <c r="D35" s="36"/>
+      <c r="E35" s="36"/>
+      <c r="F35" s="36"/>
+      <c r="G35" s="36"/>
+      <c r="H35" s="36"/>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="13"/>
       <c r="B38" s="13"/>
       <c r="C38" s="13"/>
@@ -4121,7 +8056,7 @@
       <c r="G38" s="13"/>
       <c r="H38" s="13"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:8">
       <c r="A39" s="17"/>
       <c r="B39" s="17"/>
       <c r="C39" s="17"/>
@@ -4131,7 +8066,7 @@
       <c r="G39" s="17"/>
       <c r="H39" s="17"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:8">
       <c r="A40" s="17"/>
       <c r="B40" s="17"/>
       <c r="C40" s="17"/>
@@ -4141,7 +8076,7 @@
       <c r="G40" s="17"/>
       <c r="H40" s="17"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:8">
       <c r="A41" s="11"/>
       <c r="B41" s="11"/>
       <c r="C41" s="11"/>
@@ -4151,7 +8086,7 @@
       <c r="G41" s="11"/>
       <c r="H41" s="11"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:8">
       <c r="A42" s="11"/>
       <c r="B42" s="11"/>
       <c r="C42" s="11"/>
@@ -4161,7 +8096,7 @@
       <c r="G42" s="11"/>
       <c r="H42" s="11"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:8">
       <c r="A43" s="11"/>
       <c r="B43" s="11"/>
       <c r="C43" s="11"/>
@@ -4171,7 +8106,7 @@
       <c r="G43" s="11"/>
       <c r="H43" s="11"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:8">
       <c r="A44" s="11"/>
       <c r="B44" s="11"/>
       <c r="C44" s="11"/>
@@ -4181,7 +8116,7 @@
       <c r="G44" s="11"/>
       <c r="H44" s="11"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:8">
       <c r="A45" s="11"/>
       <c r="B45" s="11"/>
       <c r="C45" s="11"/>
@@ -4191,7 +8126,7 @@
       <c r="G45" s="11"/>
       <c r="H45" s="11"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:8">
       <c r="A46" s="11"/>
       <c r="B46" s="11"/>
       <c r="C46" s="11"/>
@@ -4201,7 +8136,7 @@
       <c r="G46" s="11"/>
       <c r="H46" s="11"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:8">
       <c r="A47" s="11"/>
       <c r="B47" s="11"/>
       <c r="C47" s="11"/>
@@ -4211,7 +8146,7 @@
       <c r="G47" s="11"/>
       <c r="H47" s="11"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:8">
       <c r="A48" s="12"/>
       <c r="B48" s="12"/>
       <c r="C48" s="12"/>
@@ -4221,7 +8156,7 @@
       <c r="G48" s="12"/>
       <c r="H48" s="12"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:8">
       <c r="A49" s="13"/>
       <c r="B49" s="13"/>
       <c r="C49" s="13"/>
@@ -4231,7 +8166,7 @@
       <c r="G49" s="13"/>
       <c r="H49" s="13"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:8">
       <c r="A50" s="13"/>
       <c r="B50" s="13"/>
       <c r="C50" s="14"/>
@@ -4241,7 +8176,7 @@
       <c r="G50" s="13"/>
       <c r="H50" s="13"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:8">
       <c r="A51" s="13"/>
       <c r="B51" s="13"/>
       <c r="C51" s="14"/>
@@ -4251,7 +8186,7 @@
       <c r="G51" s="13"/>
       <c r="H51" s="13"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:8">
       <c r="A52" s="13"/>
       <c r="B52" s="13"/>
       <c r="C52" s="14"/>
@@ -4261,7 +8196,7 @@
       <c r="G52" s="13"/>
       <c r="H52" s="13"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:8">
       <c r="A53" s="13"/>
       <c r="B53" s="13"/>
       <c r="C53" s="14"/>
@@ -4271,7 +8206,7 @@
       <c r="G53" s="13"/>
       <c r="H53" s="13"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:8">
       <c r="A54" s="13"/>
       <c r="B54" s="13"/>
       <c r="C54" s="14"/>
@@ -4281,7 +8216,7 @@
       <c r="G54" s="13"/>
       <c r="H54" s="13"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:8">
       <c r="A55" s="13"/>
       <c r="B55" s="13"/>
       <c r="C55" s="14"/>
@@ -4291,7 +8226,7 @@
       <c r="G55" s="13"/>
       <c r="H55" s="13"/>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:8">
       <c r="A56" s="13"/>
       <c r="B56" s="13"/>
       <c r="C56" s="14"/>
@@ -4301,7 +8236,7 @@
       <c r="G56" s="13"/>
       <c r="H56" s="13"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:8">
       <c r="A57" s="15"/>
       <c r="B57" s="15"/>
       <c r="C57" s="16"/>
@@ -4311,7 +8246,7 @@
       <c r="G57" s="15"/>
       <c r="H57" s="15"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:8">
       <c r="A58" s="15"/>
       <c r="B58" s="15"/>
       <c r="C58" s="16"/>
@@ -4321,7 +8256,7 @@
       <c r="G58" s="15"/>
       <c r="H58" s="15"/>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:8">
       <c r="A59" s="15"/>
       <c r="B59" s="15"/>
       <c r="C59" s="16"/>
@@ -4331,7 +8266,7 @@
       <c r="G59" s="15"/>
       <c r="H59" s="15"/>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:8">
       <c r="A60" s="13"/>
       <c r="B60" s="13"/>
       <c r="C60" s="14"/>
@@ -4341,7 +8276,7 @@
       <c r="G60" s="13"/>
       <c r="H60" s="13"/>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:8">
       <c r="A61" s="13"/>
       <c r="B61" s="13"/>
       <c r="C61" s="14"/>
@@ -4351,7 +8286,7 @@
       <c r="G61" s="13"/>
       <c r="H61" s="13"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:8">
       <c r="A62" s="13"/>
       <c r="B62" s="13"/>
       <c r="C62" s="14"/>
@@ -4361,7 +8296,7 @@
       <c r="G62" s="13"/>
       <c r="H62" s="13"/>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:8">
       <c r="A63" s="13"/>
       <c r="B63" s="13"/>
       <c r="C63" s="14"/>
@@ -4371,7 +8306,7 @@
       <c r="G63" s="13"/>
       <c r="H63" s="13"/>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:8">
       <c r="A64" s="13"/>
       <c r="B64" s="13"/>
       <c r="C64" s="14"/>
@@ -4381,7 +8316,7 @@
       <c r="G64" s="13"/>
       <c r="H64" s="13"/>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:8">
       <c r="A67" s="7"/>
       <c r="B67" s="7"/>
       <c r="C67" s="7"/>
@@ -4391,7 +8326,7 @@
       <c r="G67" s="7"/>
       <c r="H67" s="7"/>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:8">
       <c r="A68" s="7"/>
       <c r="B68" s="7"/>
       <c r="C68" s="7"/>
@@ -4401,7 +8336,7 @@
       <c r="G68" s="7"/>
       <c r="H68" s="7"/>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:8">
       <c r="A69" s="7"/>
       <c r="B69" s="7"/>
       <c r="C69" s="7"/>
@@ -4411,7 +8346,7 @@
       <c r="G69" s="7"/>
       <c r="H69" s="7"/>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:8">
       <c r="A70" s="7"/>
       <c r="B70" s="7"/>
       <c r="C70" s="7"/>
@@ -4421,7 +8356,7 @@
       <c r="G70" s="7"/>
       <c r="H70" s="7"/>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:8">
       <c r="A71" s="7"/>
       <c r="B71" s="7"/>
       <c r="C71" s="7"/>
@@ -4431,7 +8366,7 @@
       <c r="G71" s="7"/>
       <c r="H71" s="7"/>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:8">
       <c r="A72" s="7"/>
       <c r="B72" s="7"/>
       <c r="C72" s="7"/>
@@ -4441,7 +8376,7 @@
       <c r="G72" s="7"/>
       <c r="H72" s="7"/>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:8">
       <c r="A73" s="7"/>
       <c r="B73" s="7"/>
       <c r="C73" s="7"/>
@@ -4451,7 +8386,7 @@
       <c r="G73" s="7"/>
       <c r="H73" s="7"/>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:8">
       <c r="A74" s="7"/>
       <c r="B74" s="7"/>
       <c r="C74" s="7"/>
@@ -4461,7 +8396,7 @@
       <c r="G74" s="7"/>
       <c r="H74" s="7"/>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:8">
       <c r="A75" s="7"/>
       <c r="B75" s="7"/>
       <c r="C75" s="7"/>
@@ -4471,7 +8406,7 @@
       <c r="G75" s="7"/>
       <c r="H75" s="7"/>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:8">
       <c r="A76" s="7"/>
       <c r="B76" s="7"/>
       <c r="C76" s="7"/>
@@ -4481,7 +8416,7 @@
       <c r="G76" s="7"/>
       <c r="H76" s="7"/>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:8">
       <c r="A77" s="7"/>
       <c r="B77" s="7"/>
       <c r="C77" s="7"/>
@@ -4491,7 +8426,7 @@
       <c r="G77" s="7"/>
       <c r="H77" s="7"/>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:8">
       <c r="A78" s="7"/>
       <c r="B78" s="7"/>
       <c r="C78" s="7"/>
@@ -4501,7 +8436,7 @@
       <c r="G78" s="7"/>
       <c r="H78" s="7"/>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:8">
       <c r="A79" s="7"/>
       <c r="B79" s="7"/>
       <c r="C79" s="7"/>
@@ -4511,7 +8446,7 @@
       <c r="G79" s="7"/>
       <c r="H79" s="7"/>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:8">
       <c r="A80" s="7"/>
       <c r="B80" s="7"/>
       <c r="C80" s="7"/>
@@ -4521,7 +8456,7 @@
       <c r="G80" s="7"/>
       <c r="H80" s="7"/>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:8">
       <c r="A81" s="7"/>
       <c r="B81" s="7"/>
       <c r="C81" s="7"/>
@@ -4531,7 +8466,7 @@
       <c r="G81" s="7"/>
       <c r="H81" s="7"/>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:8">
       <c r="A82" s="7"/>
       <c r="B82" s="7"/>
       <c r="C82" s="7"/>
@@ -4541,7 +8476,7 @@
       <c r="G82" s="7"/>
       <c r="H82" s="7"/>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:8">
       <c r="A83" s="7"/>
       <c r="B83" s="7"/>
       <c r="C83" s="7"/>
@@ -4551,7 +8486,7 @@
       <c r="G83" s="7"/>
       <c r="H83" s="7"/>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:8">
       <c r="A84" s="7"/>
       <c r="B84" s="7"/>
       <c r="C84" s="7"/>
@@ -4561,7 +8496,7 @@
       <c r="G84" s="7"/>
       <c r="H84" s="7"/>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:8">
       <c r="A85" s="7"/>
       <c r="B85" s="7"/>
       <c r="C85" s="7"/>
@@ -4571,7 +8506,7 @@
       <c r="G85" s="7"/>
       <c r="H85" s="7"/>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:8">
       <c r="A86" s="7"/>
       <c r="B86" s="7"/>
       <c r="C86" s="7"/>
@@ -4581,7 +8516,7 @@
       <c r="G86" s="7"/>
       <c r="H86" s="7"/>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:8">
       <c r="A87" s="7"/>
       <c r="B87" s="7"/>
       <c r="C87" s="7"/>
@@ -4591,7 +8526,7 @@
       <c r="G87" s="7"/>
       <c r="H87" s="7"/>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:8">
       <c r="A88" s="7"/>
       <c r="B88" s="7"/>
       <c r="C88" s="7"/>
@@ -4601,7 +8536,7 @@
       <c r="G88" s="7"/>
       <c r="H88" s="7"/>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:8">
       <c r="A89" s="7"/>
       <c r="B89" s="7"/>
       <c r="C89" s="7"/>
@@ -4611,7 +8546,7 @@
       <c r="G89" s="7"/>
       <c r="H89" s="7"/>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:8">
       <c r="A90" s="7"/>
       <c r="B90" s="7"/>
       <c r="C90" s="7"/>
@@ -4621,7 +8556,7 @@
       <c r="G90" s="7"/>
       <c r="H90" s="7"/>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:8">
       <c r="A91" s="7"/>
       <c r="B91" s="7"/>
       <c r="C91" s="7"/>
@@ -4631,7 +8566,7 @@
       <c r="G91" s="7"/>
       <c r="H91" s="7"/>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:8">
       <c r="A92" s="7"/>
       <c r="B92" s="7"/>
       <c r="C92" s="7"/>
@@ -4641,7 +8576,7 @@
       <c r="G92" s="7"/>
       <c r="H92" s="7"/>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:8">
       <c r="A93" s="7"/>
       <c r="B93" s="7"/>
       <c r="C93" s="7"/>
@@ -4651,7 +8586,7 @@
       <c r="G93" s="7"/>
       <c r="H93" s="7"/>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:8">
       <c r="A94" s="7"/>
       <c r="B94" s="7"/>
       <c r="C94" s="7"/>
@@ -4663,6 +8598,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B5:H5"/>
     <mergeCell ref="A35:H35"/>
     <mergeCell ref="B7:H7"/>
     <mergeCell ref="A11:H11"/>
@@ -4671,12 +8612,6 @@
     <mergeCell ref="A14:H14"/>
     <mergeCell ref="B15:H15"/>
     <mergeCell ref="A34:H34"/>
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="B5:H5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -4687,15 +8622,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B31E2576-20FD-4E47-B846-39903FF9702A}">
   <dimension ref="A1:H94"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47:XFD47"/>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26:H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.25" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="13.25" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="19.33203125" style="1" customWidth="1"/>
     <col min="2" max="7" width="13.25" style="1"/>
@@ -4703,101 +8638,101 @@
     <col min="9" max="16384" width="13.25" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="47" t="s">
         <v>87</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="50" t="s">
         <v>90</v>
       </c>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="46"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="52"/>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="47" t="s">
         <v>66</v>
       </c>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="34"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A6" s="30" t="s">
+      <c r="B5" s="49"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="31"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="31"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
@@ -4823,7 +8758,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" ht="15.75" customHeight="1">
       <c r="A9" s="4" t="s">
         <v>26</v>
       </c>
@@ -4841,7 +8776,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" ht="15.75" customHeight="1">
       <c r="A10" s="4" t="s">
         <v>29</v>
       </c>
@@ -4859,7 +8794,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8" ht="15.75" customHeight="1">
       <c r="A11" s="4" t="s">
         <v>31</v>
       </c>
@@ -4875,7 +8810,7 @@
       </c>
       <c r="H11" s="4"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8">
       <c r="A12" s="4" t="s">
         <v>33</v>
       </c>
@@ -4893,7 +8828,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8">
       <c r="A13" s="8" t="s">
         <v>42</v>
       </c>
@@ -4913,7 +8848,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:8">
       <c r="A14" s="8" t="s">
         <v>44</v>
       </c>
@@ -4933,7 +8868,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:8">
       <c r="A15" s="9" t="s">
         <v>46</v>
       </c>
@@ -4953,7 +8888,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:8">
       <c r="A16" s="8" t="s">
         <v>49</v>
       </c>
@@ -4973,7 +8908,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:8">
       <c r="A17" s="9" t="s">
         <v>51</v>
       </c>
@@ -4993,7 +8928,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:8">
       <c r="A18" s="8" t="s">
         <v>53</v>
       </c>
@@ -5013,7 +8948,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:8">
       <c r="A19" s="8" t="s">
         <v>57</v>
       </c>
@@ -5033,7 +8968,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:8">
       <c r="A20" s="8" t="s">
         <v>59</v>
       </c>
@@ -5051,7 +8986,7 @@
       </c>
       <c r="H20" s="8"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:8">
       <c r="A21" s="8" t="s">
         <v>61</v>
       </c>
@@ -5069,7 +9004,7 @@
       </c>
       <c r="H21" s="8"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:8">
       <c r="A22" s="4" t="s">
         <v>38</v>
       </c>
@@ -5089,7 +9024,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:8">
       <c r="A23" s="22" t="s">
         <v>76</v>
       </c>
@@ -5109,55 +9044,55 @@
         <v>78</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A24" s="47" t="s">
+    <row r="24" spans="1:8">
+      <c r="A24" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="48"/>
-      <c r="C24" s="48"/>
-      <c r="D24" s="48"/>
-      <c r="E24" s="48"/>
-      <c r="F24" s="48"/>
-      <c r="G24" s="48"/>
-      <c r="H24" s="49"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A25" s="50" t="s">
+      <c r="B24" s="54"/>
+      <c r="C24" s="54"/>
+      <c r="D24" s="54"/>
+      <c r="E24" s="54"/>
+      <c r="F24" s="54"/>
+      <c r="G24" s="54"/>
+      <c r="H24" s="55"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="56" t="s">
         <v>80</v>
       </c>
-      <c r="B25" s="51"/>
-      <c r="C25" s="51"/>
-      <c r="D25" s="51"/>
-      <c r="E25" s="51"/>
-      <c r="F25" s="51"/>
-      <c r="G25" s="51"/>
-      <c r="H25" s="52"/>
-    </row>
-    <row r="26" spans="1:8" ht="198.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="53" t="s">
+      <c r="B25" s="57"/>
+      <c r="C25" s="57"/>
+      <c r="D25" s="57"/>
+      <c r="E25" s="57"/>
+      <c r="F25" s="57"/>
+      <c r="G25" s="57"/>
+      <c r="H25" s="58"/>
+    </row>
+    <row r="26" spans="1:8" ht="198.5" customHeight="1">
+      <c r="A26" s="59" t="s">
         <v>83</v>
       </c>
-      <c r="B26" s="54"/>
-      <c r="C26" s="54"/>
-      <c r="D26" s="54"/>
-      <c r="E26" s="54"/>
-      <c r="F26" s="54"/>
-      <c r="G26" s="54"/>
-      <c r="H26" s="55"/>
-    </row>
-    <row r="27" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="41" t="s">
+      <c r="B26" s="60"/>
+      <c r="C26" s="60"/>
+      <c r="D26" s="60"/>
+      <c r="E26" s="60"/>
+      <c r="F26" s="60"/>
+      <c r="G26" s="60"/>
+      <c r="H26" s="61"/>
+    </row>
+    <row r="27" spans="1:8" ht="16.5" customHeight="1">
+      <c r="A27" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="B27" s="42"/>
-      <c r="C27" s="42"/>
-      <c r="D27" s="42"/>
-      <c r="E27" s="42"/>
-      <c r="F27" s="42"/>
-      <c r="G27" s="42"/>
-      <c r="H27" s="43"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B27" s="44"/>
+      <c r="C27" s="44"/>
+      <c r="D27" s="44"/>
+      <c r="E27" s="44"/>
+      <c r="F27" s="44"/>
+      <c r="G27" s="44"/>
+      <c r="H27" s="45"/>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="21" t="s">
         <v>8</v>
       </c>
@@ -5171,7 +9106,7 @@
       <c r="G28" s="24"/>
       <c r="H28" s="25"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:8">
       <c r="A29" s="21" t="s">
         <v>10</v>
       </c>
@@ -5197,7 +9132,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:8">
       <c r="A30" s="22" t="s">
         <v>26</v>
       </c>
@@ -5215,7 +9150,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:8">
       <c r="A31" s="22" t="s">
         <v>29</v>
       </c>
@@ -5233,7 +9168,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:8">
       <c r="A32" s="22" t="s">
         <v>31</v>
       </c>
@@ -5249,7 +9184,7 @@
       </c>
       <c r="H32" s="22"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:8">
       <c r="A33" s="22" t="s">
         <v>33</v>
       </c>
@@ -5267,7 +9202,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:8">
       <c r="A34" s="22" t="s">
         <v>92</v>
       </c>
@@ -5287,7 +9222,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:8" ht="19" customHeight="1">
       <c r="A35" s="8" t="s">
         <v>42</v>
       </c>
@@ -5307,7 +9242,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:8">
       <c r="A36" s="8" t="s">
         <v>44</v>
       </c>
@@ -5327,7 +9262,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:8">
       <c r="A37" s="9" t="s">
         <v>46</v>
       </c>
@@ -5347,7 +9282,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:8">
       <c r="A38" s="8" t="s">
         <v>49</v>
       </c>
@@ -5367,7 +9302,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:8">
       <c r="A39" s="9" t="s">
         <v>51</v>
       </c>
@@ -5387,7 +9322,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:8">
       <c r="A40" s="8" t="s">
         <v>53</v>
       </c>
@@ -5407,7 +9342,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:8">
       <c r="A41" s="8" t="s">
         <v>57</v>
       </c>
@@ -5427,7 +9362,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:8">
       <c r="A42" s="8" t="s">
         <v>59</v>
       </c>
@@ -5445,7 +9380,7 @@
       </c>
       <c r="H42" s="8"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:8">
       <c r="A43" s="8" t="s">
         <v>61</v>
       </c>
@@ -5463,7 +9398,7 @@
       </c>
       <c r="H43" s="8"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:8">
       <c r="A44" s="22" t="s">
         <v>38</v>
       </c>
@@ -5483,7 +9418,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:8">
       <c r="A45" s="27" t="s">
         <v>76</v>
       </c>
@@ -5503,7 +9438,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:8">
       <c r="A46" s="22" t="s">
         <v>73</v>
       </c>
@@ -5523,32 +9458,32 @@
         <v>75</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A47" s="41" t="s">
+    <row r="47" spans="1:8" ht="17.5" customHeight="1">
+      <c r="A47" s="43" t="s">
         <v>63</v>
       </c>
-      <c r="B47" s="42"/>
-      <c r="C47" s="42"/>
-      <c r="D47" s="42"/>
-      <c r="E47" s="42"/>
-      <c r="F47" s="42"/>
-      <c r="G47" s="42"/>
-      <c r="H47" s="43"/>
-    </row>
-    <row r="48" spans="1:8" ht="308" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A48" s="35" t="s">
+      <c r="B47" s="44"/>
+      <c r="C47" s="44"/>
+      <c r="D47" s="44"/>
+      <c r="E47" s="44"/>
+      <c r="F47" s="44"/>
+      <c r="G47" s="44"/>
+      <c r="H47" s="45"/>
+    </row>
+    <row r="48" spans="1:8" ht="308" customHeight="1">
+      <c r="A48" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="B48" s="35"/>
-      <c r="C48" s="35"/>
-      <c r="D48" s="35"/>
-      <c r="E48" s="35"/>
-      <c r="F48" s="35"/>
-      <c r="G48" s="35"/>
-      <c r="H48" s="35"/>
-    </row>
-    <row r="49" spans="1:8" ht="271" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B48" s="36"/>
+      <c r="C48" s="36"/>
+      <c r="D48" s="36"/>
+      <c r="E48" s="36"/>
+      <c r="F48" s="36"/>
+      <c r="G48" s="36"/>
+      <c r="H48" s="36"/>
+    </row>
+    <row r="49" spans="1:8" ht="271" customHeight="1"/>
+    <row r="61" spans="1:8">
       <c r="A61" s="13"/>
       <c r="B61" s="13"/>
       <c r="C61" s="14"/>
@@ -5558,7 +9493,7 @@
       <c r="G61" s="13"/>
       <c r="H61" s="13"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:8">
       <c r="A62" s="13"/>
       <c r="B62" s="13"/>
       <c r="C62" s="14"/>
@@ -5568,7 +9503,7 @@
       <c r="G62" s="13"/>
       <c r="H62" s="13"/>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:8">
       <c r="A63" s="13"/>
       <c r="B63" s="13"/>
       <c r="C63" s="14"/>
@@ -5578,7 +9513,7 @@
       <c r="G63" s="13"/>
       <c r="H63" s="13"/>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:8">
       <c r="A64" s="13"/>
       <c r="B64" s="13"/>
       <c r="C64" s="14"/>
@@ -5588,7 +9523,7 @@
       <c r="G64" s="13"/>
       <c r="H64" s="13"/>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:8">
       <c r="A67" s="7"/>
       <c r="B67" s="7"/>
       <c r="C67" s="7"/>
@@ -5598,7 +9533,7 @@
       <c r="G67" s="7"/>
       <c r="H67" s="7"/>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:8">
       <c r="A68" s="7"/>
       <c r="B68" s="7"/>
       <c r="C68" s="7"/>
@@ -5608,7 +9543,7 @@
       <c r="G68" s="7"/>
       <c r="H68" s="7"/>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:8">
       <c r="A69" s="7"/>
       <c r="B69" s="7"/>
       <c r="C69" s="7"/>
@@ -5618,7 +9553,7 @@
       <c r="G69" s="7"/>
       <c r="H69" s="7"/>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:8">
       <c r="A70" s="7"/>
       <c r="B70" s="7"/>
       <c r="C70" s="7"/>
@@ -5628,7 +9563,7 @@
       <c r="G70" s="7"/>
       <c r="H70" s="7"/>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:8">
       <c r="A71" s="7"/>
       <c r="B71" s="7"/>
       <c r="C71" s="7"/>
@@ -5638,7 +9573,7 @@
       <c r="G71" s="7"/>
       <c r="H71" s="7"/>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:8">
       <c r="A72" s="7"/>
       <c r="B72" s="7"/>
       <c r="C72" s="7"/>
@@ -5648,7 +9583,7 @@
       <c r="G72" s="7"/>
       <c r="H72" s="7"/>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:8">
       <c r="A73" s="7"/>
       <c r="B73" s="7"/>
       <c r="C73" s="7"/>
@@ -5658,7 +9593,7 @@
       <c r="G73" s="7"/>
       <c r="H73" s="7"/>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:8">
       <c r="A74" s="7"/>
       <c r="B74" s="7"/>
       <c r="C74" s="7"/>
@@ -5668,7 +9603,7 @@
       <c r="G74" s="7"/>
       <c r="H74" s="7"/>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:8">
       <c r="A75" s="7"/>
       <c r="B75" s="7"/>
       <c r="C75" s="7"/>
@@ -5678,7 +9613,7 @@
       <c r="G75" s="7"/>
       <c r="H75" s="7"/>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:8">
       <c r="A76" s="7"/>
       <c r="B76" s="7"/>
       <c r="C76" s="7"/>
@@ -5688,7 +9623,7 @@
       <c r="G76" s="7"/>
       <c r="H76" s="7"/>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:8">
       <c r="A77" s="7"/>
       <c r="B77" s="7"/>
       <c r="C77" s="7"/>
@@ -5698,7 +9633,7 @@
       <c r="G77" s="7"/>
       <c r="H77" s="7"/>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:8">
       <c r="A78" s="7"/>
       <c r="B78" s="7"/>
       <c r="C78" s="7"/>
@@ -5708,7 +9643,7 @@
       <c r="G78" s="7"/>
       <c r="H78" s="7"/>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:8">
       <c r="A79" s="7"/>
       <c r="B79" s="7"/>
       <c r="C79" s="7"/>
@@ -5718,7 +9653,7 @@
       <c r="G79" s="7"/>
       <c r="H79" s="7"/>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:8">
       <c r="A80" s="7"/>
       <c r="B80" s="7"/>
       <c r="C80" s="7"/>
@@ -5728,7 +9663,7 @@
       <c r="G80" s="7"/>
       <c r="H80" s="7"/>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:8">
       <c r="A81" s="7"/>
       <c r="B81" s="7"/>
       <c r="C81" s="7"/>
@@ -5738,7 +9673,7 @@
       <c r="G81" s="7"/>
       <c r="H81" s="7"/>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:8">
       <c r="A82" s="7"/>
       <c r="B82" s="7"/>
       <c r="C82" s="7"/>
@@ -5748,7 +9683,7 @@
       <c r="G82" s="7"/>
       <c r="H82" s="7"/>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:8">
       <c r="A83" s="7"/>
       <c r="B83" s="7"/>
       <c r="C83" s="7"/>
@@ -5758,7 +9693,7 @@
       <c r="G83" s="7"/>
       <c r="H83" s="7"/>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:8">
       <c r="A84" s="7"/>
       <c r="B84" s="7"/>
       <c r="C84" s="7"/>
@@ -5768,7 +9703,7 @@
       <c r="G84" s="7"/>
       <c r="H84" s="7"/>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:8">
       <c r="A85" s="7"/>
       <c r="B85" s="7"/>
       <c r="C85" s="7"/>
@@ -5778,7 +9713,7 @@
       <c r="G85" s="7"/>
       <c r="H85" s="7"/>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:8">
       <c r="A86" s="7"/>
       <c r="B86" s="7"/>
       <c r="C86" s="7"/>
@@ -5788,7 +9723,7 @@
       <c r="G86" s="7"/>
       <c r="H86" s="7"/>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:8">
       <c r="A87" s="7"/>
       <c r="B87" s="7"/>
       <c r="C87" s="7"/>
@@ -5798,7 +9733,7 @@
       <c r="G87" s="7"/>
       <c r="H87" s="7"/>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:8">
       <c r="A88" s="7"/>
       <c r="B88" s="7"/>
       <c r="C88" s="7"/>
@@ -5808,7 +9743,7 @@
       <c r="G88" s="7"/>
       <c r="H88" s="7"/>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:8">
       <c r="A89" s="7"/>
       <c r="B89" s="7"/>
       <c r="C89" s="7"/>
@@ -5818,7 +9753,7 @@
       <c r="G89" s="7"/>
       <c r="H89" s="7"/>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:8">
       <c r="A90" s="7"/>
       <c r="B90" s="7"/>
       <c r="C90" s="7"/>
@@ -5828,7 +9763,7 @@
       <c r="G90" s="7"/>
       <c r="H90" s="7"/>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:8">
       <c r="A91" s="7"/>
       <c r="B91" s="7"/>
       <c r="C91" s="7"/>
@@ -5838,7 +9773,7 @@
       <c r="G91" s="7"/>
       <c r="H91" s="7"/>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:8">
       <c r="A92" s="7"/>
       <c r="B92" s="7"/>
       <c r="C92" s="7"/>
@@ -5848,7 +9783,7 @@
       <c r="G92" s="7"/>
       <c r="H92" s="7"/>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:8">
       <c r="A93" s="7"/>
       <c r="B93" s="7"/>
       <c r="C93" s="7"/>
@@ -5858,7 +9793,7 @@
       <c r="G93" s="7"/>
       <c r="H93" s="7"/>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:8">
       <c r="A94" s="7"/>
       <c r="B94" s="7"/>
       <c r="C94" s="7"/>
@@ -5870,12 +9805,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A24:H24"/>
-    <mergeCell ref="A47:H47"/>
-    <mergeCell ref="A48:H48"/>
-    <mergeCell ref="A25:H25"/>
-    <mergeCell ref="A26:H26"/>
-    <mergeCell ref="A27:H27"/>
     <mergeCell ref="B7:H7"/>
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="B2:H2"/>
@@ -5883,6 +9812,12 @@
     <mergeCell ref="B4:H4"/>
     <mergeCell ref="B5:H5"/>
     <mergeCell ref="A6:H6"/>
+    <mergeCell ref="A24:H24"/>
+    <mergeCell ref="A47:H47"/>
+    <mergeCell ref="A48:H48"/>
+    <mergeCell ref="A25:H25"/>
+    <mergeCell ref="A26:H26"/>
+    <mergeCell ref="A27:H27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -5890,10 +9825,11 @@
     <hyperlink ref="A25" r:id="rId2" xr:uid="{364A12D2-4995-4A23-A404-6A0D1A2185AC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAE31BB7-A599-4ABB-A50D-5795B880F93B}">
   <dimension ref="A1:M94"/>
   <sheetViews>
@@ -5901,7 +9837,7 @@
       <selection activeCell="A47" sqref="A47:XFD47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.25" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="13.25" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="19.33203125" style="1" customWidth="1"/>
     <col min="2" max="7" width="13.25" style="1"/>
@@ -5909,101 +9845,101 @@
     <col min="9" max="16384" width="13.25" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="47" t="s">
         <v>88</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="50" t="s">
         <v>90</v>
       </c>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="46"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="52"/>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="34"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A6" s="30" t="s">
+      <c r="B5" s="49"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="31"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="31"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
@@ -6029,7 +9965,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" ht="15.75" customHeight="1">
       <c r="A9" s="4" t="s">
         <v>26</v>
       </c>
@@ -6047,7 +9983,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" ht="15.75" customHeight="1">
       <c r="A10" s="4" t="s">
         <v>29</v>
       </c>
@@ -6065,7 +10001,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8" ht="15.75" customHeight="1">
       <c r="A11" s="4" t="s">
         <v>31</v>
       </c>
@@ -6081,7 +10017,7 @@
       </c>
       <c r="H11" s="4"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8">
       <c r="A12" s="4" t="s">
         <v>33</v>
       </c>
@@ -6099,7 +10035,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8">
       <c r="A13" s="4" t="s">
         <v>92</v>
       </c>
@@ -6119,7 +10055,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:8">
       <c r="A14" s="8" t="s">
         <v>42</v>
       </c>
@@ -6139,7 +10075,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:8">
       <c r="A15" s="8" t="s">
         <v>44</v>
       </c>
@@ -6159,7 +10095,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:8">
       <c r="A16" s="9" t="s">
         <v>46</v>
       </c>
@@ -6179,7 +10115,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:13">
       <c r="A17" s="8" t="s">
         <v>49</v>
       </c>
@@ -6199,7 +10135,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:13">
       <c r="A18" s="9" t="s">
         <v>51</v>
       </c>
@@ -6219,7 +10155,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:13">
       <c r="A19" s="8" t="s">
         <v>53</v>
       </c>
@@ -6239,7 +10175,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:13">
       <c r="A20" s="8" t="s">
         <v>57</v>
       </c>
@@ -6259,7 +10195,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:13">
       <c r="A21" s="8" t="s">
         <v>59</v>
       </c>
@@ -6277,7 +10213,7 @@
       </c>
       <c r="H21" s="8"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:13">
       <c r="A22" s="8" t="s">
         <v>61</v>
       </c>
@@ -6295,7 +10231,7 @@
       </c>
       <c r="H22" s="8"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:13">
       <c r="A23" s="4" t="s">
         <v>38</v>
       </c>
@@ -6315,69 +10251,69 @@
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A24" s="47" t="s">
+    <row r="24" spans="1:13">
+      <c r="A24" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="48"/>
-      <c r="C24" s="48"/>
-      <c r="D24" s="48"/>
-      <c r="E24" s="48"/>
-      <c r="F24" s="48"/>
-      <c r="G24" s="48"/>
-      <c r="H24" s="49"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A25" s="50" t="s">
+      <c r="B24" s="54"/>
+      <c r="C24" s="54"/>
+      <c r="D24" s="54"/>
+      <c r="E24" s="54"/>
+      <c r="F24" s="54"/>
+      <c r="G24" s="54"/>
+      <c r="H24" s="55"/>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="56" t="s">
         <v>80</v>
       </c>
-      <c r="B25" s="51"/>
-      <c r="C25" s="51"/>
-      <c r="D25" s="51"/>
-      <c r="E25" s="51"/>
-      <c r="F25" s="51"/>
-      <c r="G25" s="51"/>
-      <c r="H25" s="52"/>
-    </row>
-    <row r="26" spans="1:13" ht="260" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="53" t="s">
+      <c r="B25" s="57"/>
+      <c r="C25" s="57"/>
+      <c r="D25" s="57"/>
+      <c r="E25" s="57"/>
+      <c r="F25" s="57"/>
+      <c r="G25" s="57"/>
+      <c r="H25" s="58"/>
+    </row>
+    <row r="26" spans="1:13" ht="260" customHeight="1">
+      <c r="A26" s="59" t="s">
         <v>84</v>
       </c>
-      <c r="B26" s="54"/>
-      <c r="C26" s="54"/>
-      <c r="D26" s="54"/>
-      <c r="E26" s="54"/>
-      <c r="F26" s="54"/>
-      <c r="G26" s="54"/>
-      <c r="H26" s="55"/>
-    </row>
-    <row r="27" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="41" t="s">
+      <c r="B26" s="60"/>
+      <c r="C26" s="60"/>
+      <c r="D26" s="60"/>
+      <c r="E26" s="60"/>
+      <c r="F26" s="60"/>
+      <c r="G26" s="60"/>
+      <c r="H26" s="61"/>
+    </row>
+    <row r="27" spans="1:13" ht="18" customHeight="1">
+      <c r="A27" s="43" t="s">
         <v>79</v>
       </c>
-      <c r="B27" s="42"/>
-      <c r="C27" s="42"/>
-      <c r="D27" s="42"/>
-      <c r="E27" s="42"/>
-      <c r="F27" s="42"/>
-      <c r="G27" s="42"/>
-      <c r="H27" s="43"/>
-    </row>
-    <row r="28" spans="1:13" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B27" s="44"/>
+      <c r="C27" s="44"/>
+      <c r="D27" s="44"/>
+      <c r="E27" s="44"/>
+      <c r="F27" s="44"/>
+      <c r="G27" s="44"/>
+      <c r="H27" s="45"/>
+    </row>
+    <row r="28" spans="1:13" ht="17.5" customHeight="1">
       <c r="A28" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B28" s="58" t="s">
+      <c r="B28" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="59"/>
-      <c r="D28" s="59"/>
-      <c r="E28" s="59"/>
-      <c r="F28" s="59"/>
-      <c r="G28" s="59"/>
-      <c r="H28" s="60"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="C28" s="65"/>
+      <c r="D28" s="65"/>
+      <c r="E28" s="65"/>
+      <c r="F28" s="65"/>
+      <c r="G28" s="65"/>
+      <c r="H28" s="66"/>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29" s="21" t="s">
         <v>10</v>
       </c>
@@ -6403,7 +10339,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:13">
       <c r="A30" s="22" t="s">
         <v>26</v>
       </c>
@@ -6421,7 +10357,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:13">
       <c r="A31" s="22" t="s">
         <v>29</v>
       </c>
@@ -6439,7 +10375,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="15.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:13" ht="15.5" customHeight="1">
       <c r="A32" s="22" t="s">
         <v>31</v>
       </c>
@@ -6454,13 +10390,13 @@
         <v>32</v>
       </c>
       <c r="H32" s="22"/>
-      <c r="I32" s="56"/>
-      <c r="J32" s="57"/>
-      <c r="K32" s="57"/>
-      <c r="L32" s="57"/>
-      <c r="M32" s="57"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I32" s="62"/>
+      <c r="J32" s="63"/>
+      <c r="K32" s="63"/>
+      <c r="L32" s="63"/>
+      <c r="M32" s="63"/>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="22" t="s">
         <v>33</v>
       </c>
@@ -6478,7 +10414,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:8">
       <c r="A34" s="22" t="s">
         <v>92</v>
       </c>
@@ -6498,7 +10434,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:8" ht="19" customHeight="1">
       <c r="A35" s="8" t="s">
         <v>42</v>
       </c>
@@ -6518,7 +10454,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:8">
       <c r="A36" s="8" t="s">
         <v>44</v>
       </c>
@@ -6538,7 +10474,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:8">
       <c r="A37" s="9" t="s">
         <v>46</v>
       </c>
@@ -6558,7 +10494,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:8">
       <c r="A38" s="8" t="s">
         <v>49</v>
       </c>
@@ -6578,7 +10514,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:8">
       <c r="A39" s="9" t="s">
         <v>51</v>
       </c>
@@ -6598,7 +10534,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:8">
       <c r="A40" s="8" t="s">
         <v>53</v>
       </c>
@@ -6618,7 +10554,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:8">
       <c r="A41" s="8" t="s">
         <v>57</v>
       </c>
@@ -6638,7 +10574,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:8">
       <c r="A42" s="8" t="s">
         <v>59</v>
       </c>
@@ -6656,7 +10592,7 @@
       </c>
       <c r="H42" s="8"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:8">
       <c r="A43" s="8" t="s">
         <v>61</v>
       </c>
@@ -6674,7 +10610,7 @@
       </c>
       <c r="H43" s="8"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:8">
       <c r="A44" s="22" t="s">
         <v>38</v>
       </c>
@@ -6694,7 +10630,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:8">
       <c r="A45" s="27" t="s">
         <v>76</v>
       </c>
@@ -6714,7 +10650,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:8">
       <c r="A46" s="22" t="s">
         <v>73</v>
       </c>
@@ -6734,33 +10670,33 @@
         <v>75</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A47" s="41" t="s">
+    <row r="47" spans="1:8" ht="14.5" customHeight="1">
+      <c r="A47" s="43" t="s">
         <v>63</v>
       </c>
-      <c r="B47" s="42"/>
-      <c r="C47" s="42"/>
-      <c r="D47" s="42"/>
-      <c r="E47" s="42"/>
-      <c r="F47" s="42"/>
-      <c r="G47" s="42"/>
-      <c r="H47" s="43"/>
-    </row>
-    <row r="48" spans="1:8" ht="324" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A48" s="35" t="s">
+      <c r="B47" s="44"/>
+      <c r="C47" s="44"/>
+      <c r="D47" s="44"/>
+      <c r="E47" s="44"/>
+      <c r="F47" s="44"/>
+      <c r="G47" s="44"/>
+      <c r="H47" s="45"/>
+    </row>
+    <row r="48" spans="1:8" ht="324" customHeight="1">
+      <c r="A48" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="B48" s="35"/>
-      <c r="C48" s="35"/>
-      <c r="D48" s="35"/>
-      <c r="E48" s="35"/>
-      <c r="F48" s="35"/>
-      <c r="G48" s="35"/>
-      <c r="H48" s="35"/>
-    </row>
-    <row r="49" spans="1:8" ht="277" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="50" spans="1:8" ht="271" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B48" s="36"/>
+      <c r="C48" s="36"/>
+      <c r="D48" s="36"/>
+      <c r="E48" s="36"/>
+      <c r="F48" s="36"/>
+      <c r="G48" s="36"/>
+      <c r="H48" s="36"/>
+    </row>
+    <row r="49" spans="1:8" ht="277" customHeight="1"/>
+    <row r="50" spans="1:8" ht="271" customHeight="1"/>
+    <row r="61" spans="1:8">
       <c r="A61" s="13"/>
       <c r="B61" s="13"/>
       <c r="C61" s="14"/>
@@ -6770,7 +10706,7 @@
       <c r="G61" s="13"/>
       <c r="H61" s="13"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:8">
       <c r="A62" s="13"/>
       <c r="B62" s="13"/>
       <c r="C62" s="14"/>
@@ -6780,7 +10716,7 @@
       <c r="G62" s="13"/>
       <c r="H62" s="13"/>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:8">
       <c r="A63" s="13"/>
       <c r="B63" s="13"/>
       <c r="C63" s="14"/>
@@ -6790,7 +10726,7 @@
       <c r="G63" s="13"/>
       <c r="H63" s="13"/>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:8">
       <c r="A64" s="13"/>
       <c r="B64" s="13"/>
       <c r="C64" s="14"/>
@@ -6800,7 +10736,7 @@
       <c r="G64" s="13"/>
       <c r="H64" s="13"/>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:8">
       <c r="A67" s="7"/>
       <c r="B67" s="7"/>
       <c r="C67" s="7"/>
@@ -6810,7 +10746,7 @@
       <c r="G67" s="7"/>
       <c r="H67" s="7"/>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:8">
       <c r="A68" s="7"/>
       <c r="B68" s="7"/>
       <c r="C68" s="7"/>
@@ -6820,7 +10756,7 @@
       <c r="G68" s="7"/>
       <c r="H68" s="7"/>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:8">
       <c r="A69" s="7"/>
       <c r="B69" s="7"/>
       <c r="C69" s="7"/>
@@ -6830,7 +10766,7 @@
       <c r="G69" s="7"/>
       <c r="H69" s="7"/>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:8">
       <c r="A70" s="7"/>
       <c r="B70" s="7"/>
       <c r="C70" s="7"/>
@@ -6840,7 +10776,7 @@
       <c r="G70" s="7"/>
       <c r="H70" s="7"/>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:8">
       <c r="A71" s="7"/>
       <c r="B71" s="7"/>
       <c r="C71" s="7"/>
@@ -6850,7 +10786,7 @@
       <c r="G71" s="7"/>
       <c r="H71" s="7"/>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:8">
       <c r="A72" s="7"/>
       <c r="B72" s="7"/>
       <c r="C72" s="7"/>
@@ -6860,7 +10796,7 @@
       <c r="G72" s="7"/>
       <c r="H72" s="7"/>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:8">
       <c r="A73" s="7"/>
       <c r="B73" s="7"/>
       <c r="C73" s="7"/>
@@ -6870,7 +10806,7 @@
       <c r="G73" s="7"/>
       <c r="H73" s="7"/>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:8">
       <c r="A74" s="7"/>
       <c r="B74" s="7"/>
       <c r="C74" s="7"/>
@@ -6880,7 +10816,7 @@
       <c r="G74" s="7"/>
       <c r="H74" s="7"/>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:8">
       <c r="A75" s="7"/>
       <c r="B75" s="7"/>
       <c r="C75" s="7"/>
@@ -6890,7 +10826,7 @@
       <c r="G75" s="7"/>
       <c r="H75" s="7"/>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:8">
       <c r="A76" s="7"/>
       <c r="B76" s="7"/>
       <c r="C76" s="7"/>
@@ -6900,7 +10836,7 @@
       <c r="G76" s="7"/>
       <c r="H76" s="7"/>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:8">
       <c r="A77" s="7"/>
       <c r="B77" s="7"/>
       <c r="C77" s="7"/>
@@ -6910,7 +10846,7 @@
       <c r="G77" s="7"/>
       <c r="H77" s="7"/>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:8">
       <c r="A78" s="7"/>
       <c r="B78" s="7"/>
       <c r="C78" s="7"/>
@@ -6920,7 +10856,7 @@
       <c r="G78" s="7"/>
       <c r="H78" s="7"/>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:8">
       <c r="A79" s="7"/>
       <c r="B79" s="7"/>
       <c r="C79" s="7"/>
@@ -6930,7 +10866,7 @@
       <c r="G79" s="7"/>
       <c r="H79" s="7"/>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:8">
       <c r="A80" s="7"/>
       <c r="B80" s="7"/>
       <c r="C80" s="7"/>
@@ -6940,7 +10876,7 @@
       <c r="G80" s="7"/>
       <c r="H80" s="7"/>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:8">
       <c r="A81" s="7"/>
       <c r="B81" s="7"/>
       <c r="C81" s="7"/>
@@ -6950,7 +10886,7 @@
       <c r="G81" s="7"/>
       <c r="H81" s="7"/>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:8">
       <c r="A82" s="7"/>
       <c r="B82" s="7"/>
       <c r="C82" s="7"/>
@@ -6960,7 +10896,7 @@
       <c r="G82" s="7"/>
       <c r="H82" s="7"/>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:8">
       <c r="A83" s="7"/>
       <c r="B83" s="7"/>
       <c r="C83" s="7"/>
@@ -6970,7 +10906,7 @@
       <c r="G83" s="7"/>
       <c r="H83" s="7"/>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:8">
       <c r="A84" s="7"/>
       <c r="B84" s="7"/>
       <c r="C84" s="7"/>
@@ -6980,7 +10916,7 @@
       <c r="G84" s="7"/>
       <c r="H84" s="7"/>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:8">
       <c r="A85" s="7"/>
       <c r="B85" s="7"/>
       <c r="C85" s="7"/>
@@ -6990,7 +10926,7 @@
       <c r="G85" s="7"/>
       <c r="H85" s="7"/>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:8">
       <c r="A86" s="7"/>
       <c r="B86" s="7"/>
       <c r="C86" s="7"/>
@@ -7000,7 +10936,7 @@
       <c r="G86" s="7"/>
       <c r="H86" s="7"/>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:8">
       <c r="A87" s="7"/>
       <c r="B87" s="7"/>
       <c r="C87" s="7"/>
@@ -7010,7 +10946,7 @@
       <c r="G87" s="7"/>
       <c r="H87" s="7"/>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:8">
       <c r="A88" s="7"/>
       <c r="B88" s="7"/>
       <c r="C88" s="7"/>
@@ -7020,7 +10956,7 @@
       <c r="G88" s="7"/>
       <c r="H88" s="7"/>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:8">
       <c r="A89" s="7"/>
       <c r="B89" s="7"/>
       <c r="C89" s="7"/>
@@ -7030,7 +10966,7 @@
       <c r="G89" s="7"/>
       <c r="H89" s="7"/>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:8">
       <c r="A90" s="7"/>
       <c r="B90" s="7"/>
       <c r="C90" s="7"/>
@@ -7040,7 +10976,7 @@
       <c r="G90" s="7"/>
       <c r="H90" s="7"/>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:8">
       <c r="A91" s="7"/>
       <c r="B91" s="7"/>
       <c r="C91" s="7"/>
@@ -7050,7 +10986,7 @@
       <c r="G91" s="7"/>
       <c r="H91" s="7"/>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:8">
       <c r="A92" s="7"/>
       <c r="B92" s="7"/>
       <c r="C92" s="7"/>
@@ -7060,7 +10996,7 @@
       <c r="G92" s="7"/>
       <c r="H92" s="7"/>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:8">
       <c r="A93" s="7"/>
       <c r="B93" s="7"/>
       <c r="C93" s="7"/>
@@ -7070,7 +11006,7 @@
       <c r="G93" s="7"/>
       <c r="H93" s="7"/>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:8">
       <c r="A94" s="7"/>
       <c r="B94" s="7"/>
       <c r="C94" s="7"/>
@@ -7082,6 +11018,13 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="A6:H6"/>
     <mergeCell ref="A48:H48"/>
     <mergeCell ref="I32:M32"/>
     <mergeCell ref="A24:H24"/>
@@ -7090,13 +11033,6 @@
     <mergeCell ref="A25:H25"/>
     <mergeCell ref="A26:H26"/>
     <mergeCell ref="A27:H27"/>
-    <mergeCell ref="B7:H7"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="A6:H6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -7107,7 +11043,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BE8F0A6-CE1B-4868-9054-B38C338BA073}">
   <dimension ref="A1:H94"/>
   <sheetViews>
@@ -7115,7 +11051,7 @@
       <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.25" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="13.25" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="19.33203125" style="1" customWidth="1"/>
     <col min="2" max="7" width="13.25" style="1"/>
@@ -7123,101 +11059,101 @@
     <col min="9" max="16384" width="13.25" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="47" t="s">
         <v>89</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="50" t="s">
         <v>93</v>
       </c>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="46"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="52"/>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="47" t="s">
         <v>68</v>
       </c>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="34"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A6" s="30" t="s">
+      <c r="B5" s="49"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="31"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="31"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
@@ -7243,7 +11179,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" ht="15.75" customHeight="1">
       <c r="A9" s="4" t="s">
         <v>18</v>
       </c>
@@ -7263,67 +11199,67 @@
         <v>95</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="47" t="s">
+    <row r="10" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A10" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="48"/>
-      <c r="C10" s="48"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="48"/>
-      <c r="F10" s="48"/>
-      <c r="G10" s="48"/>
-      <c r="H10" s="49"/>
-    </row>
-    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="50" t="s">
+      <c r="B10" s="54"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="54"/>
+      <c r="H10" s="55"/>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A11" s="56" t="s">
         <v>81</v>
       </c>
-      <c r="B11" s="51"/>
-      <c r="C11" s="51"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="51"/>
-      <c r="G11" s="51"/>
-      <c r="H11" s="52"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A12" s="63"/>
-      <c r="B12" s="64"/>
-      <c r="C12" s="64"/>
-      <c r="D12" s="64"/>
-      <c r="E12" s="64"/>
-      <c r="F12" s="64"/>
-      <c r="G12" s="64"/>
-      <c r="H12" s="65"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A13" s="41" t="s">
+      <c r="B11" s="57"/>
+      <c r="C11" s="57"/>
+      <c r="D11" s="57"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="58"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="69"/>
+      <c r="B12" s="70"/>
+      <c r="C12" s="70"/>
+      <c r="D12" s="70"/>
+      <c r="E12" s="70"/>
+      <c r="F12" s="70"/>
+      <c r="G12" s="70"/>
+      <c r="H12" s="71"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="42"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="43"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B13" s="44"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="45"/>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="58" t="s">
+      <c r="B14" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="59"/>
-      <c r="D14" s="59"/>
-      <c r="E14" s="59"/>
-      <c r="F14" s="59"/>
-      <c r="G14" s="59"/>
-      <c r="H14" s="60"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C14" s="65"/>
+      <c r="D14" s="65"/>
+      <c r="E14" s="65"/>
+      <c r="F14" s="65"/>
+      <c r="G14" s="65"/>
+      <c r="H14" s="66"/>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="6" t="s">
         <v>10</v>
       </c>
@@ -7349,7 +11285,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:8">
       <c r="A16" s="4" t="s">
         <v>26</v>
       </c>
@@ -7367,7 +11303,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:8">
       <c r="A17" s="4" t="s">
         <v>29</v>
       </c>
@@ -7385,7 +11321,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:8">
       <c r="A18" s="4" t="s">
         <v>31</v>
       </c>
@@ -7403,31 +11339,31 @@
         <v>71</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A19" s="40" t="s">
+    <row r="19" spans="1:8">
+      <c r="A19" s="42" t="s">
         <v>63</v>
       </c>
-      <c r="B19" s="66"/>
-      <c r="C19" s="66"/>
-      <c r="D19" s="66"/>
-      <c r="E19" s="66"/>
-      <c r="F19" s="66"/>
-      <c r="G19" s="66"/>
-      <c r="H19" s="66"/>
-    </row>
-    <row r="20" spans="1:8" ht="74" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="53" t="s">
+      <c r="B19" s="72"/>
+      <c r="C19" s="72"/>
+      <c r="D19" s="72"/>
+      <c r="E19" s="72"/>
+      <c r="F19" s="72"/>
+      <c r="G19" s="72"/>
+      <c r="H19" s="72"/>
+    </row>
+    <row r="20" spans="1:8" ht="74" customHeight="1">
+      <c r="A20" s="59" t="s">
         <v>72</v>
       </c>
-      <c r="B20" s="54"/>
-      <c r="C20" s="54"/>
-      <c r="D20" s="54"/>
-      <c r="E20" s="54"/>
-      <c r="F20" s="54"/>
-      <c r="G20" s="54"/>
-      <c r="H20" s="55"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B20" s="60"/>
+      <c r="C20" s="60"/>
+      <c r="D20" s="60"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="60"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="61"/>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="13"/>
       <c r="B21" s="13"/>
       <c r="C21" s="13"/>
@@ -7437,7 +11373,7 @@
       <c r="G21" s="13"/>
       <c r="H21" s="13"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:8">
       <c r="A22" s="13"/>
       <c r="B22" s="13"/>
       <c r="C22" s="13"/>
@@ -7447,7 +11383,7 @@
       <c r="G22" s="13"/>
       <c r="H22" s="13"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:8">
       <c r="A23" s="15"/>
       <c r="B23" s="13"/>
       <c r="C23" s="13"/>
@@ -7457,7 +11393,7 @@
       <c r="G23" s="13"/>
       <c r="H23" s="15"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:8">
       <c r="A24" s="13"/>
       <c r="B24" s="13"/>
       <c r="C24" s="13"/>
@@ -7467,7 +11403,7 @@
       <c r="G24" s="13"/>
       <c r="H24" s="13"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:8">
       <c r="A25" s="15"/>
       <c r="B25" s="13"/>
       <c r="C25" s="15"/>
@@ -7477,7 +11413,7 @@
       <c r="G25" s="15"/>
       <c r="H25" s="15"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:8">
       <c r="A26" s="13"/>
       <c r="B26" s="13"/>
       <c r="C26" s="13"/>
@@ -7487,7 +11423,7 @@
       <c r="G26" s="13"/>
       <c r="H26" s="13"/>
     </row>
-    <row r="27" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:8" ht="19.5" customHeight="1">
       <c r="A27" s="13"/>
       <c r="B27" s="13"/>
       <c r="C27" s="13"/>
@@ -7497,7 +11433,7 @@
       <c r="G27" s="13"/>
       <c r="H27" s="13"/>
     </row>
-    <row r="28" spans="1:8" ht="268" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:8" ht="268" customHeight="1">
       <c r="A28" s="13"/>
       <c r="B28" s="13"/>
       <c r="C28" s="13"/>
@@ -7507,7 +11443,7 @@
       <c r="G28" s="13"/>
       <c r="H28" s="13"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:8">
       <c r="A29" s="13"/>
       <c r="B29" s="13"/>
       <c r="C29" s="13"/>
@@ -7517,7 +11453,7 @@
       <c r="G29" s="13"/>
       <c r="H29" s="13"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:8">
       <c r="A30" s="13"/>
       <c r="B30" s="13"/>
       <c r="C30" s="13"/>
@@ -7527,7 +11463,7 @@
       <c r="G30" s="13"/>
       <c r="H30" s="13"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:8">
       <c r="A31" s="13"/>
       <c r="B31" s="13"/>
       <c r="C31" s="13"/>
@@ -7537,7 +11473,7 @@
       <c r="G31" s="13"/>
       <c r="H31" s="18"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:8">
       <c r="A32" s="13"/>
       <c r="B32" s="13"/>
       <c r="C32" s="13"/>
@@ -7547,27 +11483,27 @@
       <c r="G32" s="13"/>
       <c r="H32" s="13"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A33" s="61"/>
-      <c r="B33" s="61"/>
-      <c r="C33" s="61"/>
-      <c r="D33" s="61"/>
-      <c r="E33" s="61"/>
-      <c r="F33" s="61"/>
-      <c r="G33" s="61"/>
-      <c r="H33" s="61"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A34" s="62"/>
-      <c r="B34" s="62"/>
-      <c r="C34" s="62"/>
-      <c r="D34" s="62"/>
-      <c r="E34" s="62"/>
-      <c r="F34" s="62"/>
-      <c r="G34" s="62"/>
-      <c r="H34" s="62"/>
-    </row>
-    <row r="35" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:8">
+      <c r="A33" s="67"/>
+      <c r="B33" s="67"/>
+      <c r="C33" s="67"/>
+      <c r="D33" s="67"/>
+      <c r="E33" s="67"/>
+      <c r="F33" s="67"/>
+      <c r="G33" s="67"/>
+      <c r="H33" s="67"/>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="68"/>
+      <c r="B34" s="68"/>
+      <c r="C34" s="68"/>
+      <c r="D34" s="68"/>
+      <c r="E34" s="68"/>
+      <c r="F34" s="68"/>
+      <c r="G34" s="68"/>
+      <c r="H34" s="68"/>
+    </row>
+    <row r="35" spans="1:8" ht="19" customHeight="1">
       <c r="A35" s="17"/>
       <c r="B35" s="17"/>
       <c r="C35" s="17"/>
@@ -7577,7 +11513,7 @@
       <c r="G35" s="17"/>
       <c r="H35" s="17"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:8">
       <c r="A36" s="17"/>
       <c r="B36" s="17"/>
       <c r="C36" s="17"/>
@@ -7587,7 +11523,7 @@
       <c r="G36" s="17"/>
       <c r="H36" s="17"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:8">
       <c r="A37" s="17"/>
       <c r="B37" s="17"/>
       <c r="C37" s="17"/>
@@ -7597,7 +11533,7 @@
       <c r="G37" s="17"/>
       <c r="H37" s="17"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:8">
       <c r="A38" s="17"/>
       <c r="B38" s="17"/>
       <c r="C38" s="17"/>
@@ -7607,7 +11543,7 @@
       <c r="G38" s="17"/>
       <c r="H38" s="17"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:8">
       <c r="A39" s="17"/>
       <c r="B39" s="17"/>
       <c r="C39" s="17"/>
@@ -7617,7 +11553,7 @@
       <c r="G39" s="17"/>
       <c r="H39" s="17"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:8">
       <c r="A40" s="17"/>
       <c r="B40" s="17"/>
       <c r="C40" s="17"/>
@@ -7627,7 +11563,7 @@
       <c r="G40" s="17"/>
       <c r="H40" s="17"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:8">
       <c r="A41" s="17"/>
       <c r="B41" s="17"/>
       <c r="C41" s="17"/>
@@ -7637,7 +11573,7 @@
       <c r="G41" s="17"/>
       <c r="H41" s="17"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:8">
       <c r="A42" s="17"/>
       <c r="B42" s="17"/>
       <c r="C42" s="17"/>
@@ -7647,7 +11583,7 @@
       <c r="G42" s="17"/>
       <c r="H42" s="17"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:8">
       <c r="A43" s="17"/>
       <c r="B43" s="17"/>
       <c r="C43" s="17"/>
@@ -7657,7 +11593,7 @@
       <c r="G43" s="17"/>
       <c r="H43" s="17"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:8">
       <c r="A44" s="17"/>
       <c r="B44" s="17"/>
       <c r="C44" s="17"/>
@@ -7667,7 +11603,7 @@
       <c r="G44" s="17"/>
       <c r="H44" s="17"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:8">
       <c r="A45" s="17"/>
       <c r="B45" s="17"/>
       <c r="C45" s="17"/>
@@ -7677,7 +11613,7 @@
       <c r="G45" s="17"/>
       <c r="H45" s="17"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:8">
       <c r="A46" s="17"/>
       <c r="B46" s="17"/>
       <c r="C46" s="17"/>
@@ -7687,7 +11623,7 @@
       <c r="G46" s="17"/>
       <c r="H46" s="17"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:8">
       <c r="A47" s="17"/>
       <c r="B47" s="17"/>
       <c r="C47" s="17"/>
@@ -7697,7 +11633,7 @@
       <c r="G47" s="17"/>
       <c r="H47" s="17"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:8">
       <c r="A48" s="17"/>
       <c r="B48" s="17"/>
       <c r="C48" s="17"/>
@@ -7707,7 +11643,7 @@
       <c r="G48" s="17"/>
       <c r="H48" s="17"/>
     </row>
-    <row r="49" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:8" ht="16.5" customHeight="1">
       <c r="A49" s="17"/>
       <c r="B49" s="17"/>
       <c r="C49" s="17"/>
@@ -7717,7 +11653,7 @@
       <c r="G49" s="17"/>
       <c r="H49" s="17"/>
     </row>
-    <row r="50" spans="1:8" ht="271" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:8" ht="271" customHeight="1">
       <c r="A50" s="17"/>
       <c r="B50" s="17"/>
       <c r="C50" s="17"/>
@@ -7727,7 +11663,7 @@
       <c r="G50" s="17"/>
       <c r="H50" s="17"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:8">
       <c r="A51" s="17"/>
       <c r="B51" s="17"/>
       <c r="C51" s="17"/>
@@ -7737,7 +11673,7 @@
       <c r="G51" s="17"/>
       <c r="H51" s="17"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:8">
       <c r="A52" s="17"/>
       <c r="B52" s="17"/>
       <c r="C52" s="17"/>
@@ -7747,7 +11683,7 @@
       <c r="G52" s="17"/>
       <c r="H52" s="17"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:8">
       <c r="A53" s="17"/>
       <c r="B53" s="17"/>
       <c r="C53" s="17"/>
@@ -7757,7 +11693,7 @@
       <c r="G53" s="17"/>
       <c r="H53" s="17"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:8">
       <c r="A54" s="17"/>
       <c r="B54" s="17"/>
       <c r="C54" s="17"/>
@@ -7767,7 +11703,7 @@
       <c r="G54" s="17"/>
       <c r="H54" s="17"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:8">
       <c r="A55" s="17"/>
       <c r="B55" s="17"/>
       <c r="C55" s="17"/>
@@ -7777,7 +11713,7 @@
       <c r="G55" s="17"/>
       <c r="H55" s="17"/>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:8">
       <c r="A56" s="17"/>
       <c r="B56" s="17"/>
       <c r="C56" s="17"/>
@@ -7787,7 +11723,7 @@
       <c r="G56" s="17"/>
       <c r="H56" s="17"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:8">
       <c r="A57" s="17"/>
       <c r="B57" s="17"/>
       <c r="C57" s="17"/>
@@ -7797,7 +11733,7 @@
       <c r="G57" s="17"/>
       <c r="H57" s="17"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:8">
       <c r="A58" s="17"/>
       <c r="B58" s="17"/>
       <c r="C58" s="17"/>
@@ -7807,7 +11743,7 @@
       <c r="G58" s="17"/>
       <c r="H58" s="17"/>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:8">
       <c r="A59" s="17"/>
       <c r="B59" s="17"/>
       <c r="C59" s="17"/>
@@ -7817,7 +11753,7 @@
       <c r="G59" s="17"/>
       <c r="H59" s="17"/>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:8">
       <c r="A60" s="17"/>
       <c r="B60" s="17"/>
       <c r="C60" s="17"/>
@@ -7827,7 +11763,7 @@
       <c r="G60" s="17"/>
       <c r="H60" s="17"/>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:8">
       <c r="A61" s="13"/>
       <c r="B61" s="13"/>
       <c r="C61" s="14"/>
@@ -7837,7 +11773,7 @@
       <c r="G61" s="13"/>
       <c r="H61" s="13"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:8">
       <c r="A62" s="13"/>
       <c r="B62" s="13"/>
       <c r="C62" s="14"/>
@@ -7847,7 +11783,7 @@
       <c r="G62" s="13"/>
       <c r="H62" s="13"/>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:8">
       <c r="A63" s="13"/>
       <c r="B63" s="13"/>
       <c r="C63" s="14"/>
@@ -7857,7 +11793,7 @@
       <c r="G63" s="13"/>
       <c r="H63" s="13"/>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:8">
       <c r="A64" s="13"/>
       <c r="B64" s="13"/>
       <c r="C64" s="14"/>
@@ -7867,7 +11803,7 @@
       <c r="G64" s="13"/>
       <c r="H64" s="13"/>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:8">
       <c r="A65" s="17"/>
       <c r="B65" s="17"/>
       <c r="C65" s="17"/>
@@ -7877,7 +11813,7 @@
       <c r="G65" s="17"/>
       <c r="H65" s="17"/>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:8">
       <c r="A66" s="17"/>
       <c r="B66" s="17"/>
       <c r="C66" s="17"/>
@@ -7887,7 +11823,7 @@
       <c r="G66" s="17"/>
       <c r="H66" s="17"/>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:8">
       <c r="A67" s="19"/>
       <c r="B67" s="19"/>
       <c r="C67" s="19"/>
@@ -7897,7 +11833,7 @@
       <c r="G67" s="19"/>
       <c r="H67" s="19"/>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:8">
       <c r="A68" s="19"/>
       <c r="B68" s="19"/>
       <c r="C68" s="19"/>
@@ -7907,7 +11843,7 @@
       <c r="G68" s="19"/>
       <c r="H68" s="19"/>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:8">
       <c r="A69" s="7"/>
       <c r="B69" s="7"/>
       <c r="C69" s="7"/>
@@ -7917,7 +11853,7 @@
       <c r="G69" s="7"/>
       <c r="H69" s="7"/>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:8">
       <c r="A70" s="7"/>
       <c r="B70" s="7"/>
       <c r="C70" s="7"/>
@@ -7927,7 +11863,7 @@
       <c r="G70" s="7"/>
       <c r="H70" s="7"/>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:8">
       <c r="A71" s="7"/>
       <c r="B71" s="7"/>
       <c r="C71" s="7"/>
@@ -7937,7 +11873,7 @@
       <c r="G71" s="7"/>
       <c r="H71" s="7"/>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:8">
       <c r="A72" s="7"/>
       <c r="B72" s="7"/>
       <c r="C72" s="7"/>
@@ -7947,7 +11883,7 @@
       <c r="G72" s="7"/>
       <c r="H72" s="7"/>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:8">
       <c r="A73" s="7"/>
       <c r="B73" s="7"/>
       <c r="C73" s="7"/>
@@ -7957,7 +11893,7 @@
       <c r="G73" s="7"/>
       <c r="H73" s="7"/>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:8">
       <c r="A74" s="7"/>
       <c r="B74" s="7"/>
       <c r="C74" s="7"/>
@@ -7967,7 +11903,7 @@
       <c r="G74" s="7"/>
       <c r="H74" s="7"/>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:8">
       <c r="A75" s="7"/>
       <c r="B75" s="7"/>
       <c r="C75" s="7"/>
@@ -7977,7 +11913,7 @@
       <c r="G75" s="7"/>
       <c r="H75" s="7"/>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:8">
       <c r="A76" s="7"/>
       <c r="B76" s="7"/>
       <c r="C76" s="7"/>
@@ -7987,7 +11923,7 @@
       <c r="G76" s="7"/>
       <c r="H76" s="7"/>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:8">
       <c r="A77" s="7"/>
       <c r="B77" s="7"/>
       <c r="C77" s="7"/>
@@ -7997,7 +11933,7 @@
       <c r="G77" s="7"/>
       <c r="H77" s="7"/>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:8">
       <c r="A78" s="7"/>
       <c r="B78" s="7"/>
       <c r="C78" s="7"/>
@@ -8007,7 +11943,7 @@
       <c r="G78" s="7"/>
       <c r="H78" s="7"/>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:8">
       <c r="A79" s="7"/>
       <c r="B79" s="7"/>
       <c r="C79" s="7"/>
@@ -8017,7 +11953,7 @@
       <c r="G79" s="7"/>
       <c r="H79" s="7"/>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:8">
       <c r="A80" s="7"/>
       <c r="B80" s="7"/>
       <c r="C80" s="7"/>
@@ -8027,7 +11963,7 @@
       <c r="G80" s="7"/>
       <c r="H80" s="7"/>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:8">
       <c r="A81" s="7"/>
       <c r="B81" s="7"/>
       <c r="C81" s="7"/>
@@ -8037,7 +11973,7 @@
       <c r="G81" s="7"/>
       <c r="H81" s="7"/>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:8">
       <c r="A82" s="7"/>
       <c r="B82" s="7"/>
       <c r="C82" s="7"/>
@@ -8047,7 +11983,7 @@
       <c r="G82" s="7"/>
       <c r="H82" s="7"/>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:8">
       <c r="A83" s="7"/>
       <c r="B83" s="7"/>
       <c r="C83" s="7"/>
@@ -8057,7 +11993,7 @@
       <c r="G83" s="7"/>
       <c r="H83" s="7"/>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:8">
       <c r="A84" s="7"/>
       <c r="B84" s="7"/>
       <c r="C84" s="7"/>
@@ -8067,7 +12003,7 @@
       <c r="G84" s="7"/>
       <c r="H84" s="7"/>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:8">
       <c r="A85" s="7"/>
       <c r="B85" s="7"/>
       <c r="C85" s="7"/>
@@ -8077,7 +12013,7 @@
       <c r="G85" s="7"/>
       <c r="H85" s="7"/>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:8">
       <c r="A86" s="7"/>
       <c r="B86" s="7"/>
       <c r="C86" s="7"/>
@@ -8087,7 +12023,7 @@
       <c r="G86" s="7"/>
       <c r="H86" s="7"/>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:8">
       <c r="A87" s="7"/>
       <c r="B87" s="7"/>
       <c r="C87" s="7"/>
@@ -8097,7 +12033,7 @@
       <c r="G87" s="7"/>
       <c r="H87" s="7"/>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:8">
       <c r="A88" s="7"/>
       <c r="B88" s="7"/>
       <c r="C88" s="7"/>
@@ -8107,7 +12043,7 @@
       <c r="G88" s="7"/>
       <c r="H88" s="7"/>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:8">
       <c r="A89" s="7"/>
       <c r="B89" s="7"/>
       <c r="C89" s="7"/>
@@ -8117,7 +12053,7 @@
       <c r="G89" s="7"/>
       <c r="H89" s="7"/>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:8">
       <c r="A90" s="7"/>
       <c r="B90" s="7"/>
       <c r="C90" s="7"/>
@@ -8127,7 +12063,7 @@
       <c r="G90" s="7"/>
       <c r="H90" s="7"/>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:8">
       <c r="A91" s="7"/>
       <c r="B91" s="7"/>
       <c r="C91" s="7"/>
@@ -8137,7 +12073,7 @@
       <c r="G91" s="7"/>
       <c r="H91" s="7"/>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:8">
       <c r="A92" s="7"/>
       <c r="B92" s="7"/>
       <c r="C92" s="7"/>
@@ -8147,7 +12083,7 @@
       <c r="G92" s="7"/>
       <c r="H92" s="7"/>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:8">
       <c r="A93" s="7"/>
       <c r="B93" s="7"/>
       <c r="C93" s="7"/>
@@ -8157,7 +12093,7 @@
       <c r="G93" s="7"/>
       <c r="H93" s="7"/>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:8">
       <c r="A94" s="7"/>
       <c r="B94" s="7"/>
       <c r="C94" s="7"/>
@@ -8169,13 +12105,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A33:H33"/>
-    <mergeCell ref="A34:H34"/>
-    <mergeCell ref="A12:H12"/>
-    <mergeCell ref="A19:H19"/>
-    <mergeCell ref="A20:H20"/>
-    <mergeCell ref="A13:H13"/>
-    <mergeCell ref="B14:H14"/>
     <mergeCell ref="B7:H7"/>
     <mergeCell ref="A10:H10"/>
     <mergeCell ref="A11:H11"/>
@@ -8185,6 +12114,13 @@
     <mergeCell ref="B4:H4"/>
     <mergeCell ref="B5:H5"/>
     <mergeCell ref="A6:H6"/>
+    <mergeCell ref="A33:H33"/>
+    <mergeCell ref="A34:H34"/>
+    <mergeCell ref="A12:H12"/>
+    <mergeCell ref="A19:H19"/>
+    <mergeCell ref="A20:H20"/>
+    <mergeCell ref="A13:H13"/>
+    <mergeCell ref="B14:H14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/api/Notice/Council_API.xlsx
+++ b/api/Notice/Council_API.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Documents\GitHub\AISW_Web_Community\api\Notice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48C09E78-23E4-46D4-BAB6-DD1073DEC8D7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C718DE2-D358-4F37-9093-E51263BCD35D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{4D31F6B6-070E-4774-AAEF-202F9D53FBBB}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{4D31F6B6-070E-4774-AAEF-202F9D53FBBB}"/>
   </bookViews>
   <sheets>
     <sheet name="학생회 공지 전체 조회" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1058" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1093" uniqueCount="123">
   <si>
     <t>Title</t>
   </si>
@@ -536,106 +536,6 @@
    "result_code" : "OK",
    "description" : "OK",
    "data" : {
-      "id" : 1,
-      "title" : "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>수강신청</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>공지</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>",
-      "content" : "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>수강신청</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>날짜</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>: 12/31",
-      "attachment_file" : "/User/notice.docx",
-      "status": "GENERAL",
-      "views" : 1,
-      "created_at" : "2021-01-01T01:01:11.111",
-      "created_by" : "Hong gil dong",
-      "updated_at" : null,
-      "updated_by" : null,
-      "level" : 0,
-      "notice_id" : 1
-   }
-}</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>{
-   "transaction_time" : "2021-01-08T17:12:33.333",
-   "result_code" : "OK",
-   "description" : "OK",
-   "data" : {
       "title" : "</t>
     </r>
     <r>
@@ -1215,6 +1115,669 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">Pagination </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>부</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>전체</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>페이지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>total_pages</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>전체</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>아이템</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>total_elements</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>현재</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>페이지</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>current_page</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>현재</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>페이지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>아이템</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>current_elements</t>
+  </si>
+  <si>
+    <t>default 10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Council (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>학생회</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>공지사항</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>검색</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>제목</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/notice/council/search/writer?writer=name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://localhost:8080/notice/council/search/writer?writer=name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Council (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>학생회</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>공지사항</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>검색</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>제목+내용</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Council (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>학생회</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>공지사항</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>검색</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>작성자</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/notice/council/search/title?title=name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://localhost:8080/notice/council/search/title?title=name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/notice/council/search/title&amp;content?title=name&amp;content=name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://localhost:8080/notice/council/search/title&amp;content?title=name&amp;content=name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>작성자</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>writer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생성일자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생성자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{
+   "transaction_time" : "2021-01-08T17:12:33.333",
+   "result_code" : "OK",
+   "description" : "OK",
+   "data" : {
+      "id" : 1,
+      "title" : "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수강신청</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>공지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>",
+      "writer" : "tester",
+      "content" : "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수강신청</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>날짜</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>: 12/31",
+      "attachment_file" : "/User/notice.docx",
+      "status": "GENERAL",
+      "views" : 1,
+      "created_at" : "2021-01-01T01:01:11.111",
+      "created_by" : "Hong gil dong",
+      "updated_at" : null,
+      "updated_by" : null,
+      "level" : 0,
+      "notice_id" : 1
+   }
+}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
       <t>{
    "transaction_time" : "2021-01-08T17:12:33.333",
    "result_code" : "OK",
@@ -1260,6 +1823,7 @@
         <family val="2"/>
       </rPr>
       <t>",
+      "writer" : "tester",
       "content" : "</t>
     </r>
     <r>
@@ -1316,539 +1880,6 @@
    }
 }</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Pagination </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>부</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>전체</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>페이지</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>수</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>total_pages</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>전체</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>아이템</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>수</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>total_elements</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>현재</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>페이지</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>current_page</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>현재</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>페이지</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>아이템</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>수</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>current_elements</t>
-  </si>
-  <si>
-    <t>default 10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Council (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>학생회</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>공지사항</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>검색</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>제목</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/notice/council/search/writer?writer=name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://localhost:8080/notice/council/search/writer?writer=name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Council (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>학생회</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>공지사항</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>검색</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>제목+내용</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Council (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>학생회</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>공지사항</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>검색</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>작성자</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/notice/council/search/title?title=name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://localhost:8080/notice/council/search/title?title=name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/notice/council/search/title&amp;content?title=name&amp;content=name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://localhost:8080/notice/council/search/title&amp;content?title=name&amp;content=name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2119,7 +2150,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2187,13 +2218,6 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2210,13 +2234,38 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2234,18 +2283,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2274,15 +2311,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2315,6 +2343,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -2632,8 +2666,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1B60143-E3B9-4AB4-9B51-6040CE152FCC}">
   <dimension ref="A1:H94"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40:XFD40"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41:H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.25" defaultRowHeight="17"/>
@@ -2648,95 +2682,95 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47" t="s">
-        <v>85</v>
-      </c>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
+      <c r="B1" s="38" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="47" t="s">
-        <v>90</v>
-      </c>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
+      <c r="B3" s="38" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="49"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="3" t="s">
@@ -2785,64 +2819,64 @@
       <c r="H10" s="5"/>
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A11" s="39" t="s">
+      <c r="A11" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="38"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="38"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="37"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="40" t="s">
-        <v>91</v>
-      </c>
-      <c r="B12" s="38"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="38"/>
+      <c r="A12" s="46" t="s">
+        <v>90</v>
+      </c>
+      <c r="B12" s="37"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="37"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="41"/>
-      <c r="B13" s="38"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="38"/>
+      <c r="A13" s="47"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="37"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="42" t="s">
+      <c r="A14" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="38"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="38"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="37"/>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="37" t="s">
+      <c r="B15" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="38"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="37"/>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="6" t="s">
@@ -2924,14 +2958,14 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
       <c r="F20" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G20" s="4" t="s">
         <v>21</v>
@@ -2942,7 +2976,7 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B21" s="4"/>
       <c r="C21" s="4" t="s">
@@ -2981,32 +3015,32 @@
       </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="34" t="s">
+        <v>116</v>
+      </c>
+      <c r="B23" s="72"/>
+      <c r="C23" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="D23" s="72"/>
+      <c r="E23" s="72"/>
+      <c r="F23" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="G23" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="H23" s="34" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="8" t="s">
         <v>44</v>
-      </c>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D23" s="10"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="G23" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H23" s="8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="9" t="s">
-        <v>46</v>
       </c>
       <c r="B24" s="8"/>
       <c r="C24" s="8" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D24" s="10"/>
       <c r="E24" s="8"/>
@@ -3014,84 +3048,84 @@
         <v>27</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="H24" s="9" t="s">
-        <v>48</v>
+        <v>21</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="8" t="s">
-        <v>49</v>
+      <c r="A25" s="9" t="s">
+        <v>46</v>
       </c>
       <c r="B25" s="8"/>
       <c r="C25" s="8" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D25" s="10"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H25" s="8" t="s">
-        <v>65</v>
+        <v>32</v>
+      </c>
+      <c r="H25" s="9" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="9" t="s">
-        <v>51</v>
+      <c r="A26" s="8" t="s">
+        <v>49</v>
       </c>
       <c r="B26" s="8"/>
-      <c r="C26" s="9" t="s">
-        <v>52</v>
+      <c r="C26" s="8" t="s">
+        <v>50</v>
       </c>
       <c r="D26" s="10"/>
       <c r="E26" s="8"/>
-      <c r="F26" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="G26" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="H26" s="9" t="s">
+      <c r="F26" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="9" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="8" t="s">
-        <v>53</v>
-      </c>
       <c r="B27" s="8"/>
-      <c r="C27" s="8" t="s">
-        <v>54</v>
+      <c r="C27" s="9" t="s">
+        <v>52</v>
       </c>
       <c r="D27" s="10"/>
       <c r="E27" s="8"/>
-      <c r="F27" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="G27" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H27" s="8" t="s">
-        <v>56</v>
+      <c r="F27" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H27" s="9" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="8" t="s">
-        <v>57</v>
+      <c r="A28" s="73" t="s">
+        <v>119</v>
       </c>
       <c r="B28" s="8"/>
       <c r="C28" s="8" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D28" s="10"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="G28" s="8" t="s">
         <v>21</v>
@@ -3101,35 +3135,37 @@
       </c>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="8" t="s">
-        <v>59</v>
+      <c r="A29" s="73" t="s">
+        <v>120</v>
       </c>
       <c r="B29" s="8"/>
       <c r="C29" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D29" s="10"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="H29" s="8"/>
+        <v>21</v>
+      </c>
+      <c r="H29" s="8" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B30" s="8"/>
       <c r="C30" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D30" s="10"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="G30" s="8" t="s">
         <v>32</v>
@@ -3137,174 +3173,192 @@
       <c r="H30" s="8"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="4" t="s">
+      <c r="A31" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D31" s="10"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H31" s="8"/>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4" t="s">
+      <c r="B32" s="34"/>
+      <c r="C32" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4" t="s">
+      <c r="D32" s="34"/>
+      <c r="E32" s="34"/>
+      <c r="F32" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="G31" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H31" s="4" t="s">
+      <c r="G32" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="H32" s="34" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="27" t="s">
+    <row r="33" spans="1:8">
+      <c r="A33" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="B32" s="27"/>
-      <c r="C32" s="27" t="s">
+      <c r="B33" s="34"/>
+      <c r="C33" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="D32" s="27"/>
-      <c r="E32" s="27"/>
-      <c r="F32" s="27" t="s">
+      <c r="D33" s="34"/>
+      <c r="E33" s="34"/>
+      <c r="F33" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="G32" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="H32" s="27" t="s">
+      <c r="G33" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="H33" s="34" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="22" t="s">
+    <row r="34" spans="1:8" ht="16" customHeight="1">
+      <c r="A34" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="B33" s="22"/>
-      <c r="C33" s="22" t="s">
+      <c r="B34" s="34"/>
+      <c r="C34" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="D33" s="22"/>
-      <c r="E33" s="22"/>
-      <c r="F33" s="22" t="s">
+      <c r="D34" s="34"/>
+      <c r="E34" s="34"/>
+      <c r="F34" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="G33" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="H33" s="22" t="s">
+      <c r="G34" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="H34" s="34" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="16" customHeight="1">
-      <c r="A34" s="29" t="s">
+    <row r="35" spans="1:8" ht="18" customHeight="1">
+      <c r="A35" s="34" t="s">
+        <v>97</v>
+      </c>
+      <c r="B35" s="33"/>
+      <c r="C35" s="33"/>
+      <c r="D35" s="33"/>
+      <c r="E35" s="33"/>
+      <c r="F35" s="33"/>
+      <c r="G35" s="33"/>
+      <c r="H35" s="33"/>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="34" t="s">
+        <v>98</v>
+      </c>
+      <c r="B36" s="33"/>
+      <c r="C36" s="31" t="s">
         <v>99</v>
       </c>
-      <c r="B34" s="28"/>
-      <c r="C34" s="28"/>
-      <c r="D34" s="28"/>
-      <c r="E34" s="28"/>
-      <c r="F34" s="28"/>
-      <c r="G34" s="28"/>
-      <c r="H34" s="28"/>
-    </row>
-    <row r="35" spans="1:8" ht="18" customHeight="1">
-      <c r="A35" s="29" t="s">
+      <c r="D36" s="33"/>
+      <c r="E36" s="33"/>
+      <c r="F36" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="G36" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="H36" s="31"/>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="B35" s="28"/>
-      <c r="C35" s="34" t="s">
+      <c r="B37" s="33"/>
+      <c r="C37" s="32" t="s">
         <v>101</v>
       </c>
-      <c r="D35" s="28"/>
-      <c r="E35" s="28"/>
-      <c r="F35" s="29" t="s">
+      <c r="D37" s="33"/>
+      <c r="E37" s="33"/>
+      <c r="F37" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="G35" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="H35" s="34"/>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="A36" s="29" t="s">
+      <c r="G37" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="H37" s="31"/>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="34" t="s">
         <v>102</v>
       </c>
-      <c r="B36" s="28"/>
-      <c r="C36" s="35" t="s">
+      <c r="B38" s="33"/>
+      <c r="C38" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="D36" s="28"/>
-      <c r="E36" s="28"/>
-      <c r="F36" s="29" t="s">
+      <c r="D38" s="33"/>
+      <c r="E38" s="33"/>
+      <c r="F38" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="G36" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="H36" s="34"/>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="A37" s="29" t="s">
+      <c r="G38" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="H38" s="31"/>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="B37" s="28"/>
-      <c r="C37" s="35" t="s">
+      <c r="B39" s="33"/>
+      <c r="C39" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="D37" s="28"/>
-      <c r="E37" s="28"/>
-      <c r="F37" s="29" t="s">
+      <c r="D39" s="33"/>
+      <c r="E39" s="33"/>
+      <c r="F39" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="G37" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="H37" s="34"/>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="A38" s="29" t="s">
+      <c r="G39" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="H39" s="31" t="s">
         <v>106</v>
       </c>
-      <c r="B38" s="28"/>
-      <c r="C38" s="35" t="s">
-        <v>107</v>
-      </c>
-      <c r="D38" s="28"/>
-      <c r="E38" s="28"/>
-      <c r="F38" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="G38" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="H38" s="34" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="A39" s="43" t="s">
+    </row>
+    <row r="40" spans="1:8" ht="17" customHeight="1">
+      <c r="A40" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="B39" s="44"/>
-      <c r="C39" s="44"/>
-      <c r="D39" s="44"/>
-      <c r="E39" s="44"/>
-      <c r="F39" s="44"/>
-      <c r="G39" s="44"/>
-      <c r="H39" s="45"/>
-    </row>
-    <row r="40" spans="1:8" ht="371" customHeight="1">
-      <c r="A40" s="59" t="s">
-        <v>98</v>
-      </c>
-      <c r="B40" s="60"/>
-      <c r="C40" s="60"/>
-      <c r="D40" s="60"/>
-      <c r="E40" s="60"/>
-      <c r="F40" s="60"/>
-      <c r="G40" s="60"/>
-      <c r="H40" s="61"/>
+      <c r="B40" s="50"/>
+      <c r="C40" s="50"/>
+      <c r="D40" s="50"/>
+      <c r="E40" s="50"/>
+      <c r="F40" s="50"/>
+      <c r="G40" s="50"/>
+      <c r="H40" s="51"/>
+    </row>
+    <row r="41" spans="1:8" ht="409.6" customHeight="1">
+      <c r="A41" s="41" t="s">
+        <v>122</v>
+      </c>
+      <c r="B41" s="42"/>
+      <c r="C41" s="42"/>
+      <c r="D41" s="42"/>
+      <c r="E41" s="42"/>
+      <c r="F41" s="42"/>
+      <c r="G41" s="42"/>
+      <c r="H41" s="43"/>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="11"/>
@@ -3808,12 +3862,7 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="A41:H41"/>
     <mergeCell ref="A40:H40"/>
     <mergeCell ref="B7:H7"/>
     <mergeCell ref="A11:H11"/>
@@ -3821,7 +3870,12 @@
     <mergeCell ref="A13:H13"/>
     <mergeCell ref="A14:H14"/>
     <mergeCell ref="B15:H15"/>
-    <mergeCell ref="A39:H39"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B5:H5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -3836,8 +3890,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1250DE6-862A-4951-9E0A-A64459353432}">
   <dimension ref="A1:H94"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:H12"/>
+    <sheetView topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41:H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.25" defaultRowHeight="17"/>
@@ -3852,95 +3906,95 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47" t="s">
-        <v>109</v>
-      </c>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
+      <c r="B1" s="38" t="s">
+        <v>107</v>
+      </c>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="47" t="s">
-        <v>114</v>
-      </c>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
+      <c r="B3" s="38" t="s">
+        <v>112</v>
+      </c>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="49"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="3" t="s">
@@ -3969,198 +4023,198 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A9" s="31"/>
-      <c r="B9" s="31"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
+      <c r="A9" s="28"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
     </row>
     <row r="10" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A10" s="30"/>
-      <c r="B10" s="30"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
+      <c r="A10" s="27"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A11" s="39" t="s">
+      <c r="A11" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="38"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="38"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="37"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="40" t="s">
-        <v>115</v>
-      </c>
-      <c r="B12" s="38"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="38"/>
+      <c r="A12" s="46" t="s">
+        <v>113</v>
+      </c>
+      <c r="B12" s="37"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="37"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="41"/>
-      <c r="B13" s="38"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="38"/>
+      <c r="A13" s="47"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="37"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="42" t="s">
+      <c r="A14" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="38"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="38"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="37"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="32" t="s">
+      <c r="A15" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="37" t="s">
+      <c r="B15" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="38"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="37"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="32" t="s">
+      <c r="A16" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="32" t="s">
+      <c r="B16" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="32" t="s">
+      <c r="C16" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="32" t="s">
+      <c r="D16" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="32" t="s">
+      <c r="E16" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="F16" s="32" t="s">
+      <c r="F16" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="G16" s="32" t="s">
+      <c r="G16" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="H16" s="32" t="s">
+      <c r="H16" s="29" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="31" t="s">
+      <c r="A17" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="31"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="31" t="s">
+      <c r="B17" s="28"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="G17" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="H17" s="31" t="s">
+      <c r="G17" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="H17" s="28" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="31" t="s">
+      <c r="A18" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="31"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31" t="s">
+      <c r="B18" s="28"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="G18" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="H18" s="31" t="s">
+      <c r="G18" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="H18" s="28" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="31" t="s">
+      <c r="A19" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="31"/>
-      <c r="C19" s="31"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31" t="s">
+      <c r="B19" s="28"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="G19" s="31" t="s">
+      <c r="G19" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="H19" s="31"/>
+      <c r="H19" s="28"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="31" t="s">
+      <c r="A20" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="B20" s="28"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="B20" s="31"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="31" t="s">
-        <v>97</v>
-      </c>
-      <c r="G20" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="H20" s="31" t="s">
+      <c r="G20" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="H20" s="28" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="31" t="s">
-        <v>92</v>
-      </c>
-      <c r="B21" s="31"/>
-      <c r="C21" s="31" t="s">
+      <c r="A21" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="B21" s="28"/>
+      <c r="C21" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="D21" s="31"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="31" t="s">
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="G21" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="H21" s="31" t="s">
+      <c r="G21" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="H21" s="28" t="s">
         <v>37</v>
       </c>
     </row>
@@ -4185,32 +4239,32 @@
       </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="34" t="s">
+        <v>116</v>
+      </c>
+      <c r="B23" s="72"/>
+      <c r="C23" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="D23" s="72"/>
+      <c r="E23" s="72"/>
+      <c r="F23" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="G23" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="H23" s="34" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="8" t="s">
         <v>44</v>
-      </c>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D23" s="10"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="G23" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H23" s="8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="9" t="s">
-        <v>46</v>
       </c>
       <c r="B24" s="8"/>
       <c r="C24" s="8" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D24" s="10"/>
       <c r="E24" s="8"/>
@@ -4218,84 +4272,84 @@
         <v>27</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="H24" s="9" t="s">
-        <v>48</v>
+        <v>21</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="8" t="s">
-        <v>49</v>
+      <c r="A25" s="9" t="s">
+        <v>46</v>
       </c>
       <c r="B25" s="8"/>
       <c r="C25" s="8" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D25" s="10"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H25" s="8" t="s">
-        <v>65</v>
+        <v>32</v>
+      </c>
+      <c r="H25" s="9" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="9" t="s">
-        <v>51</v>
+      <c r="A26" s="8" t="s">
+        <v>49</v>
       </c>
       <c r="B26" s="8"/>
-      <c r="C26" s="9" t="s">
-        <v>52</v>
+      <c r="C26" s="8" t="s">
+        <v>50</v>
       </c>
       <c r="D26" s="10"/>
       <c r="E26" s="8"/>
-      <c r="F26" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="G26" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="H26" s="9" t="s">
+      <c r="F26" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="9" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="8" t="s">
-        <v>53</v>
-      </c>
       <c r="B27" s="8"/>
-      <c r="C27" s="8" t="s">
-        <v>54</v>
+      <c r="C27" s="9" t="s">
+        <v>52</v>
       </c>
       <c r="D27" s="10"/>
       <c r="E27" s="8"/>
-      <c r="F27" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="G27" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H27" s="8" t="s">
-        <v>56</v>
+      <c r="F27" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H27" s="9" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="8" t="s">
-        <v>57</v>
+      <c r="A28" s="73" t="s">
+        <v>119</v>
       </c>
       <c r="B28" s="8"/>
       <c r="C28" s="8" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D28" s="10"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="G28" s="8" t="s">
         <v>21</v>
@@ -4305,35 +4359,37 @@
       </c>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="8" t="s">
-        <v>59</v>
+      <c r="A29" s="73" t="s">
+        <v>120</v>
       </c>
       <c r="B29" s="8"/>
       <c r="C29" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D29" s="10"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="H29" s="8"/>
+        <v>21</v>
+      </c>
+      <c r="H29" s="8" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B30" s="8"/>
       <c r="C30" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D30" s="10"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="G30" s="8" t="s">
         <v>32</v>
@@ -4341,184 +4397,192 @@
       <c r="H30" s="8"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="31" t="s">
+      <c r="A31" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D31" s="10"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H31" s="8"/>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="B31" s="31"/>
-      <c r="C31" s="31" t="s">
+      <c r="B32" s="34"/>
+      <c r="C32" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="D31" s="31"/>
-      <c r="E31" s="31"/>
-      <c r="F31" s="31" t="s">
+      <c r="D32" s="34"/>
+      <c r="E32" s="34"/>
+      <c r="F32" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="G31" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="H31" s="31" t="s">
+      <c r="G32" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="H32" s="34" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="31" t="s">
+    <row r="33" spans="1:8">
+      <c r="A33" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="B32" s="31"/>
-      <c r="C32" s="31" t="s">
+      <c r="B33" s="34"/>
+      <c r="C33" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="D32" s="31"/>
-      <c r="E32" s="31"/>
-      <c r="F32" s="31" t="s">
+      <c r="D33" s="34"/>
+      <c r="E33" s="34"/>
+      <c r="F33" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="G32" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="H32" s="31" t="s">
+      <c r="G33" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="H33" s="34" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="31" t="s">
+    <row r="34" spans="1:8" ht="16" customHeight="1">
+      <c r="A34" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="B33" s="31"/>
-      <c r="C33" s="31" t="s">
+      <c r="B34" s="34"/>
+      <c r="C34" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31" t="s">
+      <c r="D34" s="34"/>
+      <c r="E34" s="34"/>
+      <c r="F34" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="G33" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="H33" s="31" t="s">
+      <c r="G34" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="H34" s="34" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="16" customHeight="1">
-      <c r="A34" s="31" t="s">
+    <row r="35" spans="1:8" ht="18" customHeight="1">
+      <c r="A35" s="34" t="s">
+        <v>97</v>
+      </c>
+      <c r="B35" s="33"/>
+      <c r="C35" s="33"/>
+      <c r="D35" s="33"/>
+      <c r="E35" s="33"/>
+      <c r="F35" s="33"/>
+      <c r="G35" s="33"/>
+      <c r="H35" s="33"/>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="34" t="s">
+        <v>98</v>
+      </c>
+      <c r="B36" s="33"/>
+      <c r="C36" s="31" t="s">
         <v>99</v>
       </c>
-      <c r="B34" s="30"/>
-      <c r="C34" s="30"/>
-      <c r="D34" s="30"/>
-      <c r="E34" s="30"/>
-      <c r="F34" s="30"/>
-      <c r="G34" s="30"/>
-      <c r="H34" s="30"/>
-    </row>
-    <row r="35" spans="1:8" ht="18" customHeight="1">
-      <c r="A35" s="31" t="s">
+      <c r="D36" s="33"/>
+      <c r="E36" s="33"/>
+      <c r="F36" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="G36" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="H36" s="31"/>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="B35" s="30"/>
-      <c r="C35" s="34" t="s">
+      <c r="B37" s="33"/>
+      <c r="C37" s="32" t="s">
         <v>101</v>
       </c>
-      <c r="D35" s="30"/>
-      <c r="E35" s="30"/>
-      <c r="F35" s="31" t="s">
+      <c r="D37" s="33"/>
+      <c r="E37" s="33"/>
+      <c r="F37" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="G35" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="H35" s="34"/>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="A36" s="31" t="s">
+      <c r="G37" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="H37" s="31"/>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="34" t="s">
         <v>102</v>
       </c>
-      <c r="B36" s="30"/>
-      <c r="C36" s="35" t="s">
+      <c r="B38" s="33"/>
+      <c r="C38" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="D36" s="30"/>
-      <c r="E36" s="30"/>
-      <c r="F36" s="31" t="s">
+      <c r="D38" s="33"/>
+      <c r="E38" s="33"/>
+      <c r="F38" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="G36" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="H36" s="34"/>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="A37" s="31" t="s">
+      <c r="G38" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="H38" s="31"/>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="B37" s="30"/>
-      <c r="C37" s="35" t="s">
+      <c r="B39" s="33"/>
+      <c r="C39" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="D37" s="30"/>
-      <c r="E37" s="30"/>
-      <c r="F37" s="31" t="s">
+      <c r="D39" s="33"/>
+      <c r="E39" s="33"/>
+      <c r="F39" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="G37" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="H37" s="34"/>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="A38" s="31" t="s">
+      <c r="G39" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="H39" s="31" t="s">
         <v>106</v>
       </c>
-      <c r="B38" s="30"/>
-      <c r="C38" s="35" t="s">
-        <v>107</v>
-      </c>
-      <c r="D38" s="30"/>
-      <c r="E38" s="30"/>
-      <c r="F38" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="G38" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="H38" s="34" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="A39" s="43" t="s">
+    </row>
+    <row r="40" spans="1:8" ht="17" customHeight="1">
+      <c r="A40" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="B39" s="44"/>
-      <c r="C39" s="44"/>
-      <c r="D39" s="44"/>
-      <c r="E39" s="44"/>
-      <c r="F39" s="44"/>
-      <c r="G39" s="44"/>
-      <c r="H39" s="45"/>
-    </row>
-    <row r="40" spans="1:8" ht="371" customHeight="1">
-      <c r="A40" s="59" t="s">
-        <v>98</v>
-      </c>
-      <c r="B40" s="60"/>
-      <c r="C40" s="60"/>
-      <c r="D40" s="60"/>
-      <c r="E40" s="60"/>
-      <c r="F40" s="60"/>
-      <c r="G40" s="60"/>
-      <c r="H40" s="61"/>
-    </row>
-    <row r="43" spans="1:8">
-      <c r="A43" s="11"/>
-      <c r="B43" s="11"/>
-      <c r="C43" s="11"/>
-      <c r="D43" s="11"/>
-      <c r="E43" s="11"/>
-      <c r="F43" s="11"/>
-      <c r="G43" s="11"/>
-      <c r="H43" s="11"/>
+      <c r="B40" s="50"/>
+      <c r="C40" s="50"/>
+      <c r="D40" s="50"/>
+      <c r="E40" s="50"/>
+      <c r="F40" s="50"/>
+      <c r="G40" s="50"/>
+      <c r="H40" s="51"/>
+    </row>
+    <row r="41" spans="1:8" ht="409.6" customHeight="1">
+      <c r="A41" s="41" t="s">
+        <v>122</v>
+      </c>
+      <c r="B41" s="42"/>
+      <c r="C41" s="42"/>
+      <c r="D41" s="42"/>
+      <c r="E41" s="42"/>
+      <c r="F41" s="42"/>
+      <c r="G41" s="42"/>
+      <c r="H41" s="43"/>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="11"/>
@@ -4561,94 +4625,94 @@
       <c r="H47" s="11"/>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="12"/>
-      <c r="B48" s="12"/>
-      <c r="C48" s="12"/>
-      <c r="D48" s="12"/>
-      <c r="E48" s="12"/>
-      <c r="F48" s="12"/>
-      <c r="G48" s="12"/>
-      <c r="H48" s="12"/>
+      <c r="A48" s="11"/>
+      <c r="B48" s="11"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="11"/>
+      <c r="H48" s="11"/>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="33"/>
-      <c r="B49" s="33"/>
-      <c r="C49" s="33"/>
-      <c r="D49" s="33"/>
-      <c r="E49" s="33"/>
-      <c r="F49" s="33"/>
-      <c r="G49" s="33"/>
-      <c r="H49" s="33"/>
+      <c r="A49" s="12"/>
+      <c r="B49" s="12"/>
+      <c r="C49" s="12"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="12"/>
+      <c r="F49" s="12"/>
+      <c r="G49" s="12"/>
+      <c r="H49" s="12"/>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="33"/>
-      <c r="B50" s="33"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="33"/>
-      <c r="E50" s="33"/>
-      <c r="F50" s="33"/>
-      <c r="G50" s="33"/>
-      <c r="H50" s="33"/>
+      <c r="A50" s="35"/>
+      <c r="B50" s="35"/>
+      <c r="C50" s="35"/>
+      <c r="D50" s="35"/>
+      <c r="E50" s="35"/>
+      <c r="F50" s="35"/>
+      <c r="G50" s="35"/>
+      <c r="H50" s="35"/>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="33"/>
-      <c r="B51" s="33"/>
+      <c r="A51" s="35"/>
+      <c r="B51" s="35"/>
       <c r="C51" s="14"/>
-      <c r="D51" s="33"/>
-      <c r="E51" s="33"/>
-      <c r="F51" s="33"/>
-      <c r="G51" s="33"/>
-      <c r="H51" s="33"/>
+      <c r="D51" s="35"/>
+      <c r="E51" s="35"/>
+      <c r="F51" s="35"/>
+      <c r="G51" s="35"/>
+      <c r="H51" s="35"/>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="33"/>
-      <c r="B52" s="33"/>
+      <c r="A52" s="35"/>
+      <c r="B52" s="35"/>
       <c r="C52" s="14"/>
-      <c r="D52" s="33"/>
-      <c r="E52" s="33"/>
-      <c r="F52" s="33"/>
-      <c r="G52" s="33"/>
-      <c r="H52" s="33"/>
+      <c r="D52" s="35"/>
+      <c r="E52" s="35"/>
+      <c r="F52" s="35"/>
+      <c r="G52" s="35"/>
+      <c r="H52" s="35"/>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="33"/>
-      <c r="B53" s="33"/>
+      <c r="A53" s="30"/>
+      <c r="B53" s="30"/>
       <c r="C53" s="14"/>
-      <c r="D53" s="33"/>
-      <c r="E53" s="33"/>
-      <c r="F53" s="33"/>
-      <c r="G53" s="33"/>
-      <c r="H53" s="33"/>
+      <c r="D53" s="30"/>
+      <c r="E53" s="30"/>
+      <c r="F53" s="30"/>
+      <c r="G53" s="30"/>
+      <c r="H53" s="30"/>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="33"/>
-      <c r="B54" s="33"/>
+      <c r="A54" s="30"/>
+      <c r="B54" s="30"/>
       <c r="C54" s="14"/>
-      <c r="D54" s="33"/>
-      <c r="E54" s="33"/>
-      <c r="F54" s="33"/>
-      <c r="G54" s="33"/>
-      <c r="H54" s="33"/>
+      <c r="D54" s="30"/>
+      <c r="E54" s="30"/>
+      <c r="F54" s="30"/>
+      <c r="G54" s="30"/>
+      <c r="H54" s="30"/>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="33"/>
-      <c r="B55" s="33"/>
+      <c r="A55" s="30"/>
+      <c r="B55" s="30"/>
       <c r="C55" s="14"/>
-      <c r="D55" s="33"/>
-      <c r="E55" s="33"/>
-      <c r="F55" s="33"/>
-      <c r="G55" s="33"/>
-      <c r="H55" s="33"/>
+      <c r="D55" s="30"/>
+      <c r="E55" s="30"/>
+      <c r="F55" s="30"/>
+      <c r="G55" s="30"/>
+      <c r="H55" s="30"/>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="33"/>
-      <c r="B56" s="33"/>
+      <c r="A56" s="30"/>
+      <c r="B56" s="30"/>
       <c r="C56" s="14"/>
-      <c r="D56" s="33"/>
-      <c r="E56" s="33"/>
-      <c r="F56" s="33"/>
-      <c r="G56" s="33"/>
-      <c r="H56" s="33"/>
+      <c r="D56" s="30"/>
+      <c r="E56" s="30"/>
+      <c r="F56" s="30"/>
+      <c r="G56" s="30"/>
+      <c r="H56" s="30"/>
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="15"/>
@@ -4681,54 +4745,54 @@
       <c r="H59" s="15"/>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="33"/>
-      <c r="B60" s="33"/>
+      <c r="A60" s="30"/>
+      <c r="B60" s="30"/>
       <c r="C60" s="14"/>
-      <c r="D60" s="33"/>
-      <c r="E60" s="33"/>
-      <c r="F60" s="33"/>
-      <c r="G60" s="33"/>
-      <c r="H60" s="33"/>
+      <c r="D60" s="30"/>
+      <c r="E60" s="30"/>
+      <c r="F60" s="30"/>
+      <c r="G60" s="30"/>
+      <c r="H60" s="30"/>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="33"/>
-      <c r="B61" s="33"/>
+      <c r="A61" s="30"/>
+      <c r="B61" s="30"/>
       <c r="C61" s="14"/>
-      <c r="D61" s="33"/>
-      <c r="E61" s="33"/>
-      <c r="F61" s="33"/>
-      <c r="G61" s="33"/>
-      <c r="H61" s="33"/>
+      <c r="D61" s="30"/>
+      <c r="E61" s="30"/>
+      <c r="F61" s="30"/>
+      <c r="G61" s="30"/>
+      <c r="H61" s="30"/>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="33"/>
-      <c r="B62" s="33"/>
+      <c r="A62" s="30"/>
+      <c r="B62" s="30"/>
       <c r="C62" s="14"/>
-      <c r="D62" s="33"/>
-      <c r="E62" s="33"/>
-      <c r="F62" s="33"/>
-      <c r="G62" s="33"/>
-      <c r="H62" s="33"/>
+      <c r="D62" s="30"/>
+      <c r="E62" s="30"/>
+      <c r="F62" s="30"/>
+      <c r="G62" s="30"/>
+      <c r="H62" s="30"/>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="33"/>
-      <c r="B63" s="33"/>
+      <c r="A63" s="30"/>
+      <c r="B63" s="30"/>
       <c r="C63" s="14"/>
-      <c r="D63" s="33"/>
-      <c r="E63" s="33"/>
-      <c r="F63" s="33"/>
-      <c r="G63" s="33"/>
-      <c r="H63" s="33"/>
+      <c r="D63" s="30"/>
+      <c r="E63" s="30"/>
+      <c r="F63" s="30"/>
+      <c r="G63" s="30"/>
+      <c r="H63" s="30"/>
     </row>
     <row r="64" spans="1:8">
-      <c r="A64" s="33"/>
-      <c r="B64" s="33"/>
+      <c r="A64" s="30"/>
+      <c r="B64" s="30"/>
       <c r="C64" s="14"/>
-      <c r="D64" s="33"/>
-      <c r="E64" s="33"/>
-      <c r="F64" s="33"/>
-      <c r="G64" s="33"/>
-      <c r="H64" s="33"/>
+      <c r="D64" s="30"/>
+      <c r="E64" s="30"/>
+      <c r="F64" s="30"/>
+      <c r="G64" s="30"/>
+      <c r="H64" s="30"/>
     </row>
     <row r="67" spans="1:8">
       <c r="A67" s="7"/>
@@ -5012,7 +5076,13 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A39:H39"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="A41:H41"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B5:H5"/>
     <mergeCell ref="A40:H40"/>
     <mergeCell ref="B7:H7"/>
     <mergeCell ref="A11:H11"/>
@@ -5020,12 +5090,6 @@
     <mergeCell ref="A13:H13"/>
     <mergeCell ref="A14:H14"/>
     <mergeCell ref="B15:H15"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="A6:H6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -5040,8 +5104,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02209166-9C0F-4DAD-B1A8-B563510C3937}">
   <dimension ref="A1:H94"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:H12"/>
+    <sheetView topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41:H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.25" defaultRowHeight="17"/>
@@ -5056,95 +5120,95 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47" t="s">
-        <v>112</v>
-      </c>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
+      <c r="B1" s="38" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="47" t="s">
-        <v>116</v>
-      </c>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
+      <c r="B3" s="38" t="s">
+        <v>114</v>
+      </c>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="49"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="3" t="s">
@@ -5173,198 +5237,198 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A9" s="31"/>
-      <c r="B9" s="31"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
+      <c r="A9" s="28"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
     </row>
     <row r="10" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A10" s="30"/>
-      <c r="B10" s="30"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
+      <c r="A10" s="27"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A11" s="39" t="s">
+      <c r="A11" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="38"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="38"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="37"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="40" t="s">
-        <v>117</v>
-      </c>
-      <c r="B12" s="38"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="38"/>
+      <c r="A12" s="46" t="s">
+        <v>115</v>
+      </c>
+      <c r="B12" s="37"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="37"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="41"/>
-      <c r="B13" s="38"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="38"/>
+      <c r="A13" s="47"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="37"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="42" t="s">
+      <c r="A14" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="38"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="38"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="37"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="32" t="s">
+      <c r="A15" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="37" t="s">
+      <c r="B15" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="38"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="37"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="32" t="s">
+      <c r="A16" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="32" t="s">
+      <c r="B16" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="32" t="s">
+      <c r="C16" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="32" t="s">
+      <c r="D16" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="32" t="s">
+      <c r="E16" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="F16" s="32" t="s">
+      <c r="F16" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="G16" s="32" t="s">
+      <c r="G16" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="H16" s="32" t="s">
+      <c r="H16" s="29" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="31" t="s">
+      <c r="A17" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="31"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="31" t="s">
+      <c r="B17" s="28"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="G17" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="H17" s="31" t="s">
+      <c r="G17" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="H17" s="28" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="31" t="s">
+      <c r="A18" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="31"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31" t="s">
+      <c r="B18" s="28"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="G18" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="H18" s="31" t="s">
+      <c r="G18" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="H18" s="28" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="31" t="s">
+      <c r="A19" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="31"/>
-      <c r="C19" s="31"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31" t="s">
+      <c r="B19" s="28"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="G19" s="31" t="s">
+      <c r="G19" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="H19" s="31"/>
+      <c r="H19" s="28"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="31" t="s">
+      <c r="A20" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="B20" s="28"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="B20" s="31"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="31" t="s">
-        <v>97</v>
-      </c>
-      <c r="G20" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="H20" s="31" t="s">
+      <c r="G20" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="H20" s="28" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="31" t="s">
-        <v>92</v>
-      </c>
-      <c r="B21" s="31"/>
-      <c r="C21" s="31" t="s">
+      <c r="A21" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="B21" s="28"/>
+      <c r="C21" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="D21" s="31"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="31" t="s">
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="G21" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="H21" s="31" t="s">
+      <c r="G21" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="H21" s="28" t="s">
         <v>37</v>
       </c>
     </row>
@@ -5389,32 +5453,32 @@
       </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="34" t="s">
+        <v>116</v>
+      </c>
+      <c r="B23" s="72"/>
+      <c r="C23" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="D23" s="72"/>
+      <c r="E23" s="72"/>
+      <c r="F23" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="G23" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="H23" s="34" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="8" t="s">
         <v>44</v>
-      </c>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D23" s="10"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="G23" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H23" s="8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="9" t="s">
-        <v>46</v>
       </c>
       <c r="B24" s="8"/>
       <c r="C24" s="8" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D24" s="10"/>
       <c r="E24" s="8"/>
@@ -5422,84 +5486,84 @@
         <v>27</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="H24" s="9" t="s">
-        <v>48</v>
+        <v>21</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="8" t="s">
-        <v>49</v>
+      <c r="A25" s="9" t="s">
+        <v>46</v>
       </c>
       <c r="B25" s="8"/>
       <c r="C25" s="8" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D25" s="10"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H25" s="8" t="s">
-        <v>65</v>
+        <v>32</v>
+      </c>
+      <c r="H25" s="9" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="9" t="s">
-        <v>51</v>
+      <c r="A26" s="8" t="s">
+        <v>49</v>
       </c>
       <c r="B26" s="8"/>
-      <c r="C26" s="9" t="s">
-        <v>52</v>
+      <c r="C26" s="8" t="s">
+        <v>50</v>
       </c>
       <c r="D26" s="10"/>
       <c r="E26" s="8"/>
-      <c r="F26" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="G26" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="H26" s="9" t="s">
+      <c r="F26" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="9" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="8" t="s">
-        <v>53</v>
-      </c>
       <c r="B27" s="8"/>
-      <c r="C27" s="8" t="s">
-        <v>54</v>
+      <c r="C27" s="9" t="s">
+        <v>52</v>
       </c>
       <c r="D27" s="10"/>
       <c r="E27" s="8"/>
-      <c r="F27" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="G27" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H27" s="8" t="s">
-        <v>56</v>
+      <c r="F27" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H27" s="9" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="8" t="s">
-        <v>57</v>
+      <c r="A28" s="73" t="s">
+        <v>119</v>
       </c>
       <c r="B28" s="8"/>
       <c r="C28" s="8" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D28" s="10"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="G28" s="8" t="s">
         <v>21</v>
@@ -5509,35 +5573,37 @@
       </c>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="8" t="s">
-        <v>59</v>
+      <c r="A29" s="73" t="s">
+        <v>120</v>
       </c>
       <c r="B29" s="8"/>
       <c r="C29" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D29" s="10"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="H29" s="8"/>
+        <v>21</v>
+      </c>
+      <c r="H29" s="8" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B30" s="8"/>
       <c r="C30" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D30" s="10"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="G30" s="8" t="s">
         <v>32</v>
@@ -5545,174 +5611,192 @@
       <c r="H30" s="8"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="31" t="s">
+      <c r="A31" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D31" s="10"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H31" s="8"/>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="B31" s="31"/>
-      <c r="C31" s="31" t="s">
+      <c r="B32" s="34"/>
+      <c r="C32" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="D31" s="31"/>
-      <c r="E31" s="31"/>
-      <c r="F31" s="31" t="s">
+      <c r="D32" s="34"/>
+      <c r="E32" s="34"/>
+      <c r="F32" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="G31" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="H31" s="31" t="s">
+      <c r="G32" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="H32" s="34" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="31" t="s">
+    <row r="33" spans="1:8">
+      <c r="A33" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="B32" s="31"/>
-      <c r="C32" s="31" t="s">
+      <c r="B33" s="34"/>
+      <c r="C33" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="D32" s="31"/>
-      <c r="E32" s="31"/>
-      <c r="F32" s="31" t="s">
+      <c r="D33" s="34"/>
+      <c r="E33" s="34"/>
+      <c r="F33" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="G32" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="H32" s="31" t="s">
+      <c r="G33" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="H33" s="34" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="31" t="s">
+    <row r="34" spans="1:8" ht="16" customHeight="1">
+      <c r="A34" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="B33" s="31"/>
-      <c r="C33" s="31" t="s">
+      <c r="B34" s="34"/>
+      <c r="C34" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31" t="s">
+      <c r="D34" s="34"/>
+      <c r="E34" s="34"/>
+      <c r="F34" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="G33" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="H33" s="31" t="s">
+      <c r="G34" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="H34" s="34" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="16" customHeight="1">
-      <c r="A34" s="31" t="s">
+    <row r="35" spans="1:8" ht="18" customHeight="1">
+      <c r="A35" s="34" t="s">
+        <v>97</v>
+      </c>
+      <c r="B35" s="33"/>
+      <c r="C35" s="33"/>
+      <c r="D35" s="33"/>
+      <c r="E35" s="33"/>
+      <c r="F35" s="33"/>
+      <c r="G35" s="33"/>
+      <c r="H35" s="33"/>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="34" t="s">
+        <v>98</v>
+      </c>
+      <c r="B36" s="33"/>
+      <c r="C36" s="31" t="s">
         <v>99</v>
       </c>
-      <c r="B34" s="30"/>
-      <c r="C34" s="30"/>
-      <c r="D34" s="30"/>
-      <c r="E34" s="30"/>
-      <c r="F34" s="30"/>
-      <c r="G34" s="30"/>
-      <c r="H34" s="30"/>
-    </row>
-    <row r="35" spans="1:8" ht="18" customHeight="1">
-      <c r="A35" s="31" t="s">
+      <c r="D36" s="33"/>
+      <c r="E36" s="33"/>
+      <c r="F36" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="G36" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="H36" s="31"/>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="B35" s="30"/>
-      <c r="C35" s="34" t="s">
+      <c r="B37" s="33"/>
+      <c r="C37" s="32" t="s">
         <v>101</v>
       </c>
-      <c r="D35" s="30"/>
-      <c r="E35" s="30"/>
-      <c r="F35" s="31" t="s">
+      <c r="D37" s="33"/>
+      <c r="E37" s="33"/>
+      <c r="F37" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="G35" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="H35" s="34"/>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="A36" s="31" t="s">
+      <c r="G37" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="H37" s="31"/>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="34" t="s">
         <v>102</v>
       </c>
-      <c r="B36" s="30"/>
-      <c r="C36" s="35" t="s">
+      <c r="B38" s="33"/>
+      <c r="C38" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="D36" s="30"/>
-      <c r="E36" s="30"/>
-      <c r="F36" s="31" t="s">
+      <c r="D38" s="33"/>
+      <c r="E38" s="33"/>
+      <c r="F38" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="G36" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="H36" s="34"/>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="A37" s="31" t="s">
+      <c r="G38" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="H38" s="31"/>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="B37" s="30"/>
-      <c r="C37" s="35" t="s">
+      <c r="B39" s="33"/>
+      <c r="C39" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="D37" s="30"/>
-      <c r="E37" s="30"/>
-      <c r="F37" s="31" t="s">
+      <c r="D39" s="33"/>
+      <c r="E39" s="33"/>
+      <c r="F39" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="G37" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="H37" s="34"/>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="A38" s="31" t="s">
+      <c r="G39" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="H39" s="31" t="s">
         <v>106</v>
       </c>
-      <c r="B38" s="30"/>
-      <c r="C38" s="35" t="s">
-        <v>107</v>
-      </c>
-      <c r="D38" s="30"/>
-      <c r="E38" s="30"/>
-      <c r="F38" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="G38" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="H38" s="34" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="A39" s="43" t="s">
+    </row>
+    <row r="40" spans="1:8" ht="17" customHeight="1">
+      <c r="A40" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="B39" s="44"/>
-      <c r="C39" s="44"/>
-      <c r="D39" s="44"/>
-      <c r="E39" s="44"/>
-      <c r="F39" s="44"/>
-      <c r="G39" s="44"/>
-      <c r="H39" s="45"/>
-    </row>
-    <row r="40" spans="1:8" ht="371" customHeight="1">
-      <c r="A40" s="59" t="s">
-        <v>98</v>
-      </c>
-      <c r="B40" s="60"/>
-      <c r="C40" s="60"/>
-      <c r="D40" s="60"/>
-      <c r="E40" s="60"/>
-      <c r="F40" s="60"/>
-      <c r="G40" s="60"/>
-      <c r="H40" s="61"/>
+      <c r="B40" s="50"/>
+      <c r="C40" s="50"/>
+      <c r="D40" s="50"/>
+      <c r="E40" s="50"/>
+      <c r="F40" s="50"/>
+      <c r="G40" s="50"/>
+      <c r="H40" s="51"/>
+    </row>
+    <row r="41" spans="1:8" ht="409.6" customHeight="1">
+      <c r="A41" s="41" t="s">
+        <v>122</v>
+      </c>
+      <c r="B41" s="42"/>
+      <c r="C41" s="42"/>
+      <c r="D41" s="42"/>
+      <c r="E41" s="42"/>
+      <c r="F41" s="42"/>
+      <c r="G41" s="42"/>
+      <c r="H41" s="43"/>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="11"/>
@@ -5775,84 +5859,84 @@
       <c r="H48" s="12"/>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="33"/>
-      <c r="B49" s="33"/>
-      <c r="C49" s="33"/>
-      <c r="D49" s="33"/>
-      <c r="E49" s="33"/>
-      <c r="F49" s="33"/>
-      <c r="G49" s="33"/>
-      <c r="H49" s="33"/>
+      <c r="A49" s="30"/>
+      <c r="B49" s="30"/>
+      <c r="C49" s="30"/>
+      <c r="D49" s="30"/>
+      <c r="E49" s="30"/>
+      <c r="F49" s="30"/>
+      <c r="G49" s="30"/>
+      <c r="H49" s="30"/>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="33"/>
-      <c r="B50" s="33"/>
+      <c r="A50" s="30"/>
+      <c r="B50" s="30"/>
       <c r="C50" s="14"/>
-      <c r="D50" s="33"/>
-      <c r="E50" s="33"/>
-      <c r="F50" s="33"/>
-      <c r="G50" s="33"/>
-      <c r="H50" s="33"/>
+      <c r="D50" s="30"/>
+      <c r="E50" s="30"/>
+      <c r="F50" s="30"/>
+      <c r="G50" s="30"/>
+      <c r="H50" s="30"/>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="33"/>
-      <c r="B51" s="33"/>
+      <c r="A51" s="30"/>
+      <c r="B51" s="30"/>
       <c r="C51" s="14"/>
-      <c r="D51" s="33"/>
-      <c r="E51" s="33"/>
-      <c r="F51" s="33"/>
-      <c r="G51" s="33"/>
-      <c r="H51" s="33"/>
+      <c r="D51" s="30"/>
+      <c r="E51" s="30"/>
+      <c r="F51" s="30"/>
+      <c r="G51" s="30"/>
+      <c r="H51" s="30"/>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="33"/>
-      <c r="B52" s="33"/>
+      <c r="A52" s="30"/>
+      <c r="B52" s="30"/>
       <c r="C52" s="14"/>
-      <c r="D52" s="33"/>
-      <c r="E52" s="33"/>
-      <c r="F52" s="33"/>
-      <c r="G52" s="33"/>
-      <c r="H52" s="33"/>
+      <c r="D52" s="30"/>
+      <c r="E52" s="30"/>
+      <c r="F52" s="30"/>
+      <c r="G52" s="30"/>
+      <c r="H52" s="30"/>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="33"/>
-      <c r="B53" s="33"/>
+      <c r="A53" s="30"/>
+      <c r="B53" s="30"/>
       <c r="C53" s="14"/>
-      <c r="D53" s="33"/>
-      <c r="E53" s="33"/>
-      <c r="F53" s="33"/>
-      <c r="G53" s="33"/>
-      <c r="H53" s="33"/>
+      <c r="D53" s="30"/>
+      <c r="E53" s="30"/>
+      <c r="F53" s="30"/>
+      <c r="G53" s="30"/>
+      <c r="H53" s="30"/>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="33"/>
-      <c r="B54" s="33"/>
+      <c r="A54" s="30"/>
+      <c r="B54" s="30"/>
       <c r="C54" s="14"/>
-      <c r="D54" s="33"/>
-      <c r="E54" s="33"/>
-      <c r="F54" s="33"/>
-      <c r="G54" s="33"/>
-      <c r="H54" s="33"/>
+      <c r="D54" s="30"/>
+      <c r="E54" s="30"/>
+      <c r="F54" s="30"/>
+      <c r="G54" s="30"/>
+      <c r="H54" s="30"/>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="33"/>
-      <c r="B55" s="33"/>
+      <c r="A55" s="30"/>
+      <c r="B55" s="30"/>
       <c r="C55" s="14"/>
-      <c r="D55" s="33"/>
-      <c r="E55" s="33"/>
-      <c r="F55" s="33"/>
-      <c r="G55" s="33"/>
-      <c r="H55" s="33"/>
+      <c r="D55" s="30"/>
+      <c r="E55" s="30"/>
+      <c r="F55" s="30"/>
+      <c r="G55" s="30"/>
+      <c r="H55" s="30"/>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="33"/>
-      <c r="B56" s="33"/>
+      <c r="A56" s="30"/>
+      <c r="B56" s="30"/>
       <c r="C56" s="14"/>
-      <c r="D56" s="33"/>
-      <c r="E56" s="33"/>
-      <c r="F56" s="33"/>
-      <c r="G56" s="33"/>
-      <c r="H56" s="33"/>
+      <c r="D56" s="30"/>
+      <c r="E56" s="30"/>
+      <c r="F56" s="30"/>
+      <c r="G56" s="30"/>
+      <c r="H56" s="30"/>
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="15"/>
@@ -5885,54 +5969,54 @@
       <c r="H59" s="15"/>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="33"/>
-      <c r="B60" s="33"/>
+      <c r="A60" s="30"/>
+      <c r="B60" s="30"/>
       <c r="C60" s="14"/>
-      <c r="D60" s="33"/>
-      <c r="E60" s="33"/>
-      <c r="F60" s="33"/>
-      <c r="G60" s="33"/>
-      <c r="H60" s="33"/>
+      <c r="D60" s="30"/>
+      <c r="E60" s="30"/>
+      <c r="F60" s="30"/>
+      <c r="G60" s="30"/>
+      <c r="H60" s="30"/>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="33"/>
-      <c r="B61" s="33"/>
+      <c r="A61" s="30"/>
+      <c r="B61" s="30"/>
       <c r="C61" s="14"/>
-      <c r="D61" s="33"/>
-      <c r="E61" s="33"/>
-      <c r="F61" s="33"/>
-      <c r="G61" s="33"/>
-      <c r="H61" s="33"/>
+      <c r="D61" s="30"/>
+      <c r="E61" s="30"/>
+      <c r="F61" s="30"/>
+      <c r="G61" s="30"/>
+      <c r="H61" s="30"/>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="33"/>
-      <c r="B62" s="33"/>
+      <c r="A62" s="30"/>
+      <c r="B62" s="30"/>
       <c r="C62" s="14"/>
-      <c r="D62" s="33"/>
-      <c r="E62" s="33"/>
-      <c r="F62" s="33"/>
-      <c r="G62" s="33"/>
-      <c r="H62" s="33"/>
+      <c r="D62" s="30"/>
+      <c r="E62" s="30"/>
+      <c r="F62" s="30"/>
+      <c r="G62" s="30"/>
+      <c r="H62" s="30"/>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="33"/>
-      <c r="B63" s="33"/>
+      <c r="A63" s="30"/>
+      <c r="B63" s="30"/>
       <c r="C63" s="14"/>
-      <c r="D63" s="33"/>
-      <c r="E63" s="33"/>
-      <c r="F63" s="33"/>
-      <c r="G63" s="33"/>
-      <c r="H63" s="33"/>
+      <c r="D63" s="30"/>
+      <c r="E63" s="30"/>
+      <c r="F63" s="30"/>
+      <c r="G63" s="30"/>
+      <c r="H63" s="30"/>
     </row>
     <row r="64" spans="1:8">
-      <c r="A64" s="33"/>
-      <c r="B64" s="33"/>
+      <c r="A64" s="30"/>
+      <c r="B64" s="30"/>
       <c r="C64" s="14"/>
-      <c r="D64" s="33"/>
-      <c r="E64" s="33"/>
-      <c r="F64" s="33"/>
-      <c r="G64" s="33"/>
-      <c r="H64" s="33"/>
+      <c r="D64" s="30"/>
+      <c r="E64" s="30"/>
+      <c r="F64" s="30"/>
+      <c r="G64" s="30"/>
+      <c r="H64" s="30"/>
     </row>
     <row r="67" spans="1:8">
       <c r="A67" s="7"/>
@@ -6216,7 +6300,13 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A39:H39"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="A41:H41"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B5:H5"/>
     <mergeCell ref="A40:H40"/>
     <mergeCell ref="B7:H7"/>
     <mergeCell ref="A11:H11"/>
@@ -6224,12 +6314,6 @@
     <mergeCell ref="A13:H13"/>
     <mergeCell ref="A14:H14"/>
     <mergeCell ref="B15:H15"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="A6:H6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -6244,8 +6328,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E82CB342-CDAF-4540-938F-0D56493F6113}">
   <dimension ref="A1:H94"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:H12"/>
+    <sheetView topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41:H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.25" defaultRowHeight="17"/>
@@ -6260,95 +6344,95 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47" t="s">
-        <v>113</v>
-      </c>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
+      <c r="B1" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="47" t="s">
-        <v>110</v>
-      </c>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
+      <c r="B3" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="49"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="3" t="s">
@@ -6377,198 +6461,198 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A9" s="31"/>
-      <c r="B9" s="31"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
+      <c r="A9" s="28"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
     </row>
     <row r="10" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A10" s="30"/>
-      <c r="B10" s="30"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
+      <c r="A10" s="27"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A11" s="39" t="s">
+      <c r="A11" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="38"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="38"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="37"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="40" t="s">
-        <v>111</v>
-      </c>
-      <c r="B12" s="38"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="38"/>
+      <c r="A12" s="46" t="s">
+        <v>109</v>
+      </c>
+      <c r="B12" s="37"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="37"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="41"/>
-      <c r="B13" s="38"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="38"/>
+      <c r="A13" s="47"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="37"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="42" t="s">
+      <c r="A14" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="38"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="38"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="37"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="32" t="s">
+      <c r="A15" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="37" t="s">
+      <c r="B15" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="38"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="37"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="32" t="s">
+      <c r="A16" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="32" t="s">
+      <c r="B16" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="32" t="s">
+      <c r="C16" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="32" t="s">
+      <c r="D16" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="32" t="s">
+      <c r="E16" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="F16" s="32" t="s">
+      <c r="F16" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="G16" s="32" t="s">
+      <c r="G16" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="H16" s="32" t="s">
+      <c r="H16" s="29" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="31" t="s">
+      <c r="A17" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="31"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="31" t="s">
+      <c r="B17" s="28"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="G17" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="H17" s="31" t="s">
+      <c r="G17" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="H17" s="28" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="31" t="s">
+      <c r="A18" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="31"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31" t="s">
+      <c r="B18" s="28"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="G18" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="H18" s="31" t="s">
+      <c r="G18" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="H18" s="28" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="31" t="s">
+      <c r="A19" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="31"/>
-      <c r="C19" s="31"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31" t="s">
+      <c r="B19" s="28"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="G19" s="31" t="s">
+      <c r="G19" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="H19" s="31"/>
+      <c r="H19" s="28"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="31" t="s">
+      <c r="A20" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="B20" s="28"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="B20" s="31"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="31" t="s">
-        <v>97</v>
-      </c>
-      <c r="G20" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="H20" s="31" t="s">
+      <c r="G20" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="H20" s="28" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="31" t="s">
-        <v>92</v>
-      </c>
-      <c r="B21" s="31"/>
-      <c r="C21" s="31" t="s">
+      <c r="A21" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="B21" s="28"/>
+      <c r="C21" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="D21" s="31"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="31" t="s">
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="G21" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="H21" s="31" t="s">
+      <c r="G21" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="H21" s="28" t="s">
         <v>37</v>
       </c>
     </row>
@@ -6593,32 +6677,32 @@
       </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="34" t="s">
+        <v>116</v>
+      </c>
+      <c r="B23" s="72"/>
+      <c r="C23" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="D23" s="72"/>
+      <c r="E23" s="72"/>
+      <c r="F23" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="G23" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="H23" s="34" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="8" t="s">
         <v>44</v>
-      </c>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D23" s="10"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="G23" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H23" s="8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="9" t="s">
-        <v>46</v>
       </c>
       <c r="B24" s="8"/>
       <c r="C24" s="8" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D24" s="10"/>
       <c r="E24" s="8"/>
@@ -6626,84 +6710,84 @@
         <v>27</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="H24" s="9" t="s">
-        <v>48</v>
+        <v>21</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="8" t="s">
-        <v>49</v>
+      <c r="A25" s="9" t="s">
+        <v>46</v>
       </c>
       <c r="B25" s="8"/>
       <c r="C25" s="8" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D25" s="10"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H25" s="8" t="s">
-        <v>65</v>
+        <v>32</v>
+      </c>
+      <c r="H25" s="9" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="9" t="s">
-        <v>51</v>
+      <c r="A26" s="8" t="s">
+        <v>49</v>
       </c>
       <c r="B26" s="8"/>
-      <c r="C26" s="9" t="s">
-        <v>52</v>
+      <c r="C26" s="8" t="s">
+        <v>50</v>
       </c>
       <c r="D26" s="10"/>
       <c r="E26" s="8"/>
-      <c r="F26" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="G26" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="H26" s="9" t="s">
+      <c r="F26" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="9" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="8" t="s">
-        <v>53</v>
-      </c>
       <c r="B27" s="8"/>
-      <c r="C27" s="8" t="s">
-        <v>54</v>
+      <c r="C27" s="9" t="s">
+        <v>52</v>
       </c>
       <c r="D27" s="10"/>
       <c r="E27" s="8"/>
-      <c r="F27" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="G27" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H27" s="8" t="s">
-        <v>56</v>
+      <c r="F27" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H27" s="9" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="8" t="s">
-        <v>57</v>
+      <c r="A28" s="73" t="s">
+        <v>119</v>
       </c>
       <c r="B28" s="8"/>
       <c r="C28" s="8" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D28" s="10"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="G28" s="8" t="s">
         <v>21</v>
@@ -6713,35 +6797,37 @@
       </c>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="8" t="s">
-        <v>59</v>
+      <c r="A29" s="73" t="s">
+        <v>120</v>
       </c>
       <c r="B29" s="8"/>
       <c r="C29" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D29" s="10"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="H29" s="8"/>
+        <v>21</v>
+      </c>
+      <c r="H29" s="8" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B30" s="8"/>
       <c r="C30" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D30" s="10"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="G30" s="8" t="s">
         <v>32</v>
@@ -6749,174 +6835,192 @@
       <c r="H30" s="8"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="31" t="s">
+      <c r="A31" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D31" s="10"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H31" s="8"/>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="B31" s="31"/>
-      <c r="C31" s="31" t="s">
+      <c r="B32" s="34"/>
+      <c r="C32" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="D31" s="31"/>
-      <c r="E31" s="31"/>
-      <c r="F31" s="31" t="s">
+      <c r="D32" s="34"/>
+      <c r="E32" s="34"/>
+      <c r="F32" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="G31" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="H31" s="31" t="s">
+      <c r="G32" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="H32" s="34" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="31" t="s">
+    <row r="33" spans="1:8">
+      <c r="A33" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="B32" s="31"/>
-      <c r="C32" s="31" t="s">
+      <c r="B33" s="34"/>
+      <c r="C33" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="D32" s="31"/>
-      <c r="E32" s="31"/>
-      <c r="F32" s="31" t="s">
+      <c r="D33" s="34"/>
+      <c r="E33" s="34"/>
+      <c r="F33" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="G32" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="H32" s="31" t="s">
+      <c r="G33" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="H33" s="34" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="31" t="s">
+    <row r="34" spans="1:8" ht="16" customHeight="1">
+      <c r="A34" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="B33" s="31"/>
-      <c r="C33" s="31" t="s">
+      <c r="B34" s="34"/>
+      <c r="C34" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31" t="s">
+      <c r="D34" s="34"/>
+      <c r="E34" s="34"/>
+      <c r="F34" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="G33" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="H33" s="31" t="s">
+      <c r="G34" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="H34" s="34" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="16" customHeight="1">
-      <c r="A34" s="31" t="s">
+    <row r="35" spans="1:8" ht="18" customHeight="1">
+      <c r="A35" s="34" t="s">
+        <v>97</v>
+      </c>
+      <c r="B35" s="33"/>
+      <c r="C35" s="33"/>
+      <c r="D35" s="33"/>
+      <c r="E35" s="33"/>
+      <c r="F35" s="33"/>
+      <c r="G35" s="33"/>
+      <c r="H35" s="33"/>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="34" t="s">
+        <v>98</v>
+      </c>
+      <c r="B36" s="33"/>
+      <c r="C36" s="31" t="s">
         <v>99</v>
       </c>
-      <c r="B34" s="30"/>
-      <c r="C34" s="30"/>
-      <c r="D34" s="30"/>
-      <c r="E34" s="30"/>
-      <c r="F34" s="30"/>
-      <c r="G34" s="30"/>
-      <c r="H34" s="30"/>
-    </row>
-    <row r="35" spans="1:8" ht="18" customHeight="1">
-      <c r="A35" s="31" t="s">
+      <c r="D36" s="33"/>
+      <c r="E36" s="33"/>
+      <c r="F36" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="G36" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="H36" s="31"/>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="B35" s="30"/>
-      <c r="C35" s="34" t="s">
+      <c r="B37" s="33"/>
+      <c r="C37" s="32" t="s">
         <v>101</v>
       </c>
-      <c r="D35" s="30"/>
-      <c r="E35" s="30"/>
-      <c r="F35" s="31" t="s">
+      <c r="D37" s="33"/>
+      <c r="E37" s="33"/>
+      <c r="F37" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="G35" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="H35" s="34"/>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="A36" s="31" t="s">
+      <c r="G37" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="H37" s="31"/>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="34" t="s">
         <v>102</v>
       </c>
-      <c r="B36" s="30"/>
-      <c r="C36" s="35" t="s">
+      <c r="B38" s="33"/>
+      <c r="C38" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="D36" s="30"/>
-      <c r="E36" s="30"/>
-      <c r="F36" s="31" t="s">
+      <c r="D38" s="33"/>
+      <c r="E38" s="33"/>
+      <c r="F38" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="G36" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="H36" s="34"/>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="A37" s="31" t="s">
+      <c r="G38" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="H38" s="31"/>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="B37" s="30"/>
-      <c r="C37" s="35" t="s">
+      <c r="B39" s="33"/>
+      <c r="C39" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="D37" s="30"/>
-      <c r="E37" s="30"/>
-      <c r="F37" s="31" t="s">
+      <c r="D39" s="33"/>
+      <c r="E39" s="33"/>
+      <c r="F39" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="G37" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="H37" s="34"/>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="A38" s="31" t="s">
+      <c r="G39" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="H39" s="31" t="s">
         <v>106</v>
       </c>
-      <c r="B38" s="30"/>
-      <c r="C38" s="35" t="s">
-        <v>107</v>
-      </c>
-      <c r="D38" s="30"/>
-      <c r="E38" s="30"/>
-      <c r="F38" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="G38" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="H38" s="34" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="A39" s="43" t="s">
+    </row>
+    <row r="40" spans="1:8" ht="17" customHeight="1">
+      <c r="A40" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="B39" s="44"/>
-      <c r="C39" s="44"/>
-      <c r="D39" s="44"/>
-      <c r="E39" s="44"/>
-      <c r="F39" s="44"/>
-      <c r="G39" s="44"/>
-      <c r="H39" s="45"/>
-    </row>
-    <row r="40" spans="1:8" ht="371" customHeight="1">
-      <c r="A40" s="59" t="s">
-        <v>98</v>
-      </c>
-      <c r="B40" s="60"/>
-      <c r="C40" s="60"/>
-      <c r="D40" s="60"/>
-      <c r="E40" s="60"/>
-      <c r="F40" s="60"/>
-      <c r="G40" s="60"/>
-      <c r="H40" s="61"/>
+      <c r="B40" s="50"/>
+      <c r="C40" s="50"/>
+      <c r="D40" s="50"/>
+      <c r="E40" s="50"/>
+      <c r="F40" s="50"/>
+      <c r="G40" s="50"/>
+      <c r="H40" s="51"/>
+    </row>
+    <row r="41" spans="1:8" ht="409.6" customHeight="1">
+      <c r="A41" s="41" t="s">
+        <v>122</v>
+      </c>
+      <c r="B41" s="42"/>
+      <c r="C41" s="42"/>
+      <c r="D41" s="42"/>
+      <c r="E41" s="42"/>
+      <c r="F41" s="42"/>
+      <c r="G41" s="42"/>
+      <c r="H41" s="43"/>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="11"/>
@@ -6979,84 +7083,84 @@
       <c r="H48" s="12"/>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="33"/>
-      <c r="B49" s="33"/>
-      <c r="C49" s="33"/>
-      <c r="D49" s="33"/>
-      <c r="E49" s="33"/>
-      <c r="F49" s="33"/>
-      <c r="G49" s="33"/>
-      <c r="H49" s="33"/>
+      <c r="A49" s="30"/>
+      <c r="B49" s="30"/>
+      <c r="C49" s="30"/>
+      <c r="D49" s="30"/>
+      <c r="E49" s="30"/>
+      <c r="F49" s="30"/>
+      <c r="G49" s="30"/>
+      <c r="H49" s="30"/>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="33"/>
-      <c r="B50" s="33"/>
+      <c r="A50" s="30"/>
+      <c r="B50" s="30"/>
       <c r="C50" s="14"/>
-      <c r="D50" s="33"/>
-      <c r="E50" s="33"/>
-      <c r="F50" s="33"/>
-      <c r="G50" s="33"/>
-      <c r="H50" s="33"/>
+      <c r="D50" s="30"/>
+      <c r="E50" s="30"/>
+      <c r="F50" s="30"/>
+      <c r="G50" s="30"/>
+      <c r="H50" s="30"/>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="33"/>
-      <c r="B51" s="33"/>
+      <c r="A51" s="30"/>
+      <c r="B51" s="30"/>
       <c r="C51" s="14"/>
-      <c r="D51" s="33"/>
-      <c r="E51" s="33"/>
-      <c r="F51" s="33"/>
-      <c r="G51" s="33"/>
-      <c r="H51" s="33"/>
+      <c r="D51" s="30"/>
+      <c r="E51" s="30"/>
+      <c r="F51" s="30"/>
+      <c r="G51" s="30"/>
+      <c r="H51" s="30"/>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="33"/>
-      <c r="B52" s="33"/>
+      <c r="A52" s="30"/>
+      <c r="B52" s="30"/>
       <c r="C52" s="14"/>
-      <c r="D52" s="33"/>
-      <c r="E52" s="33"/>
-      <c r="F52" s="33"/>
-      <c r="G52" s="33"/>
-      <c r="H52" s="33"/>
+      <c r="D52" s="30"/>
+      <c r="E52" s="30"/>
+      <c r="F52" s="30"/>
+      <c r="G52" s="30"/>
+      <c r="H52" s="30"/>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="33"/>
-      <c r="B53" s="33"/>
+      <c r="A53" s="30"/>
+      <c r="B53" s="30"/>
       <c r="C53" s="14"/>
-      <c r="D53" s="33"/>
-      <c r="E53" s="33"/>
-      <c r="F53" s="33"/>
-      <c r="G53" s="33"/>
-      <c r="H53" s="33"/>
+      <c r="D53" s="30"/>
+      <c r="E53" s="30"/>
+      <c r="F53" s="30"/>
+      <c r="G53" s="30"/>
+      <c r="H53" s="30"/>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="33"/>
-      <c r="B54" s="33"/>
+      <c r="A54" s="30"/>
+      <c r="B54" s="30"/>
       <c r="C54" s="14"/>
-      <c r="D54" s="33"/>
-      <c r="E54" s="33"/>
-      <c r="F54" s="33"/>
-      <c r="G54" s="33"/>
-      <c r="H54" s="33"/>
+      <c r="D54" s="30"/>
+      <c r="E54" s="30"/>
+      <c r="F54" s="30"/>
+      <c r="G54" s="30"/>
+      <c r="H54" s="30"/>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="33"/>
-      <c r="B55" s="33"/>
+      <c r="A55" s="30"/>
+      <c r="B55" s="30"/>
       <c r="C55" s="14"/>
-      <c r="D55" s="33"/>
-      <c r="E55" s="33"/>
-      <c r="F55" s="33"/>
-      <c r="G55" s="33"/>
-      <c r="H55" s="33"/>
+      <c r="D55" s="30"/>
+      <c r="E55" s="30"/>
+      <c r="F55" s="30"/>
+      <c r="G55" s="30"/>
+      <c r="H55" s="30"/>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="33"/>
-      <c r="B56" s="33"/>
+      <c r="A56" s="30"/>
+      <c r="B56" s="30"/>
       <c r="C56" s="14"/>
-      <c r="D56" s="33"/>
-      <c r="E56" s="33"/>
-      <c r="F56" s="33"/>
-      <c r="G56" s="33"/>
-      <c r="H56" s="33"/>
+      <c r="D56" s="30"/>
+      <c r="E56" s="30"/>
+      <c r="F56" s="30"/>
+      <c r="G56" s="30"/>
+      <c r="H56" s="30"/>
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="15"/>
@@ -7089,54 +7193,54 @@
       <c r="H59" s="15"/>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="33"/>
-      <c r="B60" s="33"/>
+      <c r="A60" s="30"/>
+      <c r="B60" s="30"/>
       <c r="C60" s="14"/>
-      <c r="D60" s="33"/>
-      <c r="E60" s="33"/>
-      <c r="F60" s="33"/>
-      <c r="G60" s="33"/>
-      <c r="H60" s="33"/>
+      <c r="D60" s="30"/>
+      <c r="E60" s="30"/>
+      <c r="F60" s="30"/>
+      <c r="G60" s="30"/>
+      <c r="H60" s="30"/>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="33"/>
-      <c r="B61" s="33"/>
+      <c r="A61" s="30"/>
+      <c r="B61" s="30"/>
       <c r="C61" s="14"/>
-      <c r="D61" s="33"/>
-      <c r="E61" s="33"/>
-      <c r="F61" s="33"/>
-      <c r="G61" s="33"/>
-      <c r="H61" s="33"/>
+      <c r="D61" s="30"/>
+      <c r="E61" s="30"/>
+      <c r="F61" s="30"/>
+      <c r="G61" s="30"/>
+      <c r="H61" s="30"/>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="33"/>
-      <c r="B62" s="33"/>
+      <c r="A62" s="30"/>
+      <c r="B62" s="30"/>
       <c r="C62" s="14"/>
-      <c r="D62" s="33"/>
-      <c r="E62" s="33"/>
-      <c r="F62" s="33"/>
-      <c r="G62" s="33"/>
-      <c r="H62" s="33"/>
+      <c r="D62" s="30"/>
+      <c r="E62" s="30"/>
+      <c r="F62" s="30"/>
+      <c r="G62" s="30"/>
+      <c r="H62" s="30"/>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="33"/>
-      <c r="B63" s="33"/>
+      <c r="A63" s="30"/>
+      <c r="B63" s="30"/>
       <c r="C63" s="14"/>
-      <c r="D63" s="33"/>
-      <c r="E63" s="33"/>
-      <c r="F63" s="33"/>
-      <c r="G63" s="33"/>
-      <c r="H63" s="33"/>
+      <c r="D63" s="30"/>
+      <c r="E63" s="30"/>
+      <c r="F63" s="30"/>
+      <c r="G63" s="30"/>
+      <c r="H63" s="30"/>
     </row>
     <row r="64" spans="1:8">
-      <c r="A64" s="33"/>
-      <c r="B64" s="33"/>
+      <c r="A64" s="30"/>
+      <c r="B64" s="30"/>
       <c r="C64" s="14"/>
-      <c r="D64" s="33"/>
-      <c r="E64" s="33"/>
-      <c r="F64" s="33"/>
-      <c r="G64" s="33"/>
-      <c r="H64" s="33"/>
+      <c r="D64" s="30"/>
+      <c r="E64" s="30"/>
+      <c r="F64" s="30"/>
+      <c r="G64" s="30"/>
+      <c r="H64" s="30"/>
     </row>
     <row r="67" spans="1:8">
       <c r="A67" s="7"/>
@@ -7420,7 +7524,13 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A39:H39"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="A41:H41"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B5:H5"/>
     <mergeCell ref="A40:H40"/>
     <mergeCell ref="B7:H7"/>
     <mergeCell ref="A11:H11"/>
@@ -7428,12 +7538,6 @@
     <mergeCell ref="A13:H13"/>
     <mergeCell ref="A14:H14"/>
     <mergeCell ref="B15:H15"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="A6:H6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -7448,8 +7552,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA89CF2D-BC52-4BF4-868E-5B8B099A5517}">
   <dimension ref="A1:H94"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34:XFD34"/>
+    <sheetView topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36:H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.25" defaultRowHeight="17"/>
@@ -7464,95 +7568,95 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47" t="s">
-        <v>86</v>
-      </c>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
+      <c r="B1" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="50" t="s">
-        <v>93</v>
-      </c>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="52"/>
+      <c r="B3" s="52" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="54"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="49"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="3" t="s">
@@ -7611,64 +7715,64 @@
       <c r="H10" s="5"/>
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A11" s="39" t="s">
+      <c r="A11" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="38"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="38"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="37"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="40" t="s">
-        <v>94</v>
-      </c>
-      <c r="B12" s="38"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="38"/>
+      <c r="A12" s="46" t="s">
+        <v>93</v>
+      </c>
+      <c r="B12" s="37"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="37"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="41"/>
-      <c r="B13" s="38"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="38"/>
+      <c r="A13" s="47"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="37"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="42" t="s">
+      <c r="A14" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="38"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="38"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="37"/>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="37" t="s">
+      <c r="B15" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="38"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="37"/>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="6" t="s">
@@ -7768,7 +7872,7 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B21" s="4"/>
       <c r="C21" s="4" t="s">
@@ -7807,32 +7911,32 @@
       </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="34" t="s">
+        <v>116</v>
+      </c>
+      <c r="B23" s="72"/>
+      <c r="C23" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="D23" s="72"/>
+      <c r="E23" s="72"/>
+      <c r="F23" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="G23" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="H23" s="34" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="8" t="s">
         <v>44</v>
-      </c>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D23" s="10"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="G23" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H23" s="8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="9" t="s">
-        <v>46</v>
       </c>
       <c r="B24" s="8"/>
       <c r="C24" s="8" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D24" s="10"/>
       <c r="E24" s="8"/>
@@ -7840,84 +7944,84 @@
         <v>27</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="H24" s="9" t="s">
-        <v>48</v>
+        <v>21</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="8" t="s">
-        <v>49</v>
+      <c r="A25" s="9" t="s">
+        <v>46</v>
       </c>
       <c r="B25" s="8"/>
       <c r="C25" s="8" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D25" s="10"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H25" s="8" t="s">
-        <v>65</v>
+        <v>32</v>
+      </c>
+      <c r="H25" s="9" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="9" t="s">
-        <v>51</v>
+      <c r="A26" s="8" t="s">
+        <v>49</v>
       </c>
       <c r="B26" s="8"/>
-      <c r="C26" s="9" t="s">
-        <v>52</v>
+      <c r="C26" s="8" t="s">
+        <v>50</v>
       </c>
       <c r="D26" s="10"/>
       <c r="E26" s="8"/>
-      <c r="F26" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="G26" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="H26" s="9" t="s">
+      <c r="F26" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="9" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="8" t="s">
-        <v>53</v>
-      </c>
       <c r="B27" s="8"/>
-      <c r="C27" s="8" t="s">
-        <v>54</v>
+      <c r="C27" s="9" t="s">
+        <v>52</v>
       </c>
       <c r="D27" s="10"/>
       <c r="E27" s="8"/>
-      <c r="F27" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="G27" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H27" s="8" t="s">
-        <v>56</v>
+      <c r="F27" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H27" s="9" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="8" t="s">
-        <v>57</v>
+      <c r="A28" s="73" t="s">
+        <v>119</v>
       </c>
       <c r="B28" s="8"/>
       <c r="C28" s="8" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D28" s="10"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="G28" s="8" t="s">
         <v>21</v>
@@ -7927,35 +8031,37 @@
       </c>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="8" t="s">
-        <v>59</v>
+      <c r="A29" s="73" t="s">
+        <v>120</v>
       </c>
       <c r="B29" s="8"/>
       <c r="C29" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D29" s="10"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="H29" s="8"/>
+        <v>21</v>
+      </c>
+      <c r="H29" s="8" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B30" s="8"/>
       <c r="C30" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D30" s="10"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="G30" s="8" t="s">
         <v>32</v>
@@ -7963,88 +8069,106 @@
       <c r="H30" s="8"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="4" t="s">
+      <c r="A31" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D31" s="10"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H31" s="8"/>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4" t="s">
+      <c r="B32" s="34"/>
+      <c r="C32" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4" t="s">
+      <c r="D32" s="34"/>
+      <c r="E32" s="34"/>
+      <c r="F32" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="G31" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H31" s="4" t="s">
+      <c r="G32" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="H32" s="34" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="27" t="s">
+    <row r="33" spans="1:8">
+      <c r="A33" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="B32" s="27"/>
-      <c r="C32" s="27" t="s">
+      <c r="B33" s="34"/>
+      <c r="C33" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="D32" s="27"/>
-      <c r="E32" s="27"/>
-      <c r="F32" s="27" t="s">
+      <c r="D33" s="34"/>
+      <c r="E33" s="34"/>
+      <c r="F33" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="G32" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="H32" s="27" t="s">
+      <c r="G33" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="H33" s="34" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="22" t="s">
+    <row r="34" spans="1:8" ht="14.5" customHeight="1">
+      <c r="A34" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="B33" s="22"/>
-      <c r="C33" s="22" t="s">
+      <c r="B34" s="34"/>
+      <c r="C34" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="D33" s="22"/>
-      <c r="E33" s="22"/>
-      <c r="F33" s="22" t="s">
+      <c r="D34" s="34"/>
+      <c r="E34" s="34"/>
+      <c r="F34" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="G33" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="H33" s="22" t="s">
+      <c r="G34" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="H34" s="34" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="14.5" customHeight="1">
-      <c r="A34" s="43" t="s">
+    <row r="35" spans="1:8" ht="17" customHeight="1">
+      <c r="A35" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="B34" s="44"/>
-      <c r="C34" s="44"/>
-      <c r="D34" s="44"/>
-      <c r="E34" s="44"/>
-      <c r="F34" s="44"/>
-      <c r="G34" s="44"/>
-      <c r="H34" s="45"/>
-    </row>
-    <row r="35" spans="1:8" ht="269.5" customHeight="1">
-      <c r="A35" s="36" t="s">
-        <v>82</v>
-      </c>
-      <c r="B35" s="36"/>
-      <c r="C35" s="36"/>
-      <c r="D35" s="36"/>
-      <c r="E35" s="36"/>
-      <c r="F35" s="36"/>
-      <c r="G35" s="36"/>
-      <c r="H35" s="36"/>
+      <c r="B35" s="50"/>
+      <c r="C35" s="50"/>
+      <c r="D35" s="50"/>
+      <c r="E35" s="50"/>
+      <c r="F35" s="50"/>
+      <c r="G35" s="50"/>
+      <c r="H35" s="51"/>
+    </row>
+    <row r="36" spans="1:8" ht="353.5" customHeight="1">
+      <c r="A36" s="41" t="s">
+        <v>121</v>
+      </c>
+      <c r="B36" s="42"/>
+      <c r="C36" s="42"/>
+      <c r="D36" s="42"/>
+      <c r="E36" s="42"/>
+      <c r="F36" s="42"/>
+      <c r="G36" s="42"/>
+      <c r="H36" s="43"/>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="13"/>
@@ -8598,12 +8722,7 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="A36:H36"/>
     <mergeCell ref="A35:H35"/>
     <mergeCell ref="B7:H7"/>
     <mergeCell ref="A11:H11"/>
@@ -8611,7 +8730,12 @@
     <mergeCell ref="A13:H13"/>
     <mergeCell ref="A14:H14"/>
     <mergeCell ref="B15:H15"/>
-    <mergeCell ref="A34:H34"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B5:H5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -8626,8 +8750,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B31E2576-20FD-4E47-B846-39903FF9702A}">
   <dimension ref="A1:H94"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:H26"/>
+    <sheetView topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49:H49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.25" defaultRowHeight="17"/>
@@ -8642,95 +8766,95 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47" t="s">
-        <v>87</v>
-      </c>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
+      <c r="B1" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="50" t="s">
-        <v>90</v>
-      </c>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="52"/>
+      <c r="B3" s="52" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="54"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="49"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="3" t="s">
@@ -9045,52 +9169,52 @@
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="53" t="s">
+      <c r="A24" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="54"/>
-      <c r="C24" s="54"/>
-      <c r="D24" s="54"/>
-      <c r="E24" s="54"/>
-      <c r="F24" s="54"/>
-      <c r="G24" s="54"/>
-      <c r="H24" s="55"/>
+      <c r="B24" s="56"/>
+      <c r="C24" s="56"/>
+      <c r="D24" s="56"/>
+      <c r="E24" s="56"/>
+      <c r="F24" s="56"/>
+      <c r="G24" s="56"/>
+      <c r="H24" s="57"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="56" t="s">
+      <c r="A25" s="58" t="s">
         <v>80</v>
       </c>
-      <c r="B25" s="57"/>
-      <c r="C25" s="57"/>
-      <c r="D25" s="57"/>
-      <c r="E25" s="57"/>
-      <c r="F25" s="57"/>
-      <c r="G25" s="57"/>
-      <c r="H25" s="58"/>
+      <c r="B25" s="59"/>
+      <c r="C25" s="59"/>
+      <c r="D25" s="59"/>
+      <c r="E25" s="59"/>
+      <c r="F25" s="59"/>
+      <c r="G25" s="59"/>
+      <c r="H25" s="60"/>
     </row>
     <row r="26" spans="1:8" ht="198.5" customHeight="1">
-      <c r="A26" s="59" t="s">
-        <v>83</v>
-      </c>
-      <c r="B26" s="60"/>
-      <c r="C26" s="60"/>
-      <c r="D26" s="60"/>
-      <c r="E26" s="60"/>
-      <c r="F26" s="60"/>
-      <c r="G26" s="60"/>
-      <c r="H26" s="61"/>
+      <c r="A26" s="41" t="s">
+        <v>82</v>
+      </c>
+      <c r="B26" s="42"/>
+      <c r="C26" s="42"/>
+      <c r="D26" s="42"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="42"/>
+      <c r="H26" s="43"/>
     </row>
     <row r="27" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A27" s="43" t="s">
+      <c r="A27" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="B27" s="44"/>
-      <c r="C27" s="44"/>
-      <c r="D27" s="44"/>
-      <c r="E27" s="44"/>
-      <c r="F27" s="44"/>
-      <c r="G27" s="44"/>
-      <c r="H27" s="45"/>
+      <c r="B27" s="50"/>
+      <c r="C27" s="50"/>
+      <c r="D27" s="50"/>
+      <c r="E27" s="50"/>
+      <c r="F27" s="50"/>
+      <c r="G27" s="50"/>
+      <c r="H27" s="51"/>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="21" t="s">
@@ -9204,7 +9328,7 @@
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B34" s="22"/>
       <c r="C34" s="22" t="s">
@@ -9243,32 +9367,32 @@
       </c>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="8" t="s">
+      <c r="A36" s="34" t="s">
+        <v>116</v>
+      </c>
+      <c r="B36" s="72"/>
+      <c r="C36" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="D36" s="72"/>
+      <c r="E36" s="72"/>
+      <c r="F36" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="G36" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="H36" s="34" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="8" t="s">
         <v>44</v>
-      </c>
-      <c r="B36" s="8"/>
-      <c r="C36" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D36" s="10"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="G36" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H36" s="8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="A37" s="9" t="s">
-        <v>46</v>
       </c>
       <c r="B37" s="8"/>
       <c r="C37" s="8" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D37" s="10"/>
       <c r="E37" s="8"/>
@@ -9276,84 +9400,84 @@
         <v>27</v>
       </c>
       <c r="G37" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="H37" s="9" t="s">
-        <v>48</v>
+        <v>21</v>
+      </c>
+      <c r="H37" s="8" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="8" t="s">
-        <v>49</v>
+      <c r="A38" s="9" t="s">
+        <v>46</v>
       </c>
       <c r="B38" s="8"/>
       <c r="C38" s="8" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D38" s="10"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="G38" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H38" s="8" t="s">
-        <v>65</v>
+        <v>32</v>
+      </c>
+      <c r="H38" s="9" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="9" t="s">
-        <v>51</v>
+      <c r="A39" s="8" t="s">
+        <v>49</v>
       </c>
       <c r="B39" s="8"/>
-      <c r="C39" s="9" t="s">
-        <v>52</v>
+      <c r="C39" s="8" t="s">
+        <v>50</v>
       </c>
       <c r="D39" s="10"/>
       <c r="E39" s="8"/>
-      <c r="F39" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="G39" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="H39" s="9" t="s">
+      <c r="F39" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="G39" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H39" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="9" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="A40" s="8" t="s">
-        <v>53</v>
-      </c>
       <c r="B40" s="8"/>
-      <c r="C40" s="8" t="s">
-        <v>54</v>
+      <c r="C40" s="9" t="s">
+        <v>52</v>
       </c>
       <c r="D40" s="10"/>
       <c r="E40" s="8"/>
-      <c r="F40" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="G40" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H40" s="8" t="s">
-        <v>56</v>
+      <c r="F40" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G40" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H40" s="9" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="8" t="s">
-        <v>57</v>
+      <c r="A41" s="73" t="s">
+        <v>119</v>
       </c>
       <c r="B41" s="8"/>
       <c r="C41" s="8" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D41" s="10"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="G41" s="8" t="s">
         <v>21</v>
@@ -9363,35 +9487,37 @@
       </c>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="8" t="s">
-        <v>59</v>
+      <c r="A42" s="73" t="s">
+        <v>120</v>
       </c>
       <c r="B42" s="8"/>
       <c r="C42" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D42" s="10"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="G42" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="H42" s="8"/>
+        <v>21</v>
+      </c>
+      <c r="H42" s="8" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B43" s="8"/>
       <c r="C43" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D43" s="10"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="G43" s="8" t="s">
         <v>32</v>
@@ -9399,90 +9525,107 @@
       <c r="H43" s="8"/>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="22" t="s">
+      <c r="A44" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B44" s="8"/>
+      <c r="C44" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D44" s="10"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G44" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H44" s="8"/>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="B44" s="22"/>
-      <c r="C44" s="22" t="s">
+      <c r="B45" s="34"/>
+      <c r="C45" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="D44" s="22"/>
-      <c r="E44" s="22"/>
-      <c r="F44" s="22" t="s">
+      <c r="D45" s="34"/>
+      <c r="E45" s="34"/>
+      <c r="F45" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="G44" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="H44" s="22" t="s">
+      <c r="G45" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="H45" s="34" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
-      <c r="A45" s="27" t="s">
+    <row r="46" spans="1:8">
+      <c r="A46" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="B45" s="27"/>
-      <c r="C45" s="27" t="s">
+      <c r="B46" s="34"/>
+      <c r="C46" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="D45" s="27"/>
-      <c r="E45" s="27"/>
-      <c r="F45" s="27" t="s">
+      <c r="D46" s="34"/>
+      <c r="E46" s="34"/>
+      <c r="F46" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="G45" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="H45" s="27" t="s">
+      <c r="G46" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="H46" s="34" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
-      <c r="A46" s="22" t="s">
+    <row r="47" spans="1:8" ht="17.5" customHeight="1">
+      <c r="A47" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="B46" s="22"/>
-      <c r="C46" s="22" t="s">
+      <c r="B47" s="34"/>
+      <c r="C47" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="D46" s="22"/>
-      <c r="E46" s="22"/>
-      <c r="F46" s="22" t="s">
+      <c r="D47" s="34"/>
+      <c r="E47" s="34"/>
+      <c r="F47" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="G46" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="H46" s="22" t="s">
+      <c r="G47" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="H47" s="34" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="17.5" customHeight="1">
-      <c r="A47" s="43" t="s">
+    <row r="48" spans="1:8" ht="17" customHeight="1">
+      <c r="A48" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="B47" s="44"/>
-      <c r="C47" s="44"/>
-      <c r="D47" s="44"/>
-      <c r="E47" s="44"/>
-      <c r="F47" s="44"/>
-      <c r="G47" s="44"/>
-      <c r="H47" s="45"/>
-    </row>
-    <row r="48" spans="1:8" ht="308" customHeight="1">
-      <c r="A48" s="36" t="s">
-        <v>82</v>
-      </c>
-      <c r="B48" s="36"/>
-      <c r="C48" s="36"/>
-      <c r="D48" s="36"/>
-      <c r="E48" s="36"/>
-      <c r="F48" s="36"/>
-      <c r="G48" s="36"/>
-      <c r="H48" s="36"/>
-    </row>
-    <row r="49" spans="1:8" ht="271" customHeight="1"/>
+      <c r="B48" s="50"/>
+      <c r="C48" s="50"/>
+      <c r="D48" s="50"/>
+      <c r="E48" s="50"/>
+      <c r="F48" s="50"/>
+      <c r="G48" s="50"/>
+      <c r="H48" s="51"/>
+    </row>
+    <row r="49" spans="1:8" ht="271" customHeight="1">
+      <c r="A49" s="41" t="s">
+        <v>121</v>
+      </c>
+      <c r="B49" s="42"/>
+      <c r="C49" s="42"/>
+      <c r="D49" s="42"/>
+      <c r="E49" s="42"/>
+      <c r="F49" s="42"/>
+      <c r="G49" s="42"/>
+      <c r="H49" s="43"/>
+    </row>
     <row r="61" spans="1:8">
       <c r="A61" s="13"/>
       <c r="B61" s="13"/>
@@ -9805,6 +9948,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A48:H48"/>
+    <mergeCell ref="A49:H49"/>
+    <mergeCell ref="A24:H24"/>
+    <mergeCell ref="A25:H25"/>
+    <mergeCell ref="A26:H26"/>
+    <mergeCell ref="A27:H27"/>
     <mergeCell ref="B7:H7"/>
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="B2:H2"/>
@@ -9812,12 +9961,6 @@
     <mergeCell ref="B4:H4"/>
     <mergeCell ref="B5:H5"/>
     <mergeCell ref="A6:H6"/>
-    <mergeCell ref="A24:H24"/>
-    <mergeCell ref="A47:H47"/>
-    <mergeCell ref="A48:H48"/>
-    <mergeCell ref="A25:H25"/>
-    <mergeCell ref="A26:H26"/>
-    <mergeCell ref="A27:H27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -9833,8 +9976,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAE31BB7-A599-4ABB-A50D-5795B880F93B}">
   <dimension ref="A1:M94"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47:XFD47"/>
+    <sheetView topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49:H49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.25" defaultRowHeight="17"/>
@@ -9849,95 +9992,95 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47" t="s">
-        <v>88</v>
-      </c>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
+      <c r="B1" s="38" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="50" t="s">
-        <v>90</v>
-      </c>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="52"/>
+      <c r="B3" s="52" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="54"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="49"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="3" t="s">
@@ -10037,7 +10180,7 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="4" t="s">
@@ -10252,66 +10395,66 @@
       </c>
     </row>
     <row r="24" spans="1:13">
-      <c r="A24" s="53" t="s">
+      <c r="A24" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="54"/>
-      <c r="C24" s="54"/>
-      <c r="D24" s="54"/>
-      <c r="E24" s="54"/>
-      <c r="F24" s="54"/>
-      <c r="G24" s="54"/>
-      <c r="H24" s="55"/>
+      <c r="B24" s="56"/>
+      <c r="C24" s="56"/>
+      <c r="D24" s="56"/>
+      <c r="E24" s="56"/>
+      <c r="F24" s="56"/>
+      <c r="G24" s="56"/>
+      <c r="H24" s="57"/>
     </row>
     <row r="25" spans="1:13">
-      <c r="A25" s="56" t="s">
+      <c r="A25" s="58" t="s">
         <v>80</v>
       </c>
-      <c r="B25" s="57"/>
-      <c r="C25" s="57"/>
-      <c r="D25" s="57"/>
-      <c r="E25" s="57"/>
-      <c r="F25" s="57"/>
-      <c r="G25" s="57"/>
-      <c r="H25" s="58"/>
+      <c r="B25" s="59"/>
+      <c r="C25" s="59"/>
+      <c r="D25" s="59"/>
+      <c r="E25" s="59"/>
+      <c r="F25" s="59"/>
+      <c r="G25" s="59"/>
+      <c r="H25" s="60"/>
     </row>
     <row r="26" spans="1:13" ht="260" customHeight="1">
-      <c r="A26" s="59" t="s">
-        <v>84</v>
-      </c>
-      <c r="B26" s="60"/>
-      <c r="C26" s="60"/>
-      <c r="D26" s="60"/>
-      <c r="E26" s="60"/>
-      <c r="F26" s="60"/>
-      <c r="G26" s="60"/>
-      <c r="H26" s="61"/>
+      <c r="A26" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="B26" s="42"/>
+      <c r="C26" s="42"/>
+      <c r="D26" s="42"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="42"/>
+      <c r="H26" s="43"/>
     </row>
     <row r="27" spans="1:13" ht="18" customHeight="1">
-      <c r="A27" s="43" t="s">
+      <c r="A27" s="49" t="s">
         <v>79</v>
       </c>
-      <c r="B27" s="44"/>
-      <c r="C27" s="44"/>
-      <c r="D27" s="44"/>
-      <c r="E27" s="44"/>
-      <c r="F27" s="44"/>
-      <c r="G27" s="44"/>
-      <c r="H27" s="45"/>
+      <c r="B27" s="50"/>
+      <c r="C27" s="50"/>
+      <c r="D27" s="50"/>
+      <c r="E27" s="50"/>
+      <c r="F27" s="50"/>
+      <c r="G27" s="50"/>
+      <c r="H27" s="51"/>
     </row>
     <row r="28" spans="1:13" ht="17.5" customHeight="1">
       <c r="A28" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B28" s="64" t="s">
+      <c r="B28" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="65"/>
-      <c r="D28" s="65"/>
-      <c r="E28" s="65"/>
-      <c r="F28" s="65"/>
-      <c r="G28" s="65"/>
-      <c r="H28" s="66"/>
+      <c r="C28" s="64"/>
+      <c r="D28" s="64"/>
+      <c r="E28" s="64"/>
+      <c r="F28" s="64"/>
+      <c r="G28" s="64"/>
+      <c r="H28" s="65"/>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="21" t="s">
@@ -10390,11 +10533,11 @@
         <v>32</v>
       </c>
       <c r="H32" s="22"/>
-      <c r="I32" s="62"/>
-      <c r="J32" s="63"/>
-      <c r="K32" s="63"/>
-      <c r="L32" s="63"/>
-      <c r="M32" s="63"/>
+      <c r="I32" s="61"/>
+      <c r="J32" s="62"/>
+      <c r="K32" s="62"/>
+      <c r="L32" s="62"/>
+      <c r="M32" s="62"/>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="22" t="s">
@@ -10416,7 +10559,7 @@
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B34" s="22"/>
       <c r="C34" s="22" t="s">
@@ -10455,32 +10598,32 @@
       </c>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="8" t="s">
+      <c r="A36" s="34" t="s">
+        <v>116</v>
+      </c>
+      <c r="B36" s="72"/>
+      <c r="C36" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="D36" s="72"/>
+      <c r="E36" s="72"/>
+      <c r="F36" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="G36" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="H36" s="34" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="8" t="s">
         <v>44</v>
-      </c>
-      <c r="B36" s="8"/>
-      <c r="C36" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D36" s="10"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="G36" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H36" s="8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="A37" s="9" t="s">
-        <v>46</v>
       </c>
       <c r="B37" s="8"/>
       <c r="C37" s="8" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D37" s="10"/>
       <c r="E37" s="8"/>
@@ -10488,84 +10631,84 @@
         <v>27</v>
       </c>
       <c r="G37" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="H37" s="9" t="s">
-        <v>48</v>
+        <v>21</v>
+      </c>
+      <c r="H37" s="8" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="8" t="s">
-        <v>49</v>
+      <c r="A38" s="9" t="s">
+        <v>46</v>
       </c>
       <c r="B38" s="8"/>
       <c r="C38" s="8" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D38" s="10"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="G38" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H38" s="8" t="s">
-        <v>65</v>
+        <v>32</v>
+      </c>
+      <c r="H38" s="9" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="9" t="s">
-        <v>51</v>
+      <c r="A39" s="8" t="s">
+        <v>49</v>
       </c>
       <c r="B39" s="8"/>
-      <c r="C39" s="9" t="s">
-        <v>52</v>
+      <c r="C39" s="8" t="s">
+        <v>50</v>
       </c>
       <c r="D39" s="10"/>
       <c r="E39" s="8"/>
-      <c r="F39" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="G39" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="H39" s="9" t="s">
+      <c r="F39" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="G39" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H39" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="9" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="A40" s="8" t="s">
-        <v>53</v>
-      </c>
       <c r="B40" s="8"/>
-      <c r="C40" s="8" t="s">
-        <v>54</v>
+      <c r="C40" s="9" t="s">
+        <v>52</v>
       </c>
       <c r="D40" s="10"/>
       <c r="E40" s="8"/>
-      <c r="F40" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="G40" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H40" s="8" t="s">
-        <v>56</v>
+      <c r="F40" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G40" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H40" s="9" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="8" t="s">
-        <v>57</v>
+        <v>119</v>
       </c>
       <c r="B41" s="8"/>
       <c r="C41" s="8" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D41" s="10"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="G41" s="8" t="s">
         <v>21</v>
@@ -10576,34 +10719,36 @@
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="8" t="s">
-        <v>59</v>
+        <v>120</v>
       </c>
       <c r="B42" s="8"/>
       <c r="C42" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D42" s="10"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="G42" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="H42" s="8"/>
+        <v>21</v>
+      </c>
+      <c r="H42" s="8" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B43" s="8"/>
       <c r="C43" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D43" s="10"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="G43" s="8" t="s">
         <v>32</v>
@@ -10611,90 +10756,107 @@
       <c r="H43" s="8"/>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="22" t="s">
+      <c r="A44" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B44" s="8"/>
+      <c r="C44" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D44" s="10"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G44" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H44" s="8"/>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="B44" s="22"/>
-      <c r="C44" s="22" t="s">
+      <c r="B45" s="34"/>
+      <c r="C45" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="D44" s="22"/>
-      <c r="E44" s="22"/>
-      <c r="F44" s="22" t="s">
+      <c r="D45" s="34"/>
+      <c r="E45" s="34"/>
+      <c r="F45" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="G44" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="H44" s="22" t="s">
+      <c r="G45" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="H45" s="34" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
-      <c r="A45" s="27" t="s">
+    <row r="46" spans="1:8">
+      <c r="A46" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="B45" s="27"/>
-      <c r="C45" s="27" t="s">
+      <c r="B46" s="34"/>
+      <c r="C46" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="D45" s="27"/>
-      <c r="E45" s="27"/>
-      <c r="F45" s="27" t="s">
+      <c r="D46" s="34"/>
+      <c r="E46" s="34"/>
+      <c r="F46" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="G45" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="H45" s="27" t="s">
+      <c r="G46" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="H46" s="34" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
-      <c r="A46" s="22" t="s">
+    <row r="47" spans="1:8" ht="14.5" customHeight="1">
+      <c r="A47" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="B46" s="22"/>
-      <c r="C46" s="22" t="s">
+      <c r="B47" s="34"/>
+      <c r="C47" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="D46" s="22"/>
-      <c r="E46" s="22"/>
-      <c r="F46" s="22" t="s">
+      <c r="D47" s="34"/>
+      <c r="E47" s="34"/>
+      <c r="F47" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="G46" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="H46" s="22" t="s">
+      <c r="G47" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="H47" s="34" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="14.5" customHeight="1">
-      <c r="A47" s="43" t="s">
+    <row r="48" spans="1:8" ht="17" customHeight="1">
+      <c r="A48" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="B47" s="44"/>
-      <c r="C47" s="44"/>
-      <c r="D47" s="44"/>
-      <c r="E47" s="44"/>
-      <c r="F47" s="44"/>
-      <c r="G47" s="44"/>
-      <c r="H47" s="45"/>
-    </row>
-    <row r="48" spans="1:8" ht="324" customHeight="1">
-      <c r="A48" s="36" t="s">
-        <v>82</v>
-      </c>
-      <c r="B48" s="36"/>
-      <c r="C48" s="36"/>
-      <c r="D48" s="36"/>
-      <c r="E48" s="36"/>
-      <c r="F48" s="36"/>
-      <c r="G48" s="36"/>
-      <c r="H48" s="36"/>
-    </row>
-    <row r="49" spans="1:8" ht="277" customHeight="1"/>
+      <c r="B48" s="50"/>
+      <c r="C48" s="50"/>
+      <c r="D48" s="50"/>
+      <c r="E48" s="50"/>
+      <c r="F48" s="50"/>
+      <c r="G48" s="50"/>
+      <c r="H48" s="51"/>
+    </row>
+    <row r="49" spans="1:8" ht="277" customHeight="1">
+      <c r="A49" s="41" t="s">
+        <v>121</v>
+      </c>
+      <c r="B49" s="42"/>
+      <c r="C49" s="42"/>
+      <c r="D49" s="42"/>
+      <c r="E49" s="42"/>
+      <c r="F49" s="42"/>
+      <c r="G49" s="42"/>
+      <c r="H49" s="43"/>
+    </row>
     <row r="50" spans="1:8" ht="271" customHeight="1"/>
     <row r="61" spans="1:8">
       <c r="A61" s="13"/>
@@ -11018,6 +11180,14 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A49:H49"/>
+    <mergeCell ref="A48:H48"/>
+    <mergeCell ref="I32:M32"/>
+    <mergeCell ref="A24:H24"/>
+    <mergeCell ref="B28:H28"/>
+    <mergeCell ref="A25:H25"/>
+    <mergeCell ref="A26:H26"/>
+    <mergeCell ref="A27:H27"/>
     <mergeCell ref="B7:H7"/>
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="B2:H2"/>
@@ -11025,14 +11195,6 @@
     <mergeCell ref="B4:H4"/>
     <mergeCell ref="B5:H5"/>
     <mergeCell ref="A6:H6"/>
-    <mergeCell ref="A48:H48"/>
-    <mergeCell ref="I32:M32"/>
-    <mergeCell ref="A24:H24"/>
-    <mergeCell ref="B28:H28"/>
-    <mergeCell ref="A47:H47"/>
-    <mergeCell ref="A25:H25"/>
-    <mergeCell ref="A26:H26"/>
-    <mergeCell ref="A27:H27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -11063,95 +11225,95 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47" t="s">
-        <v>89</v>
-      </c>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
+      <c r="B1" s="38" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="50" t="s">
-        <v>93</v>
-      </c>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="52"/>
+      <c r="B3" s="52" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="54"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="49"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="3" t="s">
@@ -11196,68 +11358,68 @@
         <v>21</v>
       </c>
       <c r="H9" s="26" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A10" s="53" t="s">
+      <c r="A10" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="54"/>
-      <c r="C10" s="54"/>
-      <c r="D10" s="54"/>
-      <c r="E10" s="54"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="54"/>
-      <c r="H10" s="55"/>
+      <c r="B10" s="56"/>
+      <c r="C10" s="56"/>
+      <c r="D10" s="56"/>
+      <c r="E10" s="56"/>
+      <c r="F10" s="56"/>
+      <c r="G10" s="56"/>
+      <c r="H10" s="57"/>
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A11" s="56" t="s">
+      <c r="A11" s="58" t="s">
         <v>81</v>
       </c>
-      <c r="B11" s="57"/>
-      <c r="C11" s="57"/>
-      <c r="D11" s="57"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="57"/>
-      <c r="H11" s="58"/>
+      <c r="B11" s="59"/>
+      <c r="C11" s="59"/>
+      <c r="D11" s="59"/>
+      <c r="E11" s="59"/>
+      <c r="F11" s="59"/>
+      <c r="G11" s="59"/>
+      <c r="H11" s="60"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="69"/>
-      <c r="B12" s="70"/>
-      <c r="C12" s="70"/>
-      <c r="D12" s="70"/>
-      <c r="E12" s="70"/>
-      <c r="F12" s="70"/>
-      <c r="G12" s="70"/>
-      <c r="H12" s="71"/>
+      <c r="A12" s="68"/>
+      <c r="B12" s="69"/>
+      <c r="C12" s="69"/>
+      <c r="D12" s="69"/>
+      <c r="E12" s="69"/>
+      <c r="F12" s="69"/>
+      <c r="G12" s="69"/>
+      <c r="H12" s="70"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="43" t="s">
+      <c r="A13" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="44"/>
-      <c r="C13" s="44"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="44"/>
-      <c r="H13" s="45"/>
+      <c r="B13" s="50"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="50"/>
+      <c r="H13" s="51"/>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="64" t="s">
+      <c r="B14" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="65"/>
-      <c r="D14" s="65"/>
-      <c r="E14" s="65"/>
-      <c r="F14" s="65"/>
-      <c r="G14" s="65"/>
-      <c r="H14" s="66"/>
+      <c r="C14" s="64"/>
+      <c r="D14" s="64"/>
+      <c r="E14" s="64"/>
+      <c r="F14" s="64"/>
+      <c r="G14" s="64"/>
+      <c r="H14" s="65"/>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="6" t="s">
@@ -11340,28 +11502,28 @@
       </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="42" t="s">
+      <c r="A19" s="48" t="s">
         <v>63</v>
       </c>
-      <c r="B19" s="72"/>
-      <c r="C19" s="72"/>
-      <c r="D19" s="72"/>
-      <c r="E19" s="72"/>
-      <c r="F19" s="72"/>
-      <c r="G19" s="72"/>
-      <c r="H19" s="72"/>
+      <c r="B19" s="71"/>
+      <c r="C19" s="71"/>
+      <c r="D19" s="71"/>
+      <c r="E19" s="71"/>
+      <c r="F19" s="71"/>
+      <c r="G19" s="71"/>
+      <c r="H19" s="71"/>
     </row>
     <row r="20" spans="1:8" ht="74" customHeight="1">
-      <c r="A20" s="59" t="s">
+      <c r="A20" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="B20" s="60"/>
-      <c r="C20" s="60"/>
-      <c r="D20" s="60"/>
-      <c r="E20" s="60"/>
-      <c r="F20" s="60"/>
-      <c r="G20" s="60"/>
-      <c r="H20" s="61"/>
+      <c r="B20" s="42"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="42"/>
+      <c r="H20" s="43"/>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="13"/>
@@ -11484,24 +11646,24 @@
       <c r="H32" s="13"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="67"/>
-      <c r="B33" s="67"/>
-      <c r="C33" s="67"/>
-      <c r="D33" s="67"/>
-      <c r="E33" s="67"/>
-      <c r="F33" s="67"/>
-      <c r="G33" s="67"/>
-      <c r="H33" s="67"/>
+      <c r="A33" s="66"/>
+      <c r="B33" s="66"/>
+      <c r="C33" s="66"/>
+      <c r="D33" s="66"/>
+      <c r="E33" s="66"/>
+      <c r="F33" s="66"/>
+      <c r="G33" s="66"/>
+      <c r="H33" s="66"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="68"/>
-      <c r="B34" s="68"/>
-      <c r="C34" s="68"/>
-      <c r="D34" s="68"/>
-      <c r="E34" s="68"/>
-      <c r="F34" s="68"/>
-      <c r="G34" s="68"/>
-      <c r="H34" s="68"/>
+      <c r="A34" s="67"/>
+      <c r="B34" s="67"/>
+      <c r="C34" s="67"/>
+      <c r="D34" s="67"/>
+      <c r="E34" s="67"/>
+      <c r="F34" s="67"/>
+      <c r="G34" s="67"/>
+      <c r="H34" s="67"/>
     </row>
     <row r="35" spans="1:8" ht="19" customHeight="1">
       <c r="A35" s="17"/>
@@ -12105,6 +12267,13 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A33:H33"/>
+    <mergeCell ref="A34:H34"/>
+    <mergeCell ref="A12:H12"/>
+    <mergeCell ref="A19:H19"/>
+    <mergeCell ref="A20:H20"/>
+    <mergeCell ref="A13:H13"/>
+    <mergeCell ref="B14:H14"/>
     <mergeCell ref="B7:H7"/>
     <mergeCell ref="A10:H10"/>
     <mergeCell ref="A11:H11"/>
@@ -12114,13 +12283,6 @@
     <mergeCell ref="B4:H4"/>
     <mergeCell ref="B5:H5"/>
     <mergeCell ref="A6:H6"/>
-    <mergeCell ref="A33:H33"/>
-    <mergeCell ref="A34:H34"/>
-    <mergeCell ref="A12:H12"/>
-    <mergeCell ref="A19:H19"/>
-    <mergeCell ref="A20:H20"/>
-    <mergeCell ref="A13:H13"/>
-    <mergeCell ref="B14:H14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
